--- a/raw_data/20200818_saline/20200818_Sensor3_Test_75.xlsx
+++ b/raw_data/20200818_saline/20200818_Sensor3_Test_75.xlsx
@@ -1,1142 +1,1558 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <workbookPr date1904="true"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24430"/>
+  <workbookPr date1904="1" defaultThemeVersion="166925"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\Dropbox (GaTech)\Lab files\code\Impedance_fit\raw_data\20200818_saline\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D3EEEDA4-6699-4BDD-B5E3-ABFB92B3F766}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <bookViews>
+    <workbookView xWindow="2240" yWindow="2240" windowWidth="28800" windowHeight="15460" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+  </bookViews>
   <sheets>
     <sheet name="sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
+  <calcPr calcId="0"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <si>
-    <t>Inf</t>
-  </si>
-  <si>
-    <t>-Inf</t>
-  </si>
-  <si>
-    <t>#NV</t>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="85" uniqueCount="85">
+  <si>
+    <t>Untitled</t>
+  </si>
+  <si>
+    <t>Untitled 1</t>
+  </si>
+  <si>
+    <t>Untitled 2</t>
+  </si>
+  <si>
+    <t>Untitled 3</t>
+  </si>
+  <si>
+    <t>Untitled 4</t>
+  </si>
+  <si>
+    <t>Untitled 5</t>
+  </si>
+  <si>
+    <t>Untitled 6</t>
+  </si>
+  <si>
+    <t>Untitled 7</t>
+  </si>
+  <si>
+    <t>Untitled 8</t>
+  </si>
+  <si>
+    <t>Untitled 9</t>
+  </si>
+  <si>
+    <t>Untitled 10</t>
+  </si>
+  <si>
+    <t>Untitled 11</t>
+  </si>
+  <si>
+    <t>Untitled 12</t>
+  </si>
+  <si>
+    <t>Untitled 13</t>
+  </si>
+  <si>
+    <t>Untitled 14</t>
+  </si>
+  <si>
+    <t>Untitled 15</t>
+  </si>
+  <si>
+    <t>Untitled 16</t>
+  </si>
+  <si>
+    <t>Untitled 17</t>
+  </si>
+  <si>
+    <t>Untitled 18</t>
+  </si>
+  <si>
+    <t>Untitled 19</t>
+  </si>
+  <si>
+    <t>Untitled 20</t>
+  </si>
+  <si>
+    <t>Untitled 21</t>
+  </si>
+  <si>
+    <t>Untitled 22</t>
+  </si>
+  <si>
+    <t>Untitled 23</t>
+  </si>
+  <si>
+    <t>Untitled 24</t>
+  </si>
+  <si>
+    <t>Untitled 25</t>
+  </si>
+  <si>
+    <t>Untitled 26</t>
+  </si>
+  <si>
+    <t>Untitled 27</t>
+  </si>
+  <si>
+    <t>Untitled 28</t>
+  </si>
+  <si>
+    <t>Untitled 29</t>
+  </si>
+  <si>
+    <t>Untitled 30</t>
+  </si>
+  <si>
+    <t>Untitled 31</t>
+  </si>
+  <si>
+    <t>Untitled 32</t>
+  </si>
+  <si>
+    <t>Untitled 33</t>
+  </si>
+  <si>
+    <t>Untitled 34</t>
+  </si>
+  <si>
+    <t>Untitled 35</t>
+  </si>
+  <si>
+    <t>Untitled 36</t>
+  </si>
+  <si>
+    <t>Untitled 37</t>
+  </si>
+  <si>
+    <t>Untitled 38</t>
+  </si>
+  <si>
+    <t>Untitled 39</t>
+  </si>
+  <si>
+    <t>Untitled 40</t>
+  </si>
+  <si>
+    <t>Untitled 41</t>
+  </si>
+  <si>
+    <t>Untitled 42</t>
+  </si>
+  <si>
+    <t>Untitled 43</t>
+  </si>
+  <si>
+    <t>Untitled 44</t>
+  </si>
+  <si>
+    <t>Untitled 45</t>
+  </si>
+  <si>
+    <t>Untitled 46</t>
+  </si>
+  <si>
+    <t>Untitled 47</t>
+  </si>
+  <si>
+    <t>Untitled 48</t>
+  </si>
+  <si>
+    <t>Untitled 49</t>
+  </si>
+  <si>
+    <t>Untitled 50</t>
+  </si>
+  <si>
+    <t>Untitled 51</t>
+  </si>
+  <si>
+    <t>Untitled 52</t>
+  </si>
+  <si>
+    <t>Untitled 53</t>
+  </si>
+  <si>
+    <t>Untitled 54</t>
+  </si>
+  <si>
+    <t>Untitled 55</t>
+  </si>
+  <si>
+    <t>Untitled 56</t>
+  </si>
+  <si>
+    <t>Untitled 57</t>
+  </si>
+  <si>
+    <t>Untitled 58</t>
+  </si>
+  <si>
+    <t>Untitled 59</t>
+  </si>
+  <si>
+    <t>Untitled 60</t>
+  </si>
+  <si>
+    <t>Untitled 61</t>
+  </si>
+  <si>
+    <t>Untitled 62</t>
+  </si>
+  <si>
+    <t>Untitled 63</t>
+  </si>
+  <si>
+    <t>Untitled 64</t>
+  </si>
+  <si>
+    <t>Untitled 65</t>
+  </si>
+  <si>
+    <t>Untitled 66</t>
+  </si>
+  <si>
+    <t>Untitled 67</t>
+  </si>
+  <si>
+    <t>Untitled 68</t>
+  </si>
+  <si>
+    <t>Untitled 69</t>
+  </si>
+  <si>
+    <t>Untitled 70</t>
+  </si>
+  <si>
+    <t>Untitled 71</t>
+  </si>
+  <si>
+    <t>Untitled 72</t>
+  </si>
+  <si>
+    <t>Untitled 73</t>
+  </si>
+  <si>
+    <t>Untitled 74</t>
+  </si>
+  <si>
+    <t>Untitled 75</t>
+  </si>
+  <si>
+    <t>Untitled 76</t>
+  </si>
+  <si>
+    <t>Untitled 77</t>
+  </si>
+  <si>
+    <t>Untitled 78</t>
+  </si>
+  <si>
+    <t>Untitled 79</t>
+  </si>
+  <si>
+    <t>Untitled 80</t>
+  </si>
+  <si>
+    <t>Untitled 81</t>
+  </si>
+  <si>
+    <t>Untitled 82</t>
+  </si>
+  <si>
+    <t>Untitled 83</t>
+  </si>
+  <si>
+    <t>Untitled 84</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="0"> </numFmts>
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="1">
-    <font/>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+    </font>
   </fonts>
-  <fills count="1">
-    <fill/>
+  <fills count="2">
+    <fill>
+      <patternFill patternType="none"/>
+    </fill>
+    <fill>
+      <patternFill patternType="gray125"/>
+    </fill>
   </fills>
   <borders count="1">
-    <border/>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
+  <cellStyleXfs count="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+  </cellStyleXfs>
   <cellXfs count="2">
-    <xf numFmtId="0"/>
-    <xf numFmtId="0" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
   </cellXfs>
+  <cellStyles count="1">
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+  </cellStyles>
+  <dxfs count="0"/>
+  <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
+<file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+  <a:themeElements>
+    <a:clrScheme name="Office">
+      <a:dk1>
+        <a:sysClr val="windowText" lastClr="000000"/>
+      </a:dk1>
+      <a:lt1>
+        <a:sysClr val="window" lastClr="FFFFFF"/>
+      </a:lt1>
+      <a:dk2>
+        <a:srgbClr val="44546A"/>
+      </a:dk2>
+      <a:lt2>
+        <a:srgbClr val="E7E6E6"/>
+      </a:lt2>
+      <a:accent1>
+        <a:srgbClr val="4472C4"/>
+      </a:accent1>
+      <a:accent2>
+        <a:srgbClr val="ED7D31"/>
+      </a:accent2>
+      <a:accent3>
+        <a:srgbClr val="A5A5A5"/>
+      </a:accent3>
+      <a:accent4>
+        <a:srgbClr val="FFC000"/>
+      </a:accent4>
+      <a:accent5>
+        <a:srgbClr val="5B9BD5"/>
+      </a:accent5>
+      <a:accent6>
+        <a:srgbClr val="70AD47"/>
+      </a:accent6>
+      <a:hlink>
+        <a:srgbClr val="0563C1"/>
+      </a:hlink>
+      <a:folHlink>
+        <a:srgbClr val="954F72"/>
+      </a:folHlink>
+    </a:clrScheme>
+    <a:fontScheme name="Office">
+      <a:majorFont>
+        <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
+        <a:ea typeface=""/>
+        <a:cs typeface=""/>
+        <a:font script="Jpan" typeface="游ゴシック Light"/>
+        <a:font script="Hang" typeface="맑은 고딕"/>
+        <a:font script="Hans" typeface="等线 Light"/>
+        <a:font script="Hant" typeface="新細明體"/>
+        <a:font script="Arab" typeface="Times New Roman"/>
+        <a:font script="Hebr" typeface="Times New Roman"/>
+        <a:font script="Thai" typeface="Tahoma"/>
+        <a:font script="Ethi" typeface="Nyala"/>
+        <a:font script="Beng" typeface="Vrinda"/>
+        <a:font script="Gujr" typeface="Shruti"/>
+        <a:font script="Khmr" typeface="MoolBoran"/>
+        <a:font script="Knda" typeface="Tunga"/>
+        <a:font script="Guru" typeface="Raavi"/>
+        <a:font script="Cans" typeface="Euphemia"/>
+        <a:font script="Cher" typeface="Plantagenet Cherokee"/>
+        <a:font script="Yiii" typeface="Microsoft Yi Baiti"/>
+        <a:font script="Tibt" typeface="Microsoft Himalaya"/>
+        <a:font script="Thaa" typeface="MV Boli"/>
+        <a:font script="Deva" typeface="Mangal"/>
+        <a:font script="Telu" typeface="Gautami"/>
+        <a:font script="Taml" typeface="Latha"/>
+        <a:font script="Syrc" typeface="Estrangelo Edessa"/>
+        <a:font script="Orya" typeface="Kalinga"/>
+        <a:font script="Mlym" typeface="Kartika"/>
+        <a:font script="Laoo" typeface="DokChampa"/>
+        <a:font script="Sinh" typeface="Iskoola Pota"/>
+        <a:font script="Mong" typeface="Mongolian Baiti"/>
+        <a:font script="Viet" typeface="Times New Roman"/>
+        <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
+      </a:majorFont>
+      <a:minorFont>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:ea typeface=""/>
+        <a:cs typeface=""/>
+        <a:font script="Jpan" typeface="游ゴシック"/>
+        <a:font script="Hang" typeface="맑은 고딕"/>
+        <a:font script="Hans" typeface="等线"/>
+        <a:font script="Hant" typeface="新細明體"/>
+        <a:font script="Arab" typeface="Arial"/>
+        <a:font script="Hebr" typeface="Arial"/>
+        <a:font script="Thai" typeface="Tahoma"/>
+        <a:font script="Ethi" typeface="Nyala"/>
+        <a:font script="Beng" typeface="Vrinda"/>
+        <a:font script="Gujr" typeface="Shruti"/>
+        <a:font script="Khmr" typeface="DaunPenh"/>
+        <a:font script="Knda" typeface="Tunga"/>
+        <a:font script="Guru" typeface="Raavi"/>
+        <a:font script="Cans" typeface="Euphemia"/>
+        <a:font script="Cher" typeface="Plantagenet Cherokee"/>
+        <a:font script="Yiii" typeface="Microsoft Yi Baiti"/>
+        <a:font script="Tibt" typeface="Microsoft Himalaya"/>
+        <a:font script="Thaa" typeface="MV Boli"/>
+        <a:font script="Deva" typeface="Mangal"/>
+        <a:font script="Telu" typeface="Gautami"/>
+        <a:font script="Taml" typeface="Latha"/>
+        <a:font script="Syrc" typeface="Estrangelo Edessa"/>
+        <a:font script="Orya" typeface="Kalinga"/>
+        <a:font script="Mlym" typeface="Kartika"/>
+        <a:font script="Laoo" typeface="DokChampa"/>
+        <a:font script="Sinh" typeface="Iskoola Pota"/>
+        <a:font script="Mong" typeface="Mongolian Baiti"/>
+        <a:font script="Viet" typeface="Arial"/>
+        <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
+      </a:minorFont>
+    </a:fontScheme>
+    <a:fmtScheme name="Office">
+      <a:fillStyleLst>
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:gradFill rotWithShape="1">
+          <a:gsLst>
+            <a:gs pos="0">
+              <a:schemeClr val="phClr">
+                <a:lumMod val="110000"/>
+                <a:satMod val="105000"/>
+                <a:tint val="67000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="50000">
+              <a:schemeClr val="phClr">
+                <a:lumMod val="105000"/>
+                <a:satMod val="103000"/>
+                <a:tint val="73000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="100000">
+              <a:schemeClr val="phClr">
+                <a:lumMod val="105000"/>
+                <a:satMod val="109000"/>
+                <a:tint val="81000"/>
+              </a:schemeClr>
+            </a:gs>
+          </a:gsLst>
+          <a:lin ang="5400000" scaled="0"/>
+        </a:gradFill>
+        <a:gradFill rotWithShape="1">
+          <a:gsLst>
+            <a:gs pos="0">
+              <a:schemeClr val="phClr">
+                <a:satMod val="103000"/>
+                <a:lumMod val="102000"/>
+                <a:tint val="94000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="50000">
+              <a:schemeClr val="phClr">
+                <a:satMod val="110000"/>
+                <a:lumMod val="100000"/>
+                <a:shade val="100000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="100000">
+              <a:schemeClr val="phClr">
+                <a:lumMod val="99000"/>
+                <a:satMod val="120000"/>
+                <a:shade val="78000"/>
+              </a:schemeClr>
+            </a:gs>
+          </a:gsLst>
+          <a:lin ang="5400000" scaled="0"/>
+        </a:gradFill>
+      </a:fillStyleLst>
+      <a:lnStyleLst>
+        <a:ln w="6350" cap="flat" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:schemeClr val="phClr"/>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+          <a:miter lim="800000"/>
+        </a:ln>
+        <a:ln w="12700" cap="flat" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:schemeClr val="phClr"/>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+          <a:miter lim="800000"/>
+        </a:ln>
+        <a:ln w="19050" cap="flat" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:schemeClr val="phClr"/>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+          <a:miter lim="800000"/>
+        </a:ln>
+      </a:lnStyleLst>
+      <a:effectStyleLst>
+        <a:effectStyle>
+          <a:effectLst/>
+        </a:effectStyle>
+        <a:effectStyle>
+          <a:effectLst/>
+        </a:effectStyle>
+        <a:effectStyle>
+          <a:effectLst>
+            <a:outerShdw blurRad="57150" dist="19050" dir="5400000" algn="ctr" rotWithShape="0">
+              <a:srgbClr val="000000">
+                <a:alpha val="63000"/>
+              </a:srgbClr>
+            </a:outerShdw>
+          </a:effectLst>
+        </a:effectStyle>
+      </a:effectStyleLst>
+      <a:bgFillStyleLst>
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:solidFill>
+          <a:schemeClr val="phClr">
+            <a:tint val="95000"/>
+            <a:satMod val="170000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:gradFill rotWithShape="1">
+          <a:gsLst>
+            <a:gs pos="0">
+              <a:schemeClr val="phClr">
+                <a:tint val="93000"/>
+                <a:satMod val="150000"/>
+                <a:shade val="98000"/>
+                <a:lumMod val="102000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="50000">
+              <a:schemeClr val="phClr">
+                <a:tint val="98000"/>
+                <a:satMod val="130000"/>
+                <a:shade val="90000"/>
+                <a:lumMod val="103000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="100000">
+              <a:schemeClr val="phClr">
+                <a:shade val="63000"/>
+                <a:satMod val="120000"/>
+              </a:schemeClr>
+            </a:gs>
+          </a:gsLst>
+          <a:lin ang="5400000" scaled="0"/>
+        </a:gradFill>
+      </a:bgFillStyleLst>
+    </a:fmtScheme>
+  </a:themeElements>
+  <a:objectDefaults/>
+  <a:extraClrSchemeLst/>
+  <a:extLst>
+    <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+    </a:ext>
+  </a:extLst>
+</a:theme>
+</file>
+
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:CG26"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.5"/>
   <sheetData>
-    <row r="1">
-      <c r="A1" t="inlineStr">
-        <is>
-          <t>Untitled</t>
-        </is>
-      </c>
-      <c r="B1" t="inlineStr">
-        <is>
-          <t>Untitled 1</t>
-        </is>
-      </c>
-      <c r="C1" t="inlineStr">
-        <is>
-          <t>Untitled 2</t>
-        </is>
-      </c>
-      <c r="D1" t="inlineStr">
-        <is>
-          <t>Untitled 3</t>
-        </is>
-      </c>
-      <c r="E1" t="inlineStr">
-        <is>
-          <t>Untitled 4</t>
-        </is>
-      </c>
-      <c r="F1" t="inlineStr">
-        <is>
-          <t>Untitled 5</t>
-        </is>
-      </c>
-      <c r="G1" t="inlineStr">
-        <is>
-          <t>Untitled 6</t>
-        </is>
-      </c>
-      <c r="H1" t="inlineStr">
-        <is>
-          <t>Untitled 7</t>
-        </is>
-      </c>
-      <c r="I1" t="inlineStr">
-        <is>
-          <t>Untitled 8</t>
-        </is>
-      </c>
-      <c r="J1" t="inlineStr">
-        <is>
-          <t>Untitled 9</t>
-        </is>
-      </c>
-      <c r="K1" t="inlineStr">
-        <is>
-          <t>Untitled 10</t>
-        </is>
-      </c>
-      <c r="L1" t="inlineStr">
-        <is>
-          <t>Untitled 11</t>
-        </is>
-      </c>
-      <c r="M1" t="inlineStr">
-        <is>
-          <t>Untitled 12</t>
-        </is>
-      </c>
-      <c r="N1" t="inlineStr">
-        <is>
-          <t>Untitled 13</t>
-        </is>
-      </c>
-      <c r="O1" t="inlineStr">
-        <is>
-          <t>Untitled 14</t>
-        </is>
-      </c>
-      <c r="P1" t="inlineStr">
-        <is>
-          <t>Untitled 15</t>
-        </is>
-      </c>
-      <c r="Q1" t="inlineStr">
-        <is>
-          <t>Untitled 16</t>
-        </is>
-      </c>
-      <c r="R1" t="inlineStr">
-        <is>
-          <t>Untitled 17</t>
-        </is>
-      </c>
-      <c r="S1" t="inlineStr">
-        <is>
-          <t>Untitled 18</t>
-        </is>
-      </c>
-      <c r="T1" t="inlineStr">
-        <is>
-          <t>Untitled 19</t>
-        </is>
-      </c>
-      <c r="U1" t="inlineStr">
-        <is>
-          <t>Untitled 20</t>
-        </is>
-      </c>
-      <c r="V1" t="inlineStr">
-        <is>
-          <t>Untitled 21</t>
-        </is>
-      </c>
-      <c r="W1" t="inlineStr">
-        <is>
-          <t>Untitled 22</t>
-        </is>
-      </c>
-      <c r="X1" t="inlineStr">
-        <is>
-          <t>Untitled 23</t>
-        </is>
-      </c>
-      <c r="Y1" t="inlineStr">
-        <is>
-          <t>Untitled 24</t>
-        </is>
-      </c>
-      <c r="Z1" t="inlineStr">
-        <is>
-          <t>Untitled 25</t>
-        </is>
-      </c>
-      <c r="AA1" t="inlineStr">
-        <is>
-          <t>Untitled 26</t>
-        </is>
-      </c>
-      <c r="AB1" t="inlineStr">
-        <is>
-          <t>Untitled 27</t>
-        </is>
-      </c>
-      <c r="AC1" t="inlineStr">
-        <is>
-          <t>Untitled 28</t>
-        </is>
-      </c>
-      <c r="AD1" t="inlineStr">
-        <is>
-          <t>Untitled 29</t>
-        </is>
-      </c>
-      <c r="AE1" t="inlineStr">
-        <is>
-          <t>Untitled 30</t>
-        </is>
-      </c>
-      <c r="AF1" t="inlineStr">
-        <is>
-          <t>Untitled 31</t>
-        </is>
-      </c>
-      <c r="AG1" t="inlineStr">
-        <is>
-          <t>Untitled 32</t>
-        </is>
-      </c>
-      <c r="AH1" t="inlineStr">
-        <is>
-          <t>Untitled 33</t>
-        </is>
-      </c>
-      <c r="AI1" t="inlineStr">
-        <is>
-          <t>Untitled 34</t>
-        </is>
-      </c>
-      <c r="AJ1" t="inlineStr">
-        <is>
-          <t>Untitled 35</t>
-        </is>
-      </c>
-      <c r="AK1" t="inlineStr">
-        <is>
-          <t>Untitled 36</t>
-        </is>
-      </c>
-      <c r="AL1" t="inlineStr">
-        <is>
-          <t>Untitled 37</t>
-        </is>
-      </c>
-      <c r="AM1" t="inlineStr">
-        <is>
-          <t>Untitled 38</t>
-        </is>
-      </c>
-      <c r="AN1" t="inlineStr">
-        <is>
-          <t>Untitled 39</t>
-        </is>
-      </c>
-      <c r="AO1" t="inlineStr">
-        <is>
-          <t>Untitled 40</t>
-        </is>
-      </c>
-      <c r="AP1" t="inlineStr">
-        <is>
-          <t>Untitled 41</t>
-        </is>
-      </c>
-      <c r="AQ1" t="inlineStr">
-        <is>
-          <t>Untitled 42</t>
-        </is>
-      </c>
-      <c r="AR1" t="inlineStr">
-        <is>
-          <t>Untitled 43</t>
-        </is>
-      </c>
-      <c r="AS1" t="inlineStr">
-        <is>
-          <t>Untitled 44</t>
-        </is>
-      </c>
-      <c r="AT1" t="inlineStr">
-        <is>
-          <t>Untitled 45</t>
-        </is>
-      </c>
-      <c r="AU1" t="inlineStr">
-        <is>
-          <t>Untitled 46</t>
-        </is>
-      </c>
-      <c r="AV1" t="inlineStr">
-        <is>
-          <t>Untitled 47</t>
-        </is>
-      </c>
-      <c r="AW1" t="inlineStr">
-        <is>
-          <t>Untitled 48</t>
-        </is>
-      </c>
-      <c r="AX1" t="inlineStr">
-        <is>
-          <t>Untitled 49</t>
-        </is>
-      </c>
-      <c r="AY1" t="inlineStr">
-        <is>
-          <t>Untitled 50</t>
-        </is>
-      </c>
-      <c r="AZ1" t="inlineStr">
-        <is>
-          <t>Untitled 51</t>
-        </is>
-      </c>
-      <c r="BA1" t="inlineStr">
-        <is>
-          <t>Untitled 52</t>
-        </is>
-      </c>
-      <c r="BB1" t="inlineStr">
-        <is>
-          <t>Untitled 53</t>
-        </is>
-      </c>
-      <c r="BC1" t="inlineStr">
-        <is>
-          <t>Untitled 54</t>
-        </is>
-      </c>
-      <c r="BD1" t="inlineStr">
-        <is>
-          <t>Untitled 55</t>
-        </is>
-      </c>
-      <c r="BE1" t="inlineStr">
-        <is>
-          <t>Untitled 56</t>
-        </is>
-      </c>
-      <c r="BF1" t="inlineStr">
-        <is>
-          <t>Untitled 57</t>
-        </is>
-      </c>
-      <c r="BG1" t="inlineStr">
-        <is>
-          <t>Untitled 58</t>
-        </is>
-      </c>
-      <c r="BH1" t="inlineStr">
-        <is>
-          <t>Untitled 59</t>
-        </is>
-      </c>
-      <c r="BI1" t="inlineStr">
-        <is>
-          <t>Untitled 60</t>
-        </is>
-      </c>
-      <c r="BJ1" t="inlineStr">
-        <is>
-          <t>Untitled 61</t>
-        </is>
-      </c>
-      <c r="BK1" t="inlineStr">
-        <is>
-          <t>Untitled 62</t>
-        </is>
-      </c>
-      <c r="BL1" t="inlineStr">
-        <is>
-          <t>Untitled 63</t>
-        </is>
-      </c>
-      <c r="BM1" t="inlineStr">
-        <is>
-          <t>Untitled 64</t>
-        </is>
-      </c>
-      <c r="BN1" t="inlineStr">
-        <is>
-          <t>Untitled 65</t>
-        </is>
-      </c>
-      <c r="BO1" t="inlineStr">
-        <is>
-          <t>Untitled 66</t>
-        </is>
-      </c>
-      <c r="BP1" t="inlineStr">
-        <is>
-          <t>Untitled 67</t>
-        </is>
-      </c>
-      <c r="BQ1" t="inlineStr">
-        <is>
-          <t>Untitled 68</t>
-        </is>
-      </c>
-      <c r="BR1" t="inlineStr">
-        <is>
-          <t>Untitled 69</t>
-        </is>
-      </c>
-      <c r="BS1" t="inlineStr">
-        <is>
-          <t>Untitled 70</t>
-        </is>
-      </c>
-      <c r="BT1" t="inlineStr">
-        <is>
-          <t>Untitled 71</t>
-        </is>
-      </c>
-      <c r="BU1" t="inlineStr">
-        <is>
-          <t>Untitled 72</t>
-        </is>
-      </c>
-      <c r="BV1" t="inlineStr">
-        <is>
-          <t>Untitled 73</t>
-        </is>
-      </c>
-      <c r="BW1" t="inlineStr">
-        <is>
-          <t>Untitled 74</t>
-        </is>
-      </c>
-      <c r="BX1" t="inlineStr">
-        <is>
-          <t>Untitled 75</t>
-        </is>
-      </c>
-      <c r="BY1" t="inlineStr">
-        <is>
-          <t>Untitled 76</t>
-        </is>
-      </c>
-      <c r="BZ1" t="inlineStr">
-        <is>
-          <t>Untitled 77</t>
-        </is>
-      </c>
-      <c r="CA1" t="inlineStr">
-        <is>
-          <t>Untitled 78</t>
-        </is>
-      </c>
-      <c r="CB1" t="inlineStr">
-        <is>
-          <t>Untitled 79</t>
-        </is>
-      </c>
-      <c r="CC1" t="inlineStr">
-        <is>
-          <t>Untitled 80</t>
-        </is>
-      </c>
-      <c r="CD1" t="inlineStr">
-        <is>
-          <t>Untitled 81</t>
-        </is>
-      </c>
-      <c r="CE1" t="inlineStr">
-        <is>
-          <t>Untitled 82</t>
-        </is>
-      </c>
-      <c r="CF1" t="inlineStr">
-        <is>
-          <t>Untitled 83</t>
-        </is>
-      </c>
-      <c r="CG1" t="inlineStr">
-        <is>
-          <t>Untitled 84</t>
-        </is>
+    <row r="1" spans="1:85">
+      <c r="A1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" t="s">
+        <v>5</v>
+      </c>
+      <c r="G1" t="s">
+        <v>6</v>
+      </c>
+      <c r="H1" t="s">
+        <v>7</v>
+      </c>
+      <c r="I1" t="s">
+        <v>8</v>
+      </c>
+      <c r="J1" t="s">
+        <v>9</v>
+      </c>
+      <c r="K1" t="s">
+        <v>10</v>
+      </c>
+      <c r="L1" t="s">
+        <v>11</v>
+      </c>
+      <c r="M1" t="s">
+        <v>12</v>
+      </c>
+      <c r="N1" t="s">
+        <v>13</v>
+      </c>
+      <c r="O1" t="s">
+        <v>14</v>
+      </c>
+      <c r="P1" t="s">
+        <v>15</v>
+      </c>
+      <c r="Q1" t="s">
+        <v>16</v>
+      </c>
+      <c r="R1" t="s">
+        <v>17</v>
+      </c>
+      <c r="S1" t="s">
+        <v>18</v>
+      </c>
+      <c r="T1" t="s">
+        <v>19</v>
+      </c>
+      <c r="U1" t="s">
+        <v>20</v>
+      </c>
+      <c r="V1" t="s">
+        <v>21</v>
+      </c>
+      <c r="W1" t="s">
+        <v>22</v>
+      </c>
+      <c r="X1" t="s">
+        <v>23</v>
+      </c>
+      <c r="Y1" t="s">
+        <v>24</v>
+      </c>
+      <c r="Z1" t="s">
+        <v>25</v>
+      </c>
+      <c r="AA1" t="s">
+        <v>26</v>
+      </c>
+      <c r="AB1" t="s">
+        <v>27</v>
+      </c>
+      <c r="AC1" t="s">
+        <v>28</v>
+      </c>
+      <c r="AD1" t="s">
+        <v>29</v>
+      </c>
+      <c r="AE1" t="s">
+        <v>30</v>
+      </c>
+      <c r="AF1" t="s">
+        <v>31</v>
+      </c>
+      <c r="AG1" t="s">
+        <v>32</v>
+      </c>
+      <c r="AH1" t="s">
+        <v>33</v>
+      </c>
+      <c r="AI1" t="s">
+        <v>34</v>
+      </c>
+      <c r="AJ1" t="s">
+        <v>35</v>
+      </c>
+      <c r="AK1" t="s">
+        <v>36</v>
+      </c>
+      <c r="AL1" t="s">
+        <v>37</v>
+      </c>
+      <c r="AM1" t="s">
+        <v>38</v>
+      </c>
+      <c r="AN1" t="s">
+        <v>39</v>
+      </c>
+      <c r="AO1" t="s">
+        <v>40</v>
+      </c>
+      <c r="AP1" t="s">
+        <v>41</v>
+      </c>
+      <c r="AQ1" t="s">
+        <v>42</v>
+      </c>
+      <c r="AR1" t="s">
+        <v>43</v>
+      </c>
+      <c r="AS1" t="s">
+        <v>44</v>
+      </c>
+      <c r="AT1" t="s">
+        <v>45</v>
+      </c>
+      <c r="AU1" t="s">
+        <v>46</v>
+      </c>
+      <c r="AV1" t="s">
+        <v>47</v>
+      </c>
+      <c r="AW1" t="s">
+        <v>48</v>
+      </c>
+      <c r="AX1" t="s">
+        <v>49</v>
+      </c>
+      <c r="AY1" t="s">
+        <v>50</v>
+      </c>
+      <c r="AZ1" t="s">
+        <v>51</v>
+      </c>
+      <c r="BA1" t="s">
+        <v>52</v>
+      </c>
+      <c r="BB1" t="s">
+        <v>53</v>
+      </c>
+      <c r="BC1" t="s">
+        <v>54</v>
+      </c>
+      <c r="BD1" t="s">
+        <v>55</v>
+      </c>
+      <c r="BE1" t="s">
+        <v>56</v>
+      </c>
+      <c r="BF1" t="s">
+        <v>57</v>
+      </c>
+      <c r="BG1" t="s">
+        <v>58</v>
+      </c>
+      <c r="BH1" t="s">
+        <v>59</v>
+      </c>
+      <c r="BI1" t="s">
+        <v>60</v>
+      </c>
+      <c r="BJ1" t="s">
+        <v>61</v>
+      </c>
+      <c r="BK1" t="s">
+        <v>62</v>
+      </c>
+      <c r="BL1" t="s">
+        <v>63</v>
+      </c>
+      <c r="BM1" t="s">
+        <v>64</v>
+      </c>
+      <c r="BN1" t="s">
+        <v>65</v>
+      </c>
+      <c r="BO1" t="s">
+        <v>66</v>
+      </c>
+      <c r="BP1" t="s">
+        <v>67</v>
+      </c>
+      <c r="BQ1" t="s">
+        <v>68</v>
+      </c>
+      <c r="BR1" t="s">
+        <v>69</v>
+      </c>
+      <c r="BS1" t="s">
+        <v>70</v>
+      </c>
+      <c r="BT1" t="s">
+        <v>71</v>
+      </c>
+      <c r="BU1" t="s">
+        <v>72</v>
+      </c>
+      <c r="BV1" t="s">
+        <v>73</v>
+      </c>
+      <c r="BW1" t="s">
+        <v>74</v>
+      </c>
+      <c r="BX1" t="s">
+        <v>75</v>
+      </c>
+      <c r="BY1" t="s">
+        <v>76</v>
+      </c>
+      <c r="BZ1" t="s">
+        <v>77</v>
+      </c>
+      <c r="CA1" t="s">
+        <v>78</v>
+      </c>
+      <c r="CB1" t="s">
+        <v>79</v>
+      </c>
+      <c r="CC1" t="s">
+        <v>80</v>
+      </c>
+      <c r="CD1" t="s">
+        <v>81</v>
+      </c>
+      <c r="CE1" t="s">
+        <v>82</v>
+      </c>
+      <c r="CF1" t="s">
+        <v>83</v>
+      </c>
+      <c r="CG1" t="s">
+        <v>84</v>
       </c>
     </row>
-    <row r="2">
+    <row r="2" spans="1:85">
       <c r="A2" s="1">
-        <v>67157.285425</v>
+        <v>67157.285424999995</v>
       </c>
       <c r="B2" s="1">
         <v>18.654802</v>
       </c>
       <c r="C2" s="1">
-        <v>1147.720000</v>
+        <v>1147.72</v>
       </c>
       <c r="D2" s="1">
-        <v>-243.668000</v>
+        <v>-243.66800000000001</v>
       </c>
       <c r="E2" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="F2" s="1">
-        <v>67167.706866</v>
+        <v>67167.706865999993</v>
       </c>
       <c r="G2" s="1">
-        <v>18.657696</v>
+        <v>18.657696000000001</v>
       </c>
       <c r="H2" s="1">
-        <v>1166.950000</v>
+        <v>1166.95</v>
       </c>
       <c r="I2" s="1">
-        <v>-205.131000</v>
+        <v>-205.131</v>
       </c>
       <c r="J2" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="K2" s="1">
-        <v>67178.167493</v>
+        <v>67178.167493000001</v>
       </c>
       <c r="L2" s="1">
-        <v>18.660602</v>
+        <v>18.660602000000001</v>
       </c>
       <c r="M2" s="1">
-        <v>1193.690000</v>
+        <v>1193.69</v>
       </c>
       <c r="N2" s="1">
-        <v>-145.714000</v>
+        <v>-145.714</v>
       </c>
       <c r="O2" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="P2" s="1">
-        <v>67188.653447</v>
+        <v>67188.653447000004</v>
       </c>
       <c r="Q2" s="1">
         <v>18.663515</v>
       </c>
       <c r="R2" s="1">
-        <v>1201.800000</v>
+        <v>1201.8</v>
       </c>
       <c r="S2" s="1">
-        <v>-125.294000</v>
+        <v>-125.294</v>
       </c>
       <c r="T2" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="U2" s="1">
         <v>67199.236588</v>
       </c>
       <c r="V2" s="1">
-        <v>18.666455</v>
+        <v>18.666454999999999</v>
       </c>
       <c r="W2" s="1">
-        <v>1209.580000</v>
+        <v>1209.58</v>
       </c>
       <c r="X2" s="1">
-        <v>-106.016000</v>
+        <v>-106.01600000000001</v>
       </c>
       <c r="Y2" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="Z2" s="1">
-        <v>67209.685771</v>
+        <v>67209.685771000004</v>
       </c>
       <c r="AA2" s="1">
-        <v>18.669357</v>
+        <v>18.669357000000002</v>
       </c>
       <c r="AB2" s="1">
-        <v>1218.050000</v>
+        <v>1218.05</v>
       </c>
       <c r="AC2" s="1">
-        <v>-90.351200</v>
+        <v>-90.351200000000006</v>
       </c>
       <c r="AD2" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AE2" s="1">
-        <v>67220.602727</v>
+        <v>67220.602727000005</v>
       </c>
       <c r="AF2" s="1">
-        <v>18.672390</v>
+        <v>18.67239</v>
       </c>
       <c r="AG2" s="1">
-        <v>1223.240000</v>
+        <v>1223.24</v>
       </c>
       <c r="AH2" s="1">
-        <v>-86.309100</v>
+        <v>-86.309100000000001</v>
       </c>
       <c r="AI2" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AJ2" s="1">
-        <v>67231.023664</v>
+        <v>67231.023663999993</v>
       </c>
       <c r="AK2" s="1">
-        <v>18.675284</v>
+        <v>18.675284000000001</v>
       </c>
       <c r="AL2" s="1">
-        <v>1230.830000</v>
+        <v>1230.83</v>
       </c>
       <c r="AM2" s="1">
-        <v>-89.882400</v>
+        <v>-89.882400000000004</v>
       </c>
       <c r="AN2" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AO2" s="1">
-        <v>67241.596881</v>
+        <v>67241.596881000005</v>
       </c>
       <c r="AP2" s="1">
-        <v>18.678221</v>
+        <v>18.678221000000001</v>
       </c>
       <c r="AQ2" s="1">
-        <v>1239.040000</v>
+        <v>1239.04</v>
       </c>
       <c r="AR2" s="1">
-        <v>-101.879000</v>
+        <v>-101.879</v>
       </c>
       <c r="AS2" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AT2" s="1">
-        <v>67252.571859</v>
+        <v>67252.571859000003</v>
       </c>
       <c r="AU2" s="1">
-        <v>18.681270</v>
+        <v>18.681270000000001</v>
       </c>
       <c r="AV2" s="1">
-        <v>1249.220000</v>
+        <v>1249.22</v>
       </c>
       <c r="AW2" s="1">
-        <v>-121.264000</v>
+        <v>-121.264</v>
       </c>
       <c r="AX2" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AY2" s="1">
-        <v>67263.712996</v>
+        <v>67263.712996000002</v>
       </c>
       <c r="AZ2" s="1">
         <v>18.684365</v>
       </c>
       <c r="BA2" s="1">
-        <v>1257.780000</v>
+        <v>1257.78</v>
       </c>
       <c r="BB2" s="1">
-        <v>-138.793000</v>
+        <v>-138.79300000000001</v>
       </c>
       <c r="BC2" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BD2" s="1">
-        <v>67275.024297</v>
+        <v>67275.024296999996</v>
       </c>
       <c r="BE2" s="1">
         <v>18.687507</v>
       </c>
       <c r="BF2" s="1">
-        <v>1298.360000</v>
+        <v>1298.3599999999999</v>
       </c>
       <c r="BG2" s="1">
-        <v>-220.863000</v>
+        <v>-220.863</v>
       </c>
       <c r="BH2" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BI2" s="1">
-        <v>67285.779511</v>
+        <v>67285.779511000001</v>
       </c>
       <c r="BJ2" s="1">
-        <v>18.690494</v>
+        <v>18.690494000000001</v>
       </c>
       <c r="BK2" s="1">
-        <v>1368.790000</v>
+        <v>1368.79</v>
       </c>
       <c r="BL2" s="1">
-        <v>-357.200000</v>
+        <v>-357.2</v>
       </c>
       <c r="BM2" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BN2" s="1">
-        <v>67296.835832</v>
+        <v>67296.835831999997</v>
       </c>
       <c r="BO2" s="1">
-        <v>18.693566</v>
+        <v>18.693566000000001</v>
       </c>
       <c r="BP2" s="1">
-        <v>1484.650000</v>
+        <v>1484.65</v>
       </c>
       <c r="BQ2" s="1">
-        <v>-578.072000</v>
+        <v>-578.072</v>
       </c>
       <c r="BR2" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BS2" s="1">
-        <v>67308.415942</v>
+        <v>67308.415942000007</v>
       </c>
       <c r="BT2" s="1">
-        <v>18.696782</v>
+        <v>18.696781999999999</v>
       </c>
       <c r="BU2" s="1">
-        <v>1617.700000</v>
+        <v>1617.7</v>
       </c>
       <c r="BV2" s="1">
-        <v>-825.957000</v>
+        <v>-825.95699999999999</v>
       </c>
       <c r="BW2" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BX2" s="1">
-        <v>67319.471790</v>
+        <v>67319.471789999996</v>
       </c>
       <c r="BY2" s="1">
-        <v>18.699853</v>
+        <v>18.699853000000001</v>
       </c>
       <c r="BZ2" s="1">
-        <v>1771.540000</v>
+        <v>1771.54</v>
       </c>
       <c r="CA2" s="1">
-        <v>-1095.250000</v>
+        <v>-1095.25</v>
       </c>
       <c r="CB2" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="CC2" s="1">
-        <v>67330.519670</v>
+        <v>67330.519669999994</v>
       </c>
       <c r="CD2" s="1">
-        <v>18.702922</v>
+        <v>18.702922000000001</v>
       </c>
       <c r="CE2" s="1">
-        <v>2189.580000</v>
+        <v>2189.58</v>
       </c>
       <c r="CF2" s="1">
-        <v>-1742.750000</v>
+        <v>-1742.75</v>
       </c>
       <c r="CG2" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
     </row>
-    <row r="3">
+    <row r="3" spans="1:85">
       <c r="A3" s="1">
-        <v>67157.688672</v>
+        <v>67157.688672000004</v>
       </c>
       <c r="B3" s="1">
-        <v>18.654914</v>
+        <v>18.654914000000002</v>
       </c>
       <c r="C3" s="1">
-        <v>1147.650000</v>
+        <v>1147.6500000000001</v>
       </c>
       <c r="D3" s="1">
-        <v>-243.612000</v>
+        <v>-243.61199999999999</v>
       </c>
       <c r="E3" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="F3" s="1">
-        <v>67168.073939</v>
+        <v>67168.073938999994</v>
       </c>
       <c r="G3" s="1">
         <v>18.657798</v>
       </c>
       <c r="H3" s="1">
-        <v>1166.640000</v>
+        <v>1166.6400000000001</v>
       </c>
       <c r="I3" s="1">
-        <v>-205.233000</v>
+        <v>-205.233</v>
       </c>
       <c r="J3" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="K3" s="1">
-        <v>67178.524118</v>
+        <v>67178.524118000001</v>
       </c>
       <c r="L3" s="1">
         <v>18.660701</v>
       </c>
       <c r="M3" s="1">
-        <v>1193.600000</v>
+        <v>1193.5999999999999</v>
       </c>
       <c r="N3" s="1">
-        <v>-145.388000</v>
+        <v>-145.38800000000001</v>
       </c>
       <c r="O3" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="P3" s="1">
-        <v>67189.032359</v>
+        <v>67189.032359000004</v>
       </c>
       <c r="Q3" s="1">
-        <v>18.663620</v>
+        <v>18.663620000000002</v>
       </c>
       <c r="R3" s="1">
-        <v>1201.790000</v>
+        <v>1201.79</v>
       </c>
       <c r="S3" s="1">
-        <v>-125.326000</v>
+        <v>-125.32599999999999</v>
       </c>
       <c r="T3" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="U3" s="1">
-        <v>67199.954793</v>
+        <v>67199.954792999997</v>
       </c>
       <c r="V3" s="1">
-        <v>18.666654</v>
+        <v>18.666654000000001</v>
       </c>
       <c r="W3" s="1">
-        <v>1209.720000</v>
+        <v>1209.72</v>
       </c>
       <c r="X3" s="1">
-        <v>-106.096000</v>
+        <v>-106.096</v>
       </c>
       <c r="Y3" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="Z3" s="1">
-        <v>67210.425306</v>
+        <v>67210.425306000005</v>
       </c>
       <c r="AA3" s="1">
         <v>18.669563</v>
       </c>
       <c r="AB3" s="1">
-        <v>1217.950000</v>
+        <v>1217.95</v>
       </c>
       <c r="AC3" s="1">
-        <v>-90.303200</v>
+        <v>-90.303200000000004</v>
       </c>
       <c r="AD3" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AE3" s="1">
-        <v>67220.938012</v>
+        <v>67220.938011999999</v>
       </c>
       <c r="AF3" s="1">
         <v>18.672483</v>
       </c>
       <c r="AG3" s="1">
-        <v>1223.220000</v>
+        <v>1223.22</v>
       </c>
       <c r="AH3" s="1">
-        <v>-86.299300</v>
+        <v>-86.299300000000002</v>
       </c>
       <c r="AI3" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AJ3" s="1">
-        <v>67231.405087</v>
+        <v>67231.405087000006</v>
       </c>
       <c r="AK3" s="1">
-        <v>18.675390</v>
+        <v>18.67539</v>
       </c>
       <c r="AL3" s="1">
-        <v>1230.850000</v>
+        <v>1230.8499999999999</v>
       </c>
       <c r="AM3" s="1">
-        <v>-89.891400</v>
+        <v>-89.891400000000004</v>
       </c>
       <c r="AN3" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AO3" s="1">
-        <v>67241.976321</v>
+        <v>67241.976320999995</v>
       </c>
       <c r="AP3" s="1">
-        <v>18.678327</v>
+        <v>18.678326999999999</v>
       </c>
       <c r="AQ3" s="1">
-        <v>1239.050000</v>
+        <v>1239.05</v>
       </c>
       <c r="AR3" s="1">
-        <v>-101.879000</v>
+        <v>-101.879</v>
       </c>
       <c r="AS3" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AT3" s="1">
-        <v>67253.293042</v>
+        <v>67253.293042000005</v>
       </c>
       <c r="AU3" s="1">
-        <v>18.681470</v>
+        <v>18.681470000000001</v>
       </c>
       <c r="AV3" s="1">
-        <v>1249.240000</v>
+        <v>1249.24</v>
       </c>
       <c r="AW3" s="1">
-        <v>-121.238000</v>
+        <v>-121.238</v>
       </c>
       <c r="AX3" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AY3" s="1">
-        <v>67264.382596</v>
+        <v>67264.382595999996</v>
       </c>
       <c r="AZ3" s="1">
-        <v>18.684551</v>
+        <v>18.684550999999999</v>
       </c>
       <c r="BA3" s="1">
-        <v>1257.790000</v>
+        <v>1257.79</v>
       </c>
       <c r="BB3" s="1">
-        <v>-138.770000</v>
+        <v>-138.77000000000001</v>
       </c>
       <c r="BC3" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BD3" s="1">
-        <v>67275.459750</v>
+        <v>67275.459749999995</v>
       </c>
       <c r="BE3" s="1">
         <v>18.687628</v>
       </c>
       <c r="BF3" s="1">
-        <v>1298.360000</v>
+        <v>1298.3599999999999</v>
       </c>
       <c r="BG3" s="1">
-        <v>-220.860000</v>
+        <v>-220.86</v>
       </c>
       <c r="BH3" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BI3" s="1">
-        <v>67286.159446</v>
+        <v>67286.159446000005</v>
       </c>
       <c r="BJ3" s="1">
-        <v>18.690600</v>
+        <v>18.6906</v>
       </c>
       <c r="BK3" s="1">
-        <v>1368.810000</v>
+        <v>1368.81</v>
       </c>
       <c r="BL3" s="1">
-        <v>-357.113000</v>
+        <v>-357.113</v>
       </c>
       <c r="BM3" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BN3" s="1">
-        <v>67297.272809</v>
+        <v>67297.272809000002</v>
       </c>
       <c r="BO3" s="1">
-        <v>18.693687</v>
+        <v>18.693687000000001</v>
       </c>
       <c r="BP3" s="1">
-        <v>1484.660000</v>
+        <v>1484.66</v>
       </c>
       <c r="BQ3" s="1">
-        <v>-578.062000</v>
+        <v>-578.06200000000001</v>
       </c>
       <c r="BR3" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BS3" s="1">
-        <v>67308.849114</v>
+        <v>67308.849113999997</v>
       </c>
       <c r="BT3" s="1">
-        <v>18.696903</v>
+        <v>18.696902999999999</v>
       </c>
       <c r="BU3" s="1">
-        <v>1617.720000</v>
+        <v>1617.72</v>
       </c>
       <c r="BV3" s="1">
-        <v>-825.938000</v>
+        <v>-825.93799999999999</v>
       </c>
       <c r="BW3" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BX3" s="1">
-        <v>67319.956371</v>
+        <v>67319.956370999993</v>
       </c>
       <c r="BY3" s="1">
-        <v>18.699988</v>
+        <v>18.699988000000001</v>
       </c>
       <c r="BZ3" s="1">
-        <v>1771.300000</v>
+        <v>1771.3</v>
       </c>
       <c r="CA3" s="1">
-        <v>-1095.390000</v>
+        <v>-1095.3900000000001</v>
       </c>
       <c r="CB3" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="CC3" s="1">
-        <v>67331.069250</v>
+        <v>67331.06925</v>
       </c>
       <c r="CD3" s="1">
-        <v>18.703075</v>
+        <v>18.703074999999998</v>
       </c>
       <c r="CE3" s="1">
-        <v>2188.870000</v>
+        <v>2188.87</v>
       </c>
       <c r="CF3" s="1">
-        <v>-1744.170000</v>
+        <v>-1744.17</v>
       </c>
       <c r="CG3" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
     </row>
-    <row r="4">
+    <row r="4" spans="1:85">
       <c r="A4" s="1">
-        <v>67158.029434</v>
+        <v>67158.029433999996</v>
       </c>
       <c r="B4" s="1">
-        <v>18.655008</v>
+        <v>18.655007999999999</v>
       </c>
       <c r="C4" s="1">
-        <v>1147.790000</v>
+        <v>1147.79</v>
       </c>
       <c r="D4" s="1">
-        <v>-243.831000</v>
+        <v>-243.83099999999999</v>
       </c>
       <c r="E4" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="F4" s="1">
-        <v>67168.419155</v>
+        <v>67168.419154999996</v>
       </c>
       <c r="G4" s="1">
-        <v>18.657894</v>
+        <v>18.657893999999999</v>
       </c>
       <c r="H4" s="1">
-        <v>1167.410000</v>
+        <v>1167.4100000000001</v>
       </c>
       <c r="I4" s="1">
-        <v>-205.611000</v>
+        <v>-205.61099999999999</v>
       </c>
       <c r="J4" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="K4" s="1">
         <v>67179.215075</v>
       </c>
       <c r="L4" s="1">
-        <v>18.660893</v>
+        <v>18.660893000000002</v>
       </c>
       <c r="M4" s="1">
-        <v>1193.630000</v>
+        <v>1193.6300000000001</v>
       </c>
       <c r="N4" s="1">
-        <v>-145.452000</v>
+        <v>-145.452</v>
       </c>
       <c r="O4" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="P4" s="1">
-        <v>67189.732215</v>
+        <v>67189.732214999996</v>
       </c>
       <c r="Q4" s="1">
         <v>18.663815</v>
       </c>
       <c r="R4" s="1">
-        <v>1201.870000</v>
+        <v>1201.8699999999999</v>
       </c>
       <c r="S4" s="1">
-        <v>-125.322000</v>
+        <v>-125.322</v>
       </c>
       <c r="T4" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="U4" s="1">
-        <v>67200.297992</v>
+        <v>67200.297992000007</v>
       </c>
       <c r="V4" s="1">
-        <v>18.666749</v>
+        <v>18.666748999999999</v>
       </c>
       <c r="W4" s="1">
-        <v>1209.690000</v>
+        <v>1209.69</v>
       </c>
       <c r="X4" s="1">
-        <v>-106.089000</v>
+        <v>-106.089</v>
       </c>
       <c r="Y4" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="Z4" s="1">
-        <v>67210.770522</v>
+        <v>67210.770522000006</v>
       </c>
       <c r="AA4" s="1">
-        <v>18.669658</v>
+        <v>18.669657999999998</v>
       </c>
       <c r="AB4" s="1">
-        <v>1218.120000</v>
+        <v>1218.1199999999999</v>
       </c>
       <c r="AC4" s="1">
-        <v>-90.430100</v>
+        <v>-90.430099999999996</v>
       </c>
       <c r="AD4" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AE4" s="1">
-        <v>67221.281246</v>
+        <v>67221.281245999999</v>
       </c>
       <c r="AF4" s="1">
-        <v>18.672578</v>
+        <v>18.672578000000001</v>
       </c>
       <c r="AG4" s="1">
-        <v>1223.220000</v>
+        <v>1223.22</v>
       </c>
       <c r="AH4" s="1">
-        <v>-86.299800</v>
+        <v>-86.299800000000005</v>
       </c>
       <c r="AI4" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AJ4" s="1">
-        <v>67232.086589</v>
+        <v>67232.086588999999</v>
       </c>
       <c r="AK4" s="1">
-        <v>18.675580</v>
+        <v>18.67558</v>
       </c>
       <c r="AL4" s="1">
-        <v>1230.840000</v>
+        <v>1230.8399999999999</v>
       </c>
       <c r="AM4" s="1">
-        <v>-89.892500</v>
+        <v>-89.892499999999998</v>
       </c>
       <c r="AN4" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AO4" s="1">
-        <v>67242.662785</v>
+        <v>67242.662784999993</v>
       </c>
       <c r="AP4" s="1">
-        <v>18.678517</v>
+        <v>18.678516999999999</v>
       </c>
       <c r="AQ4" s="1">
-        <v>1239.040000</v>
+        <v>1239.04</v>
       </c>
       <c r="AR4" s="1">
-        <v>-101.872000</v>
+        <v>-101.872</v>
       </c>
       <c r="AS4" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AT4" s="1">
-        <v>67253.683393</v>
+        <v>67253.683392999999</v>
       </c>
       <c r="AU4" s="1">
-        <v>18.681579</v>
+        <v>18.681578999999999</v>
       </c>
       <c r="AV4" s="1">
-        <v>1249.210000</v>
+        <v>1249.21</v>
       </c>
       <c r="AW4" s="1">
-        <v>-121.268000</v>
+        <v>-121.268</v>
       </c>
       <c r="AX4" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AY4" s="1">
         <v>67264.806675</v>
@@ -1145,58 +1561,58 @@
         <v>18.684669</v>
       </c>
       <c r="BA4" s="1">
-        <v>1257.800000</v>
+        <v>1257.8</v>
       </c>
       <c r="BB4" s="1">
-        <v>-138.757000</v>
+        <v>-138.75700000000001</v>
       </c>
       <c r="BC4" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BD4" s="1">
-        <v>67275.819348</v>
+        <v>67275.819348000005</v>
       </c>
       <c r="BE4" s="1">
         <v>18.687728</v>
       </c>
       <c r="BF4" s="1">
-        <v>1298.320000</v>
+        <v>1298.32</v>
       </c>
       <c r="BG4" s="1">
-        <v>-220.842000</v>
+        <v>-220.84200000000001</v>
       </c>
       <c r="BH4" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BI4" s="1">
-        <v>67286.534488</v>
+        <v>67286.534488000005</v>
       </c>
       <c r="BJ4" s="1">
         <v>18.690704</v>
       </c>
       <c r="BK4" s="1">
-        <v>1368.870000</v>
+        <v>1368.87</v>
       </c>
       <c r="BL4" s="1">
-        <v>-357.182000</v>
+        <v>-357.18200000000002</v>
       </c>
       <c r="BM4" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BN4" s="1">
-        <v>67297.670641</v>
+        <v>67297.670641000004</v>
       </c>
       <c r="BO4" s="1">
         <v>18.693797</v>
       </c>
       <c r="BP4" s="1">
-        <v>1484.600000</v>
+        <v>1484.6</v>
       </c>
       <c r="BQ4" s="1">
-        <v>-578.049000</v>
+        <v>-578.04899999999998</v>
       </c>
       <c r="BR4" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BS4" s="1">
         <v>67309.264616</v>
@@ -1205,2705 +1621,2705 @@
         <v>18.697018</v>
       </c>
       <c r="BU4" s="1">
-        <v>1617.790000</v>
+        <v>1617.79</v>
       </c>
       <c r="BV4" s="1">
-        <v>-826.039000</v>
+        <v>-826.03899999999999</v>
       </c>
       <c r="BW4" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BX4" s="1">
-        <v>67320.405225</v>
+        <v>67320.405224999995</v>
       </c>
       <c r="BY4" s="1">
-        <v>18.700113</v>
+        <v>18.700113000000002</v>
       </c>
       <c r="BZ4" s="1">
-        <v>1771.300000</v>
+        <v>1771.3</v>
       </c>
       <c r="CA4" s="1">
-        <v>-1095.400000</v>
+        <v>-1095.4000000000001</v>
       </c>
       <c r="CB4" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="CC4" s="1">
-        <v>67331.585050</v>
+        <v>67331.585049999994</v>
       </c>
       <c r="CD4" s="1">
         <v>18.703218</v>
       </c>
       <c r="CE4" s="1">
-        <v>2190.580000</v>
+        <v>2190.58</v>
       </c>
       <c r="CF4" s="1">
-        <v>-1745.740000</v>
+        <v>-1745.74</v>
       </c>
       <c r="CG4" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
     </row>
-    <row r="5">
+    <row r="5" spans="1:85">
       <c r="A5" s="1">
-        <v>67158.375135</v>
+        <v>67158.375134999995</v>
       </c>
       <c r="B5" s="1">
-        <v>18.655104</v>
+        <v>18.655104000000001</v>
       </c>
       <c r="C5" s="1">
-        <v>1147.310000</v>
+        <v>1147.31</v>
       </c>
       <c r="D5" s="1">
-        <v>-243.717000</v>
+        <v>-243.71700000000001</v>
       </c>
       <c r="E5" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="F5" s="1">
-        <v>67169.108103</v>
+        <v>67169.108103000006</v>
       </c>
       <c r="G5" s="1">
-        <v>18.658086</v>
+        <v>18.658086000000001</v>
       </c>
       <c r="H5" s="1">
-        <v>1166.730000</v>
+        <v>1166.73</v>
       </c>
       <c r="I5" s="1">
-        <v>-204.690000</v>
+        <v>-204.69</v>
       </c>
       <c r="J5" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="K5" s="1">
-        <v>67179.560906</v>
+        <v>67179.560905999999</v>
       </c>
       <c r="L5" s="1">
-        <v>18.660989</v>
+        <v>18.660989000000001</v>
       </c>
       <c r="M5" s="1">
-        <v>1193.890000</v>
+        <v>1193.8900000000001</v>
       </c>
       <c r="N5" s="1">
-        <v>-145.478000</v>
+        <v>-145.47800000000001</v>
       </c>
       <c r="O5" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="P5" s="1">
-        <v>67190.080405</v>
+        <v>67190.080405000001</v>
       </c>
       <c r="Q5" s="1">
-        <v>18.663911</v>
+        <v>18.663910999999999</v>
       </c>
       <c r="R5" s="1">
-        <v>1201.740000</v>
+        <v>1201.74</v>
       </c>
       <c r="S5" s="1">
-        <v>-125.318000</v>
+        <v>-125.318</v>
       </c>
       <c r="T5" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="U5" s="1">
         <v>67200.642215</v>
       </c>
       <c r="V5" s="1">
-        <v>18.666845</v>
+        <v>18.666844999999999</v>
       </c>
       <c r="W5" s="1">
-        <v>1209.720000</v>
+        <v>1209.72</v>
       </c>
       <c r="X5" s="1">
-        <v>-106.059000</v>
+        <v>-106.059</v>
       </c>
       <c r="Y5" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="Z5" s="1">
-        <v>67211.121193</v>
+        <v>67211.121192999999</v>
       </c>
       <c r="AA5" s="1">
         <v>18.669756</v>
       </c>
       <c r="AB5" s="1">
-        <v>1217.980000</v>
+        <v>1217.98</v>
       </c>
       <c r="AC5" s="1">
-        <v>-90.326300</v>
+        <v>-90.326300000000003</v>
       </c>
       <c r="AD5" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AE5" s="1">
-        <v>67221.961756</v>
+        <v>67221.961756000004</v>
       </c>
       <c r="AF5" s="1">
         <v>18.672767</v>
       </c>
       <c r="AG5" s="1">
-        <v>1223.220000</v>
+        <v>1223.22</v>
       </c>
       <c r="AH5" s="1">
-        <v>-86.296600</v>
+        <v>-86.296599999999998</v>
       </c>
       <c r="AI5" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AJ5" s="1">
-        <v>67232.446190</v>
+        <v>67232.446190000002</v>
       </c>
       <c r="AK5" s="1">
-        <v>18.675679</v>
+        <v>18.675678999999999</v>
       </c>
       <c r="AL5" s="1">
-        <v>1230.870000</v>
+        <v>1230.8699999999999</v>
       </c>
       <c r="AM5" s="1">
-        <v>-89.880200</v>
+        <v>-89.880200000000002</v>
       </c>
       <c r="AN5" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AO5" s="1">
-        <v>67243.078463</v>
+        <v>67243.078462999998</v>
       </c>
       <c r="AP5" s="1">
-        <v>18.678633</v>
+        <v>18.678633000000001</v>
       </c>
       <c r="AQ5" s="1">
-        <v>1239.060000</v>
+        <v>1239.06</v>
       </c>
       <c r="AR5" s="1">
-        <v>-101.858000</v>
+        <v>-101.858</v>
       </c>
       <c r="AS5" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AT5" s="1">
         <v>67254.046961</v>
       </c>
       <c r="AU5" s="1">
-        <v>18.681680</v>
+        <v>18.68168</v>
       </c>
       <c r="AV5" s="1">
-        <v>1249.240000</v>
+        <v>1249.24</v>
       </c>
       <c r="AW5" s="1">
-        <v>-121.257000</v>
+        <v>-121.25700000000001</v>
       </c>
       <c r="AX5" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AY5" s="1">
-        <v>67265.178178</v>
+        <v>67265.178178000002</v>
       </c>
       <c r="AZ5" s="1">
-        <v>18.684772</v>
+        <v>18.684771999999999</v>
       </c>
       <c r="BA5" s="1">
-        <v>1257.790000</v>
+        <v>1257.79</v>
       </c>
       <c r="BB5" s="1">
-        <v>-138.779000</v>
+        <v>-138.779</v>
       </c>
       <c r="BC5" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BD5" s="1">
-        <v>67276.178452</v>
+        <v>67276.178451999993</v>
       </c>
       <c r="BE5" s="1">
-        <v>18.687827</v>
+        <v>18.687826999999999</v>
       </c>
       <c r="BF5" s="1">
-        <v>1298.330000</v>
+        <v>1298.33</v>
       </c>
       <c r="BG5" s="1">
-        <v>-220.862000</v>
+        <v>-220.86199999999999</v>
       </c>
       <c r="BH5" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BI5" s="1">
-        <v>67286.951074</v>
+        <v>67286.951073999997</v>
       </c>
       <c r="BJ5" s="1">
-        <v>18.690820</v>
+        <v>18.690819999999999</v>
       </c>
       <c r="BK5" s="1">
-        <v>1368.850000</v>
+        <v>1368.85</v>
       </c>
       <c r="BL5" s="1">
-        <v>-357.200000</v>
+        <v>-357.2</v>
       </c>
       <c r="BM5" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BN5" s="1">
-        <v>67298.091735</v>
+        <v>67298.091734999995</v>
       </c>
       <c r="BO5" s="1">
-        <v>18.693914</v>
+        <v>18.693913999999999</v>
       </c>
       <c r="BP5" s="1">
-        <v>1484.660000</v>
+        <v>1484.66</v>
       </c>
       <c r="BQ5" s="1">
-        <v>-578.021000</v>
+        <v>-578.02099999999996</v>
       </c>
       <c r="BR5" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BS5" s="1">
-        <v>67309.680260</v>
+        <v>67309.680259999994</v>
       </c>
       <c r="BT5" s="1">
-        <v>18.697133</v>
+        <v>18.697133000000001</v>
       </c>
       <c r="BU5" s="1">
-        <v>1617.870000</v>
+        <v>1617.87</v>
       </c>
       <c r="BV5" s="1">
-        <v>-826.003000</v>
+        <v>-826.00300000000004</v>
       </c>
       <c r="BW5" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BX5" s="1">
-        <v>67320.863064</v>
+        <v>67320.863064000005</v>
       </c>
       <c r="BY5" s="1">
-        <v>18.700240</v>
+        <v>18.700240000000001</v>
       </c>
       <c r="BZ5" s="1">
-        <v>1771.240000</v>
+        <v>1771.24</v>
       </c>
       <c r="CA5" s="1">
-        <v>-1095.220000</v>
+        <v>-1095.22</v>
       </c>
       <c r="CB5" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="CC5" s="1">
-        <v>67332.126683</v>
+        <v>67332.126682999995</v>
       </c>
       <c r="CD5" s="1">
-        <v>18.703369</v>
+        <v>18.703368999999999</v>
       </c>
       <c r="CE5" s="1">
-        <v>2189.480000</v>
+        <v>2189.48</v>
       </c>
       <c r="CF5" s="1">
-        <v>-1742.940000</v>
+        <v>-1742.94</v>
       </c>
       <c r="CG5" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
     </row>
-    <row r="6">
+    <row r="6" spans="1:85">
       <c r="A6" s="1">
-        <v>67159.053663</v>
+        <v>67159.053662999999</v>
       </c>
       <c r="B6" s="1">
         <v>18.655293</v>
       </c>
       <c r="C6" s="1">
-        <v>1147.570000</v>
+        <v>1147.57</v>
       </c>
       <c r="D6" s="1">
-        <v>-243.691000</v>
+        <v>-243.691</v>
       </c>
       <c r="E6" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="F6" s="1">
         <v>67169.451793</v>
       </c>
       <c r="G6" s="1">
-        <v>18.658181</v>
+        <v>18.658180999999999</v>
       </c>
       <c r="H6" s="1">
-        <v>1167.390000</v>
+        <v>1167.3900000000001</v>
       </c>
       <c r="I6" s="1">
-        <v>-205.542000</v>
+        <v>-205.542</v>
       </c>
       <c r="J6" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="K6" s="1">
-        <v>67179.908947</v>
+        <v>67179.908947000004</v>
       </c>
       <c r="L6" s="1">
-        <v>18.661086</v>
+        <v>18.661086000000001</v>
       </c>
       <c r="M6" s="1">
-        <v>1193.790000</v>
+        <v>1193.79</v>
       </c>
       <c r="N6" s="1">
-        <v>-145.425000</v>
+        <v>-145.42500000000001</v>
       </c>
       <c r="O6" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="P6" s="1">
-        <v>67190.429094</v>
+        <v>67190.429094000006</v>
       </c>
       <c r="Q6" s="1">
-        <v>18.664008</v>
+        <v>18.664007999999999</v>
       </c>
       <c r="R6" s="1">
-        <v>1201.730000</v>
+        <v>1201.73</v>
       </c>
       <c r="S6" s="1">
-        <v>-125.388000</v>
+        <v>-125.38800000000001</v>
       </c>
       <c r="T6" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="U6" s="1">
-        <v>67201.299945</v>
+        <v>67201.299945000006</v>
       </c>
       <c r="V6" s="1">
-        <v>18.667028</v>
+        <v>18.667027999999998</v>
       </c>
       <c r="W6" s="1">
-        <v>1209.560000</v>
+        <v>1209.56</v>
       </c>
       <c r="X6" s="1">
-        <v>-106.135000</v>
+        <v>-106.13500000000001</v>
       </c>
       <c r="Y6" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="Z6" s="1">
-        <v>67211.881560</v>
+        <v>67211.881559999994</v>
       </c>
       <c r="AA6" s="1">
         <v>18.669967</v>
       </c>
       <c r="AB6" s="1">
-        <v>1217.960000</v>
+        <v>1217.96</v>
       </c>
       <c r="AC6" s="1">
-        <v>-90.356300</v>
+        <v>-90.356300000000005</v>
       </c>
       <c r="AD6" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AE6" s="1">
-        <v>67222.310976</v>
+        <v>67222.310975999993</v>
       </c>
       <c r="AF6" s="1">
-        <v>18.672864</v>
+        <v>18.672864000000001</v>
       </c>
       <c r="AG6" s="1">
-        <v>1223.220000</v>
+        <v>1223.22</v>
       </c>
       <c r="AH6" s="1">
-        <v>-86.288200</v>
+        <v>-86.288200000000003</v>
       </c>
       <c r="AI6" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AJ6" s="1">
-        <v>67232.797854</v>
+        <v>67232.797854000004</v>
       </c>
       <c r="AK6" s="1">
         <v>18.675777</v>
       </c>
       <c r="AL6" s="1">
-        <v>1230.830000</v>
+        <v>1230.83</v>
       </c>
       <c r="AM6" s="1">
-        <v>-89.880700</v>
+        <v>-89.880700000000004</v>
       </c>
       <c r="AN6" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AO6" s="1">
-        <v>67243.439520</v>
+        <v>67243.43952</v>
       </c>
       <c r="AP6" s="1">
-        <v>18.678733</v>
+        <v>18.678733000000001</v>
       </c>
       <c r="AQ6" s="1">
-        <v>1239.080000</v>
+        <v>1239.08</v>
       </c>
       <c r="AR6" s="1">
-        <v>-101.872000</v>
+        <v>-101.872</v>
       </c>
       <c r="AS6" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AT6" s="1">
-        <v>67254.411025</v>
+        <v>67254.411024999994</v>
       </c>
       <c r="AU6" s="1">
-        <v>18.681781</v>
+        <v>18.681781000000001</v>
       </c>
       <c r="AV6" s="1">
-        <v>1249.240000</v>
+        <v>1249.24</v>
       </c>
       <c r="AW6" s="1">
-        <v>-121.258000</v>
+        <v>-121.258</v>
       </c>
       <c r="AX6" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AY6" s="1">
-        <v>67265.615191</v>
+        <v>67265.615191000004</v>
       </c>
       <c r="AZ6" s="1">
-        <v>18.684893</v>
+        <v>18.684892999999999</v>
       </c>
       <c r="BA6" s="1">
-        <v>1257.790000</v>
+        <v>1257.79</v>
       </c>
       <c r="BB6" s="1">
-        <v>-138.781000</v>
+        <v>-138.78100000000001</v>
       </c>
       <c r="BC6" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BD6" s="1">
-        <v>67276.596084</v>
+        <v>67276.596084000004</v>
       </c>
       <c r="BE6" s="1">
-        <v>18.687943</v>
+        <v>18.687943000000001</v>
       </c>
       <c r="BF6" s="1">
-        <v>1298.360000</v>
+        <v>1298.3599999999999</v>
       </c>
       <c r="BG6" s="1">
-        <v>-220.835000</v>
+        <v>-220.83500000000001</v>
       </c>
       <c r="BH6" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BI6" s="1">
-        <v>67287.308709</v>
+        <v>67287.308709000004</v>
       </c>
       <c r="BJ6" s="1">
-        <v>18.690919</v>
+        <v>18.690919000000001</v>
       </c>
       <c r="BK6" s="1">
-        <v>1368.770000</v>
+        <v>1368.77</v>
       </c>
       <c r="BL6" s="1">
-        <v>-357.120000</v>
+        <v>-357.12</v>
       </c>
       <c r="BM6" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BN6" s="1">
-        <v>67298.534134</v>
+        <v>67298.534134000001</v>
       </c>
       <c r="BO6" s="1">
-        <v>18.694037</v>
+        <v>18.694037000000002</v>
       </c>
       <c r="BP6" s="1">
-        <v>1484.610000</v>
+        <v>1484.61</v>
       </c>
       <c r="BQ6" s="1">
-        <v>-578.115000</v>
+        <v>-578.11500000000001</v>
       </c>
       <c r="BR6" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BS6" s="1">
-        <v>67310.095911</v>
+        <v>67310.095910999997</v>
       </c>
       <c r="BT6" s="1">
-        <v>18.697249</v>
+        <v>18.697248999999999</v>
       </c>
       <c r="BU6" s="1">
-        <v>1617.840000</v>
+        <v>1617.84</v>
       </c>
       <c r="BV6" s="1">
-        <v>-826.001000</v>
+        <v>-826.00099999999998</v>
       </c>
       <c r="BW6" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BX6" s="1">
-        <v>67321.308960</v>
+        <v>67321.308959999995</v>
       </c>
       <c r="BY6" s="1">
         <v>18.700364</v>
       </c>
       <c r="BZ6" s="1">
-        <v>1771.390000</v>
+        <v>1771.39</v>
       </c>
       <c r="CA6" s="1">
-        <v>-1095.420000</v>
+        <v>-1095.42</v>
       </c>
       <c r="CB6" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="CC6" s="1">
-        <v>67332.976856</v>
+        <v>67332.976855999994</v>
       </c>
       <c r="CD6" s="1">
         <v>18.703605</v>
       </c>
       <c r="CE6" s="1">
-        <v>2190.930000</v>
+        <v>2190.9299999999998</v>
       </c>
       <c r="CF6" s="1">
-        <v>-1744.620000</v>
+        <v>-1744.62</v>
       </c>
       <c r="CG6" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
     </row>
-    <row r="7">
+    <row r="7" spans="1:85">
       <c r="A7" s="1">
-        <v>67159.397887</v>
+        <v>67159.397886999999</v>
       </c>
       <c r="B7" s="1">
-        <v>18.655388</v>
+        <v>18.655387999999999</v>
       </c>
       <c r="C7" s="1">
-        <v>1147.530000</v>
+        <v>1147.53</v>
       </c>
       <c r="D7" s="1">
-        <v>-243.736000</v>
+        <v>-243.73599999999999</v>
       </c>
       <c r="E7" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="F7" s="1">
-        <v>67169.797536</v>
+        <v>67169.797535999998</v>
       </c>
       <c r="G7" s="1">
-        <v>18.658277</v>
+        <v>18.658276999999998</v>
       </c>
       <c r="H7" s="1">
-        <v>1167.360000</v>
+        <v>1167.3599999999999</v>
       </c>
       <c r="I7" s="1">
-        <v>-205.185000</v>
+        <v>-205.185</v>
       </c>
       <c r="J7" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="K7" s="1">
-        <v>67180.562706</v>
+        <v>67180.562705999997</v>
       </c>
       <c r="L7" s="1">
-        <v>18.661267</v>
+        <v>18.661266999999999</v>
       </c>
       <c r="M7" s="1">
-        <v>1193.450000</v>
+        <v>1193.45</v>
       </c>
       <c r="N7" s="1">
-        <v>-145.651000</v>
+        <v>-145.65100000000001</v>
       </c>
       <c r="O7" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="P7" s="1">
-        <v>67191.085796</v>
+        <v>67191.085795999999</v>
       </c>
       <c r="Q7" s="1">
-        <v>18.664190</v>
+        <v>18.664190000000001</v>
       </c>
       <c r="R7" s="1">
-        <v>1201.750000</v>
+        <v>1201.75</v>
       </c>
       <c r="S7" s="1">
-        <v>-125.280000</v>
+        <v>-125.28</v>
       </c>
       <c r="T7" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="U7" s="1">
-        <v>67201.681373</v>
+        <v>67201.681372999999</v>
       </c>
       <c r="V7" s="1">
-        <v>18.667134</v>
+        <v>18.667134000000001</v>
       </c>
       <c r="W7" s="1">
-        <v>1209.660000</v>
+        <v>1209.6600000000001</v>
       </c>
       <c r="X7" s="1">
-        <v>-106.057000</v>
+        <v>-106.057</v>
       </c>
       <c r="Y7" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="Z7" s="1">
-        <v>67212.169240</v>
+        <v>67212.169240000003</v>
       </c>
       <c r="AA7" s="1">
         <v>18.670047</v>
       </c>
       <c r="AB7" s="1">
-        <v>1218.090000</v>
+        <v>1218.0899999999999</v>
       </c>
       <c r="AC7" s="1">
-        <v>-90.401700</v>
+        <v>-90.401700000000005</v>
       </c>
       <c r="AD7" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AE7" s="1">
-        <v>67222.656154</v>
+        <v>67222.656153999997</v>
       </c>
       <c r="AF7" s="1">
-        <v>18.672960</v>
+        <v>18.67296</v>
       </c>
       <c r="AG7" s="1">
-        <v>1223.220000</v>
+        <v>1223.22</v>
       </c>
       <c r="AH7" s="1">
-        <v>-86.301300</v>
+        <v>-86.301299999999998</v>
       </c>
       <c r="AI7" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AJ7" s="1">
-        <v>67233.145549</v>
+        <v>67233.145548999993</v>
       </c>
       <c r="AK7" s="1">
         <v>18.675874</v>
       </c>
       <c r="AL7" s="1">
-        <v>1230.870000</v>
+        <v>1230.8699999999999</v>
       </c>
       <c r="AM7" s="1">
-        <v>-89.855900</v>
+        <v>-89.855900000000005</v>
       </c>
       <c r="AN7" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AO7" s="1">
-        <v>67243.799119</v>
+        <v>67243.799119000003</v>
       </c>
       <c r="AP7" s="1">
-        <v>18.678833</v>
+        <v>18.678833000000001</v>
       </c>
       <c r="AQ7" s="1">
-        <v>1239.050000</v>
+        <v>1239.05</v>
       </c>
       <c r="AR7" s="1">
-        <v>-101.863000</v>
+        <v>-101.863</v>
       </c>
       <c r="AS7" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AT7" s="1">
-        <v>67254.835599</v>
+        <v>67254.835598999998</v>
       </c>
       <c r="AU7" s="1">
-        <v>18.681899</v>
+        <v>18.681899000000001</v>
       </c>
       <c r="AV7" s="1">
-        <v>1249.240000</v>
+        <v>1249.24</v>
       </c>
       <c r="AW7" s="1">
-        <v>-121.253000</v>
+        <v>-121.253</v>
       </c>
       <c r="AX7" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AY7" s="1">
-        <v>67265.939580</v>
+        <v>67265.939580000006</v>
       </c>
       <c r="AZ7" s="1">
-        <v>18.684983</v>
+        <v>18.684982999999999</v>
       </c>
       <c r="BA7" s="1">
-        <v>1257.790000</v>
+        <v>1257.79</v>
       </c>
       <c r="BB7" s="1">
-        <v>-138.782000</v>
+        <v>-138.78200000000001</v>
       </c>
       <c r="BC7" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BD7" s="1">
-        <v>67276.902610</v>
+        <v>67276.902610000005</v>
       </c>
       <c r="BE7" s="1">
         <v>18.688029</v>
       </c>
       <c r="BF7" s="1">
-        <v>1298.350000</v>
+        <v>1298.3499999999999</v>
       </c>
       <c r="BG7" s="1">
-        <v>-220.877000</v>
+        <v>-220.87700000000001</v>
       </c>
       <c r="BH7" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BI7" s="1">
-        <v>67287.688158</v>
+        <v>67287.688158000004</v>
       </c>
       <c r="BJ7" s="1">
-        <v>18.691024</v>
+        <v>18.691023999999999</v>
       </c>
       <c r="BK7" s="1">
-        <v>1368.830000</v>
+        <v>1368.83</v>
       </c>
       <c r="BL7" s="1">
-        <v>-357.087000</v>
+        <v>-357.08699999999999</v>
       </c>
       <c r="BM7" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BN7" s="1">
-        <v>67298.909606</v>
+        <v>67298.909606000001</v>
       </c>
       <c r="BO7" s="1">
-        <v>18.694142</v>
+        <v>18.694141999999999</v>
       </c>
       <c r="BP7" s="1">
-        <v>1484.600000</v>
+        <v>1484.6</v>
       </c>
       <c r="BQ7" s="1">
-        <v>-578.092000</v>
+        <v>-578.09199999999998</v>
       </c>
       <c r="BR7" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BS7" s="1">
-        <v>67310.532579</v>
+        <v>67310.532579000006</v>
       </c>
       <c r="BT7" s="1">
-        <v>18.697370</v>
+        <v>18.697369999999999</v>
       </c>
       <c r="BU7" s="1">
-        <v>1617.820000</v>
+        <v>1617.82</v>
       </c>
       <c r="BV7" s="1">
-        <v>-825.884000</v>
+        <v>-825.88400000000001</v>
       </c>
       <c r="BW7" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BX7" s="1">
         <v>67321.765797</v>
       </c>
       <c r="BY7" s="1">
-        <v>18.700490</v>
+        <v>18.700489999999999</v>
       </c>
       <c r="BZ7" s="1">
-        <v>1771.350000</v>
+        <v>1771.35</v>
       </c>
       <c r="CA7" s="1">
-        <v>-1095.330000</v>
+        <v>-1095.33</v>
       </c>
       <c r="CB7" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="CC7" s="1">
-        <v>67333.206968</v>
+        <v>67333.206967999999</v>
       </c>
       <c r="CD7" s="1">
-        <v>18.703669</v>
+        <v>18.703669000000001</v>
       </c>
       <c r="CE7" s="1">
-        <v>2190.920000</v>
+        <v>2190.92</v>
       </c>
       <c r="CF7" s="1">
-        <v>-1745.340000</v>
+        <v>-1745.34</v>
       </c>
       <c r="CG7" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
     </row>
-    <row r="8">
+    <row r="8" spans="1:85">
       <c r="A8" s="1">
-        <v>67159.736655</v>
+        <v>67159.736655000001</v>
       </c>
       <c r="B8" s="1">
-        <v>18.655482</v>
+        <v>18.655481999999999</v>
       </c>
       <c r="C8" s="1">
-        <v>1147.820000</v>
+        <v>1147.82</v>
       </c>
       <c r="D8" s="1">
-        <v>-243.661000</v>
+        <v>-243.661</v>
       </c>
       <c r="E8" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="F8" s="1">
-        <v>67170.455695</v>
+        <v>67170.455694999997</v>
       </c>
       <c r="G8" s="1">
-        <v>18.658460</v>
+        <v>18.658460000000002</v>
       </c>
       <c r="H8" s="1">
-        <v>1167.100000</v>
+        <v>1167.0999999999999</v>
       </c>
       <c r="I8" s="1">
-        <v>-206.040000</v>
+        <v>-206.04</v>
       </c>
       <c r="J8" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="K8" s="1">
-        <v>67180.944595</v>
+        <v>67180.944594999994</v>
       </c>
       <c r="L8" s="1">
-        <v>18.661373</v>
+        <v>18.661373000000001</v>
       </c>
       <c r="M8" s="1">
-        <v>1193.650000</v>
+        <v>1193.6500000000001</v>
       </c>
       <c r="N8" s="1">
-        <v>-145.558000</v>
+        <v>-145.55799999999999</v>
       </c>
       <c r="O8" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="P8" s="1">
-        <v>67191.473699</v>
+        <v>67191.473698999995</v>
       </c>
       <c r="Q8" s="1">
-        <v>18.664298</v>
+        <v>18.664297999999999</v>
       </c>
       <c r="R8" s="1">
-        <v>1201.720000</v>
+        <v>1201.72</v>
       </c>
       <c r="S8" s="1">
-        <v>-125.318000</v>
+        <v>-125.318</v>
       </c>
       <c r="T8" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="U8" s="1">
-        <v>67202.026053</v>
+        <v>67202.026052999994</v>
       </c>
       <c r="V8" s="1">
-        <v>18.667229</v>
+        <v>18.667228999999999</v>
       </c>
       <c r="W8" s="1">
-        <v>1209.530000</v>
+        <v>1209.53</v>
       </c>
       <c r="X8" s="1">
-        <v>-105.985000</v>
+        <v>-105.985</v>
       </c>
       <c r="Y8" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="Z8" s="1">
-        <v>67212.516440</v>
+        <v>67212.516440000007</v>
       </c>
       <c r="AA8" s="1">
-        <v>18.670143</v>
+        <v>18.670142999999999</v>
       </c>
       <c r="AB8" s="1">
-        <v>1217.920000</v>
+        <v>1217.92</v>
       </c>
       <c r="AC8" s="1">
-        <v>-90.447600</v>
+        <v>-90.447599999999994</v>
       </c>
       <c r="AD8" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AE8" s="1">
-        <v>67223.005375</v>
+        <v>67223.005374999993</v>
       </c>
       <c r="AF8" s="1">
         <v>18.673057</v>
       </c>
       <c r="AG8" s="1">
-        <v>1223.230000</v>
+        <v>1223.23</v>
       </c>
       <c r="AH8" s="1">
-        <v>-86.308400</v>
+        <v>-86.308400000000006</v>
       </c>
       <c r="AI8" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AJ8" s="1">
-        <v>67233.569134</v>
+        <v>67233.569134000005</v>
       </c>
       <c r="AK8" s="1">
         <v>18.675991</v>
       </c>
       <c r="AL8" s="1">
-        <v>1230.810000</v>
+        <v>1230.81</v>
       </c>
       <c r="AM8" s="1">
-        <v>-89.885200</v>
+        <v>-89.885199999999998</v>
       </c>
       <c r="AN8" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AO8" s="1">
-        <v>67244.242542</v>
+        <v>67244.242542000007</v>
       </c>
       <c r="AP8" s="1">
-        <v>18.678956</v>
+        <v>18.678955999999999</v>
       </c>
       <c r="AQ8" s="1">
-        <v>1239.080000</v>
+        <v>1239.08</v>
       </c>
       <c r="AR8" s="1">
-        <v>-101.872000</v>
+        <v>-101.872</v>
       </c>
       <c r="AS8" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AT8" s="1">
-        <v>67255.140143</v>
+        <v>67255.140142999997</v>
       </c>
       <c r="AU8" s="1">
-        <v>18.681983</v>
+        <v>18.681982999999999</v>
       </c>
       <c r="AV8" s="1">
-        <v>1249.250000</v>
+        <v>1249.25</v>
       </c>
       <c r="AW8" s="1">
-        <v>-121.272000</v>
+        <v>-121.27200000000001</v>
       </c>
       <c r="AX8" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AY8" s="1">
         <v>67266.297154</v>
       </c>
       <c r="AZ8" s="1">
-        <v>18.685083</v>
+        <v>18.685082999999999</v>
       </c>
       <c r="BA8" s="1">
-        <v>1257.800000</v>
+        <v>1257.8</v>
       </c>
       <c r="BB8" s="1">
-        <v>-138.772000</v>
+        <v>-138.77199999999999</v>
       </c>
       <c r="BC8" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BD8" s="1">
-        <v>67277.264690</v>
+        <v>67277.264689999996</v>
       </c>
       <c r="BE8" s="1">
         <v>18.688129</v>
       </c>
       <c r="BF8" s="1">
-        <v>1298.370000</v>
+        <v>1298.3699999999999</v>
       </c>
       <c r="BG8" s="1">
-        <v>-220.852000</v>
+        <v>-220.852</v>
       </c>
       <c r="BH8" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BI8" s="1">
-        <v>67288.060117</v>
+        <v>67288.060117000001</v>
       </c>
       <c r="BJ8" s="1">
-        <v>18.691128</v>
+        <v>18.691127999999999</v>
       </c>
       <c r="BK8" s="1">
-        <v>1368.810000</v>
+        <v>1368.81</v>
       </c>
       <c r="BL8" s="1">
-        <v>-357.182000</v>
+        <v>-357.18200000000002</v>
       </c>
       <c r="BM8" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BN8" s="1">
-        <v>67299.727012</v>
+        <v>67299.727012000003</v>
       </c>
       <c r="BO8" s="1">
-        <v>18.694369</v>
+        <v>18.694368999999998</v>
       </c>
       <c r="BP8" s="1">
-        <v>1484.640000</v>
+        <v>1484.64</v>
       </c>
       <c r="BQ8" s="1">
-        <v>-578.109000</v>
+        <v>-578.10900000000004</v>
       </c>
       <c r="BR8" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BS8" s="1">
-        <v>67310.961430</v>
+        <v>67310.961429999996</v>
       </c>
       <c r="BT8" s="1">
-        <v>18.697489</v>
+        <v>18.697489000000001</v>
       </c>
       <c r="BU8" s="1">
-        <v>1617.840000</v>
+        <v>1617.84</v>
       </c>
       <c r="BV8" s="1">
-        <v>-825.905000</v>
+        <v>-825.90499999999997</v>
       </c>
       <c r="BW8" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BX8" s="1">
         <v>67322.212646</v>
       </c>
       <c r="BY8" s="1">
-        <v>18.700615</v>
+        <v>18.700614999999999</v>
       </c>
       <c r="BZ8" s="1">
-        <v>1771.440000</v>
+        <v>1771.44</v>
       </c>
       <c r="CA8" s="1">
-        <v>-1095.340000</v>
+        <v>-1095.3399999999999</v>
       </c>
       <c r="CB8" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="CC8" s="1">
-        <v>67333.726777</v>
+        <v>67333.726777000003</v>
       </c>
       <c r="CD8" s="1">
         <v>18.703813</v>
       </c>
       <c r="CE8" s="1">
-        <v>2190.600000</v>
+        <v>2190.6</v>
       </c>
       <c r="CF8" s="1">
-        <v>-1742.820000</v>
+        <v>-1742.82</v>
       </c>
       <c r="CG8" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
     </row>
-    <row r="9">
+    <row r="9" spans="1:85">
       <c r="A9" s="1">
         <v>67160.394386</v>
       </c>
       <c r="B9" s="1">
-        <v>18.655665</v>
+        <v>18.655664999999999</v>
       </c>
       <c r="C9" s="1">
-        <v>1147.490000</v>
+        <v>1147.49</v>
       </c>
       <c r="D9" s="1">
-        <v>-243.664000</v>
+        <v>-243.66399999999999</v>
       </c>
       <c r="E9" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="F9" s="1">
-        <v>67170.830176</v>
+        <v>67170.830176000003</v>
       </c>
       <c r="G9" s="1">
-        <v>18.658564</v>
+        <v>18.658563999999998</v>
       </c>
       <c r="H9" s="1">
-        <v>1166.400000</v>
+        <v>1166.4000000000001</v>
       </c>
       <c r="I9" s="1">
-        <v>-206.172000</v>
+        <v>-206.172</v>
       </c>
       <c r="J9" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="K9" s="1">
-        <v>67181.289314</v>
+        <v>67181.289313999994</v>
       </c>
       <c r="L9" s="1">
         <v>18.661469</v>
       </c>
       <c r="M9" s="1">
-        <v>1193.750000</v>
+        <v>1193.75</v>
       </c>
       <c r="N9" s="1">
-        <v>-145.436000</v>
+        <v>-145.43600000000001</v>
       </c>
       <c r="O9" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="P9" s="1">
-        <v>67191.821363</v>
+        <v>67191.821362999995</v>
       </c>
       <c r="Q9" s="1">
-        <v>18.664395</v>
+        <v>18.664394999999999</v>
       </c>
       <c r="R9" s="1">
-        <v>1201.790000</v>
+        <v>1201.79</v>
       </c>
       <c r="S9" s="1">
-        <v>-125.376000</v>
+        <v>-125.376</v>
       </c>
       <c r="T9" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="U9" s="1">
-        <v>67202.364821</v>
+        <v>67202.364820999996</v>
       </c>
       <c r="V9" s="1">
-        <v>18.667324</v>
+        <v>18.667324000000001</v>
       </c>
       <c r="W9" s="1">
-        <v>1209.600000</v>
+        <v>1209.5999999999999</v>
       </c>
       <c r="X9" s="1">
-        <v>-106.240000</v>
+        <v>-106.24</v>
       </c>
       <c r="Y9" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="Z9" s="1">
-        <v>67212.946472</v>
+        <v>67212.946471999996</v>
       </c>
       <c r="AA9" s="1">
-        <v>18.670263</v>
+        <v>18.670262999999998</v>
       </c>
       <c r="AB9" s="1">
-        <v>1218.040000</v>
+        <v>1218.04</v>
       </c>
       <c r="AC9" s="1">
-        <v>-90.356100</v>
+        <v>-90.356099999999998</v>
       </c>
       <c r="AD9" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AE9" s="1">
-        <v>67223.413547</v>
+        <v>67223.413547000004</v>
       </c>
       <c r="AF9" s="1">
-        <v>18.673170</v>
+        <v>18.673169999999999</v>
       </c>
       <c r="AG9" s="1">
-        <v>1223.180000</v>
+        <v>1223.18</v>
       </c>
       <c r="AH9" s="1">
-        <v>-86.334200</v>
+        <v>-86.334199999999996</v>
       </c>
       <c r="AI9" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AJ9" s="1">
-        <v>67233.847390</v>
+        <v>67233.847389999995</v>
       </c>
       <c r="AK9" s="1">
-        <v>18.676069</v>
+        <v>18.676068999999998</v>
       </c>
       <c r="AL9" s="1">
-        <v>1230.850000</v>
+        <v>1230.8499999999999</v>
       </c>
       <c r="AM9" s="1">
-        <v>-89.886100</v>
+        <v>-89.886099999999999</v>
       </c>
       <c r="AN9" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AO9" s="1">
-        <v>67244.521294</v>
+        <v>67244.521294000006</v>
       </c>
       <c r="AP9" s="1">
-        <v>18.679034</v>
+        <v>18.679034000000001</v>
       </c>
       <c r="AQ9" s="1">
-        <v>1239.060000</v>
+        <v>1239.06</v>
       </c>
       <c r="AR9" s="1">
-        <v>-101.861000</v>
+        <v>-101.861</v>
       </c>
       <c r="AS9" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AT9" s="1">
-        <v>67255.502223</v>
+        <v>67255.502223000003</v>
       </c>
       <c r="AU9" s="1">
         <v>18.682084</v>
       </c>
       <c r="AV9" s="1">
-        <v>1249.260000</v>
+        <v>1249.26</v>
       </c>
       <c r="AW9" s="1">
-        <v>-121.257000</v>
+        <v>-121.25700000000001</v>
       </c>
       <c r="AX9" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AY9" s="1">
-        <v>67266.644848</v>
+        <v>67266.644847999996</v>
       </c>
       <c r="AZ9" s="1">
-        <v>18.685179</v>
+        <v>18.685179000000002</v>
       </c>
       <c r="BA9" s="1">
-        <v>1257.780000</v>
+        <v>1257.78</v>
       </c>
       <c r="BB9" s="1">
-        <v>-138.803000</v>
+        <v>-138.803</v>
       </c>
       <c r="BC9" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BD9" s="1">
-        <v>67277.624794</v>
+        <v>67277.624794000003</v>
       </c>
       <c r="BE9" s="1">
         <v>18.688229</v>
       </c>
       <c r="BF9" s="1">
-        <v>1298.340000</v>
+        <v>1298.3399999999999</v>
       </c>
       <c r="BG9" s="1">
-        <v>-220.851000</v>
+        <v>-220.851</v>
       </c>
       <c r="BH9" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BI9" s="1">
-        <v>67288.813066</v>
+        <v>67288.813066000002</v>
       </c>
       <c r="BJ9" s="1">
-        <v>18.691337</v>
+        <v>18.691337000000001</v>
       </c>
       <c r="BK9" s="1">
-        <v>1368.800000</v>
+        <v>1368.8</v>
       </c>
       <c r="BL9" s="1">
-        <v>-357.122000</v>
+        <v>-357.12200000000001</v>
       </c>
       <c r="BM9" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BN9" s="1">
-        <v>67300.147125</v>
+        <v>67300.147125000003</v>
       </c>
       <c r="BO9" s="1">
         <v>18.694485</v>
       </c>
       <c r="BP9" s="1">
-        <v>1484.640000</v>
+        <v>1484.64</v>
       </c>
       <c r="BQ9" s="1">
-        <v>-578.058000</v>
+        <v>-578.05799999999999</v>
       </c>
       <c r="BR9" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BS9" s="1">
-        <v>67311.374101</v>
+        <v>67311.374100999994</v>
       </c>
       <c r="BT9" s="1">
-        <v>18.697604</v>
+        <v>18.697603999999998</v>
       </c>
       <c r="BU9" s="1">
-        <v>1617.880000</v>
+        <v>1617.88</v>
       </c>
       <c r="BV9" s="1">
-        <v>-825.843000</v>
+        <v>-825.84299999999996</v>
       </c>
       <c r="BW9" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BX9" s="1">
-        <v>67322.670455</v>
+        <v>67322.670454999999</v>
       </c>
       <c r="BY9" s="1">
-        <v>18.700742</v>
+        <v>18.700742000000002</v>
       </c>
       <c r="BZ9" s="1">
-        <v>1771.360000</v>
+        <v>1771.36</v>
       </c>
       <c r="CA9" s="1">
-        <v>-1095.420000</v>
+        <v>-1095.42</v>
       </c>
       <c r="CB9" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="CC9" s="1">
-        <v>67334.555590</v>
+        <v>67334.555590000004</v>
       </c>
       <c r="CD9" s="1">
-        <v>18.704043</v>
+        <v>18.704042999999999</v>
       </c>
       <c r="CE9" s="1">
-        <v>2188.550000</v>
+        <v>2188.5500000000002</v>
       </c>
       <c r="CF9" s="1">
-        <v>-1744.030000</v>
+        <v>-1744.03</v>
       </c>
       <c r="CG9" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
     </row>
-    <row r="10">
+    <row r="10" spans="1:85">
       <c r="A10" s="1">
-        <v>67160.762459</v>
+        <v>67160.762459000005</v>
       </c>
       <c r="B10" s="1">
-        <v>18.655767</v>
+        <v>18.655767000000001</v>
       </c>
       <c r="C10" s="1">
-        <v>1147.680000</v>
+        <v>1147.68</v>
       </c>
       <c r="D10" s="1">
-        <v>-243.749000</v>
+        <v>-243.749</v>
       </c>
       <c r="E10" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="F10" s="1">
-        <v>67171.174894</v>
+        <v>67171.174893999996</v>
       </c>
       <c r="G10" s="1">
-        <v>18.658660</v>
+        <v>18.658660000000001</v>
       </c>
       <c r="H10" s="1">
-        <v>1167.790000</v>
+        <v>1167.79</v>
       </c>
       <c r="I10" s="1">
-        <v>-204.860000</v>
+        <v>-204.86</v>
       </c>
       <c r="J10" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="K10" s="1">
-        <v>67181.635522</v>
+        <v>67181.635521999997</v>
       </c>
       <c r="L10" s="1">
         <v>18.661565</v>
       </c>
       <c r="M10" s="1">
-        <v>1193.880000</v>
+        <v>1193.8800000000001</v>
       </c>
       <c r="N10" s="1">
-        <v>-145.470000</v>
+        <v>-145.47</v>
       </c>
       <c r="O10" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="P10" s="1">
-        <v>67192.171075</v>
+        <v>67192.171075000006</v>
       </c>
       <c r="Q10" s="1">
-        <v>18.664492</v>
+        <v>18.664491999999999</v>
       </c>
       <c r="R10" s="1">
-        <v>1201.720000</v>
+        <v>1201.72</v>
       </c>
       <c r="S10" s="1">
-        <v>-125.377000</v>
+        <v>-125.377</v>
       </c>
       <c r="T10" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="U10" s="1">
-        <v>67202.787910</v>
+        <v>67202.787909999999</v>
       </c>
       <c r="V10" s="1">
         <v>18.667441</v>
       </c>
       <c r="W10" s="1">
-        <v>1209.720000</v>
+        <v>1209.72</v>
       </c>
       <c r="X10" s="1">
-        <v>-106.221000</v>
+        <v>-106.221</v>
       </c>
       <c r="Y10" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="Z10" s="1">
-        <v>67213.217319</v>
+        <v>67213.217319000003</v>
       </c>
       <c r="AA10" s="1">
-        <v>18.670338</v>
+        <v>18.670338000000001</v>
       </c>
       <c r="AB10" s="1">
-        <v>1218.040000</v>
+        <v>1218.04</v>
       </c>
       <c r="AC10" s="1">
-        <v>-90.356600</v>
+        <v>-90.3566</v>
       </c>
       <c r="AD10" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AE10" s="1">
-        <v>67223.707673</v>
+        <v>67223.707672999997</v>
       </c>
       <c r="AF10" s="1">
-        <v>18.673252</v>
+        <v>18.673252000000002</v>
       </c>
       <c r="AG10" s="1">
-        <v>1223.240000</v>
+        <v>1223.24</v>
       </c>
       <c r="AH10" s="1">
-        <v>-86.304000</v>
+        <v>-86.304000000000002</v>
       </c>
       <c r="AI10" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AJ10" s="1">
-        <v>67234.195579</v>
+        <v>67234.195579000007</v>
       </c>
       <c r="AK10" s="1">
-        <v>18.676165</v>
+        <v>18.676165000000001</v>
       </c>
       <c r="AL10" s="1">
-        <v>1230.820000</v>
+        <v>1230.82</v>
       </c>
       <c r="AM10" s="1">
-        <v>-89.868200</v>
+        <v>-89.868200000000002</v>
       </c>
       <c r="AN10" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AO10" s="1">
-        <v>67244.878911</v>
+        <v>67244.878911000007</v>
       </c>
       <c r="AP10" s="1">
         <v>18.679133</v>
       </c>
       <c r="AQ10" s="1">
-        <v>1239.070000</v>
+        <v>1239.07</v>
       </c>
       <c r="AR10" s="1">
-        <v>-101.880000</v>
+        <v>-101.88</v>
       </c>
       <c r="AS10" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AT10" s="1">
-        <v>67255.868271</v>
+        <v>67255.868270999999</v>
       </c>
       <c r="AU10" s="1">
-        <v>18.682186</v>
+        <v>18.682186000000002</v>
       </c>
       <c r="AV10" s="1">
-        <v>1249.260000</v>
+        <v>1249.26</v>
       </c>
       <c r="AW10" s="1">
-        <v>-121.261000</v>
+        <v>-121.261</v>
       </c>
       <c r="AX10" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AY10" s="1">
         <v>67267.373473</v>
       </c>
       <c r="AZ10" s="1">
-        <v>18.685382</v>
+        <v>18.685382000000001</v>
       </c>
       <c r="BA10" s="1">
-        <v>1257.790000</v>
+        <v>1257.79</v>
       </c>
       <c r="BB10" s="1">
-        <v>-138.768000</v>
+        <v>-138.768</v>
       </c>
       <c r="BC10" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BD10" s="1">
-        <v>67278.349441</v>
+        <v>67278.349440999998</v>
       </c>
       <c r="BE10" s="1">
-        <v>18.688430</v>
+        <v>18.68843</v>
       </c>
       <c r="BF10" s="1">
-        <v>1298.360000</v>
+        <v>1298.3599999999999</v>
       </c>
       <c r="BG10" s="1">
-        <v>-220.840000</v>
+        <v>-220.84</v>
       </c>
       <c r="BH10" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BI10" s="1">
-        <v>67289.188550</v>
+        <v>67289.188550000006</v>
       </c>
       <c r="BJ10" s="1">
-        <v>18.691441</v>
+        <v>18.691441000000001</v>
       </c>
       <c r="BK10" s="1">
-        <v>1368.850000</v>
+        <v>1368.85</v>
       </c>
       <c r="BL10" s="1">
-        <v>-357.145000</v>
+        <v>-357.14499999999998</v>
       </c>
       <c r="BM10" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BN10" s="1">
-        <v>67300.540451</v>
+        <v>67300.540450999993</v>
       </c>
       <c r="BO10" s="1">
         <v>18.694595</v>
       </c>
       <c r="BP10" s="1">
-        <v>1484.640000</v>
+        <v>1484.64</v>
       </c>
       <c r="BQ10" s="1">
-        <v>-578.096000</v>
+        <v>-578.096</v>
       </c>
       <c r="BR10" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BS10" s="1">
-        <v>67311.804596</v>
+        <v>67311.804596000002</v>
       </c>
       <c r="BT10" s="1">
         <v>18.697723</v>
       </c>
       <c r="BU10" s="1">
-        <v>1617.940000</v>
+        <v>1617.94</v>
       </c>
       <c r="BV10" s="1">
-        <v>-825.944000</v>
+        <v>-825.94399999999996</v>
       </c>
       <c r="BW10" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BX10" s="1">
-        <v>67323.429830</v>
+        <v>67323.429829999994</v>
       </c>
       <c r="BY10" s="1">
-        <v>18.700953</v>
+        <v>18.700952999999998</v>
       </c>
       <c r="BZ10" s="1">
-        <v>1771.280000</v>
+        <v>1771.28</v>
       </c>
       <c r="CA10" s="1">
-        <v>-1095.280000</v>
+        <v>-1095.28</v>
       </c>
       <c r="CB10" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="CC10" s="1">
-        <v>67334.762918</v>
+        <v>67334.762917999993</v>
       </c>
       <c r="CD10" s="1">
-        <v>18.704101</v>
+        <v>18.704101000000001</v>
       </c>
       <c r="CE10" s="1">
-        <v>2189.640000</v>
+        <v>2189.64</v>
       </c>
       <c r="CF10" s="1">
-        <v>-1745.700000</v>
+        <v>-1745.7</v>
       </c>
       <c r="CG10" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
     </row>
-    <row r="11">
+    <row r="11" spans="1:85">
       <c r="A11" s="1">
-        <v>67161.105644</v>
+        <v>67161.105643999996</v>
       </c>
       <c r="B11" s="1">
         <v>18.655863</v>
       </c>
       <c r="C11" s="1">
-        <v>1147.760000</v>
+        <v>1147.76</v>
       </c>
       <c r="D11" s="1">
-        <v>-243.594000</v>
+        <v>-243.59399999999999</v>
       </c>
       <c r="E11" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="F11" s="1">
-        <v>67171.520142</v>
+        <v>67171.520141999994</v>
       </c>
       <c r="G11" s="1">
         <v>18.658756</v>
       </c>
       <c r="H11" s="1">
-        <v>1167.020000</v>
+        <v>1167.02</v>
       </c>
       <c r="I11" s="1">
-        <v>-205.571000</v>
+        <v>-205.571</v>
       </c>
       <c r="J11" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="K11" s="1">
-        <v>67182.055136</v>
+        <v>67182.055135999995</v>
       </c>
       <c r="L11" s="1">
-        <v>18.661682</v>
+        <v>18.661681999999999</v>
       </c>
       <c r="M11" s="1">
-        <v>1193.670000</v>
+        <v>1193.67</v>
       </c>
       <c r="N11" s="1">
-        <v>-145.478000</v>
+        <v>-145.47800000000001</v>
       </c>
       <c r="O11" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="P11" s="1">
-        <v>67192.595618</v>
+        <v>67192.595618000007</v>
       </c>
       <c r="Q11" s="1">
-        <v>18.664610</v>
+        <v>18.66461</v>
       </c>
       <c r="R11" s="1">
-        <v>1201.750000</v>
+        <v>1201.75</v>
       </c>
       <c r="S11" s="1">
-        <v>-125.385000</v>
+        <v>-125.38500000000001</v>
       </c>
       <c r="T11" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="U11" s="1">
-        <v>67203.065669</v>
+        <v>67203.065669000003</v>
       </c>
       <c r="V11" s="1">
-        <v>18.667518</v>
+        <v>18.667518000000001</v>
       </c>
       <c r="W11" s="1">
-        <v>1209.670000</v>
+        <v>1209.67</v>
       </c>
       <c r="X11" s="1">
-        <v>-106.064000</v>
+        <v>-106.06399999999999</v>
       </c>
       <c r="Y11" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="Z11" s="1">
-        <v>67213.565974</v>
+        <v>67213.565973999997</v>
       </c>
       <c r="AA11" s="1">
-        <v>18.670435</v>
+        <v>18.670435000000001</v>
       </c>
       <c r="AB11" s="1">
-        <v>1218.020000</v>
+        <v>1218.02</v>
       </c>
       <c r="AC11" s="1">
-        <v>-90.408800</v>
+        <v>-90.408799999999999</v>
       </c>
       <c r="AD11" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AE11" s="1">
-        <v>67224.051400</v>
+        <v>67224.051399999997</v>
       </c>
       <c r="AF11" s="1">
-        <v>18.673348</v>
+        <v>18.673348000000001</v>
       </c>
       <c r="AG11" s="1">
-        <v>1223.240000</v>
+        <v>1223.24</v>
       </c>
       <c r="AH11" s="1">
-        <v>-86.220500</v>
+        <v>-86.220500000000001</v>
       </c>
       <c r="AI11" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AJ11" s="1">
-        <v>67234.546250</v>
+        <v>67234.546249999999</v>
       </c>
       <c r="AK11" s="1">
-        <v>18.676263</v>
+        <v>18.676262999999999</v>
       </c>
       <c r="AL11" s="1">
-        <v>1230.840000</v>
+        <v>1230.8399999999999</v>
       </c>
       <c r="AM11" s="1">
-        <v>-89.897000</v>
+        <v>-89.897000000000006</v>
       </c>
       <c r="AN11" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AO11" s="1">
-        <v>67245.241022</v>
+        <v>67245.241022000002</v>
       </c>
       <c r="AP11" s="1">
-        <v>18.679234</v>
+        <v>18.679234000000001</v>
       </c>
       <c r="AQ11" s="1">
-        <v>1239.060000</v>
+        <v>1239.06</v>
       </c>
       <c r="AR11" s="1">
-        <v>-101.895000</v>
+        <v>-101.895</v>
       </c>
       <c r="AS11" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AT11" s="1">
-        <v>67256.596893</v>
+        <v>67256.596892999994</v>
       </c>
       <c r="AU11" s="1">
         <v>18.682388</v>
       </c>
       <c r="AV11" s="1">
-        <v>1249.220000</v>
+        <v>1249.22</v>
       </c>
       <c r="AW11" s="1">
-        <v>-121.274000</v>
+        <v>-121.274</v>
       </c>
       <c r="AX11" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AY11" s="1">
-        <v>67267.759856</v>
+        <v>67267.759856000004</v>
       </c>
       <c r="AZ11" s="1">
         <v>18.685489</v>
       </c>
       <c r="BA11" s="1">
-        <v>1257.810000</v>
+        <v>1257.81</v>
       </c>
       <c r="BB11" s="1">
-        <v>-138.771000</v>
+        <v>-138.77099999999999</v>
       </c>
       <c r="BC11" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BD11" s="1">
-        <v>67278.739328</v>
+        <v>67278.739327999996</v>
       </c>
       <c r="BE11" s="1">
-        <v>18.688539</v>
+        <v>18.688538999999999</v>
       </c>
       <c r="BF11" s="1">
-        <v>1298.370000</v>
+        <v>1298.3699999999999</v>
       </c>
       <c r="BG11" s="1">
-        <v>-220.851000</v>
+        <v>-220.851</v>
       </c>
       <c r="BH11" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BI11" s="1">
-        <v>67289.562498</v>
+        <v>67289.562497999999</v>
       </c>
       <c r="BJ11" s="1">
-        <v>18.691545</v>
+        <v>18.691545000000001</v>
       </c>
       <c r="BK11" s="1">
-        <v>1368.830000</v>
+        <v>1368.83</v>
       </c>
       <c r="BL11" s="1">
-        <v>-357.187000</v>
+        <v>-357.18700000000001</v>
       </c>
       <c r="BM11" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BN11" s="1">
-        <v>67301.273074</v>
+        <v>67301.273073999997</v>
       </c>
       <c r="BO11" s="1">
-        <v>18.694798</v>
+        <v>18.694797999999999</v>
       </c>
       <c r="BP11" s="1">
-        <v>1484.650000</v>
+        <v>1484.65</v>
       </c>
       <c r="BQ11" s="1">
-        <v>-578.025000</v>
+        <v>-578.02499999999998</v>
       </c>
       <c r="BR11" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BS11" s="1">
-        <v>67312.554587</v>
+        <v>67312.554587000006</v>
       </c>
       <c r="BT11" s="1">
-        <v>18.697932</v>
+        <v>18.697932000000002</v>
       </c>
       <c r="BU11" s="1">
-        <v>1617.960000</v>
+        <v>1617.96</v>
       </c>
       <c r="BV11" s="1">
-        <v>-825.866000</v>
+        <v>-825.86599999999999</v>
       </c>
       <c r="BW11" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BX11" s="1">
-        <v>67323.570198</v>
+        <v>67323.570198000001</v>
       </c>
       <c r="BY11" s="1">
-        <v>18.700992</v>
+        <v>18.700991999999999</v>
       </c>
       <c r="BZ11" s="1">
-        <v>1771.320000</v>
+        <v>1771.32</v>
       </c>
       <c r="CA11" s="1">
-        <v>-1095.470000</v>
+        <v>-1095.47</v>
       </c>
       <c r="CB11" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="CC11" s="1">
-        <v>67335.281764</v>
+        <v>67335.281763999999</v>
       </c>
       <c r="CD11" s="1">
         <v>18.704245</v>
       </c>
       <c r="CE11" s="1">
-        <v>2189.020000</v>
+        <v>2189.02</v>
       </c>
       <c r="CF11" s="1">
-        <v>-1745.540000</v>
+        <v>-1745.54</v>
       </c>
       <c r="CG11" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
     </row>
-    <row r="12">
+    <row r="12" spans="1:85">
       <c r="A12" s="1">
-        <v>67161.539612</v>
+        <v>67161.539611999993</v>
       </c>
       <c r="B12" s="1">
-        <v>18.655983</v>
+        <v>18.655982999999999</v>
       </c>
       <c r="C12" s="1">
-        <v>1147.610000</v>
+        <v>1147.6099999999999</v>
       </c>
       <c r="D12" s="1">
-        <v>-243.535000</v>
+        <v>-243.535</v>
       </c>
       <c r="E12" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="F12" s="1">
-        <v>67171.952621</v>
+        <v>67171.952621000004</v>
       </c>
       <c r="G12" s="1">
-        <v>18.658876</v>
+        <v>18.658875999999999</v>
       </c>
       <c r="H12" s="1">
-        <v>1167.260000</v>
+        <v>1167.26</v>
       </c>
       <c r="I12" s="1">
-        <v>-205.136000</v>
+        <v>-205.136</v>
       </c>
       <c r="J12" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="K12" s="1">
-        <v>67182.346815</v>
+        <v>67182.346814999997</v>
       </c>
       <c r="L12" s="1">
-        <v>18.661763</v>
+        <v>18.661763000000001</v>
       </c>
       <c r="M12" s="1">
-        <v>1193.730000</v>
+        <v>1193.73</v>
       </c>
       <c r="N12" s="1">
-        <v>-145.462000</v>
+        <v>-145.46199999999999</v>
       </c>
       <c r="O12" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="P12" s="1">
-        <v>67192.871427</v>
+        <v>67192.871427000005</v>
       </c>
       <c r="Q12" s="1">
-        <v>18.664687</v>
+        <v>18.664687000000001</v>
       </c>
       <c r="R12" s="1">
-        <v>1201.690000</v>
+        <v>1201.69</v>
       </c>
       <c r="S12" s="1">
-        <v>-125.351000</v>
+        <v>-125.351</v>
       </c>
       <c r="T12" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="U12" s="1">
-        <v>67203.411379</v>
+        <v>67203.411378999997</v>
       </c>
       <c r="V12" s="1">
         <v>18.667614</v>
       </c>
       <c r="W12" s="1">
-        <v>1209.720000</v>
+        <v>1209.72</v>
       </c>
       <c r="X12" s="1">
-        <v>-106.063000</v>
+        <v>-106.063</v>
       </c>
       <c r="Y12" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="Z12" s="1">
-        <v>67213.915158</v>
+        <v>67213.915158000003</v>
       </c>
       <c r="AA12" s="1">
-        <v>18.670532</v>
+        <v>18.670532000000001</v>
       </c>
       <c r="AB12" s="1">
-        <v>1218.040000</v>
+        <v>1218.04</v>
       </c>
       <c r="AC12" s="1">
-        <v>-90.312700</v>
+        <v>-90.312700000000007</v>
       </c>
       <c r="AD12" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AE12" s="1">
-        <v>67224.395624</v>
+        <v>67224.395623999997</v>
       </c>
       <c r="AF12" s="1">
-        <v>18.673443</v>
+        <v>18.673442999999999</v>
       </c>
       <c r="AG12" s="1">
-        <v>1223.240000</v>
+        <v>1223.24</v>
       </c>
       <c r="AH12" s="1">
-        <v>-86.292900</v>
+        <v>-86.292900000000003</v>
       </c>
       <c r="AI12" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AJ12" s="1">
-        <v>67235.240192</v>
+        <v>67235.240191999997</v>
       </c>
       <c r="AK12" s="1">
-        <v>18.676456</v>
+        <v>18.676456000000002</v>
       </c>
       <c r="AL12" s="1">
-        <v>1230.830000</v>
+        <v>1230.83</v>
       </c>
       <c r="AM12" s="1">
-        <v>-89.874700</v>
+        <v>-89.874700000000004</v>
       </c>
       <c r="AN12" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AO12" s="1">
-        <v>67245.959692</v>
+        <v>67245.959692000004</v>
       </c>
       <c r="AP12" s="1">
         <v>18.679433</v>
       </c>
       <c r="AQ12" s="1">
-        <v>1239.100000</v>
+        <v>1239.0999999999999</v>
       </c>
       <c r="AR12" s="1">
-        <v>-101.871000</v>
+        <v>-101.871</v>
       </c>
       <c r="AS12" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AT12" s="1">
-        <v>67256.992205</v>
+        <v>67256.992205000002</v>
       </c>
       <c r="AU12" s="1">
-        <v>18.682498</v>
+        <v>18.682497999999999</v>
       </c>
       <c r="AV12" s="1">
-        <v>1249.240000</v>
+        <v>1249.24</v>
       </c>
       <c r="AW12" s="1">
-        <v>-121.272000</v>
+        <v>-121.27200000000001</v>
       </c>
       <c r="AX12" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AY12" s="1">
-        <v>67268.118464</v>
+        <v>67268.118463999999</v>
       </c>
       <c r="AZ12" s="1">
-        <v>18.685588</v>
+        <v>18.685587999999999</v>
       </c>
       <c r="BA12" s="1">
-        <v>1257.810000</v>
+        <v>1257.81</v>
       </c>
       <c r="BB12" s="1">
-        <v>-138.794000</v>
+        <v>-138.79400000000001</v>
       </c>
       <c r="BC12" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BD12" s="1">
-        <v>67279.097936</v>
+        <v>67279.097936000006</v>
       </c>
       <c r="BE12" s="1">
-        <v>18.688638</v>
+        <v>18.688638000000001</v>
       </c>
       <c r="BF12" s="1">
-        <v>1298.370000</v>
+        <v>1298.3699999999999</v>
       </c>
       <c r="BG12" s="1">
-        <v>-220.827000</v>
+        <v>-220.827</v>
       </c>
       <c r="BH12" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BI12" s="1">
-        <v>67290.257393</v>
+        <v>67290.257393000007</v>
       </c>
       <c r="BJ12" s="1">
-        <v>18.691738</v>
+        <v>18.691738000000001</v>
       </c>
       <c r="BK12" s="1">
-        <v>1368.810000</v>
+        <v>1368.81</v>
       </c>
       <c r="BL12" s="1">
-        <v>-357.094000</v>
+        <v>-357.09399999999999</v>
       </c>
       <c r="BM12" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BN12" s="1">
-        <v>67301.388115</v>
+        <v>67301.388114999994</v>
       </c>
       <c r="BO12" s="1">
-        <v>18.694830</v>
+        <v>18.69483</v>
       </c>
       <c r="BP12" s="1">
-        <v>1484.630000</v>
+        <v>1484.63</v>
       </c>
       <c r="BQ12" s="1">
-        <v>-578.092000</v>
+        <v>-578.09199999999998</v>
       </c>
       <c r="BR12" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BS12" s="1">
-        <v>67312.677557</v>
+        <v>67312.677557000003</v>
       </c>
       <c r="BT12" s="1">
-        <v>18.697966</v>
+        <v>18.697966000000001</v>
       </c>
       <c r="BU12" s="1">
-        <v>1618.020000</v>
+        <v>1618.02</v>
       </c>
       <c r="BV12" s="1">
-        <v>-825.938000</v>
+        <v>-825.93799999999999</v>
       </c>
       <c r="BW12" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BX12" s="1">
-        <v>67323.990310</v>
+        <v>67323.990309999994</v>
       </c>
       <c r="BY12" s="1">
-        <v>18.701108</v>
+        <v>18.701108000000001</v>
       </c>
       <c r="BZ12" s="1">
-        <v>1771.420000</v>
+        <v>1771.42</v>
       </c>
       <c r="CA12" s="1">
-        <v>-1095.430000</v>
+        <v>-1095.43</v>
       </c>
       <c r="CB12" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="CC12" s="1">
-        <v>67335.830837</v>
+        <v>67335.830837000001</v>
       </c>
       <c r="CD12" s="1">
         <v>18.704397</v>
       </c>
       <c r="CE12" s="1">
-        <v>2188.110000</v>
+        <v>2188.11</v>
       </c>
       <c r="CF12" s="1">
-        <v>-1743.970000</v>
+        <v>-1743.97</v>
       </c>
       <c r="CG12" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
     </row>
-    <row r="13">
+    <row r="13" spans="1:85">
       <c r="A13" s="1">
-        <v>67161.810428</v>
+        <v>67161.810427999997</v>
       </c>
       <c r="B13" s="1">
-        <v>18.656058</v>
+        <v>18.656058000000002</v>
       </c>
       <c r="C13" s="1">
-        <v>1147.380000</v>
+        <v>1147.3800000000001</v>
       </c>
       <c r="D13" s="1">
-        <v>-243.555000</v>
+        <v>-243.55500000000001</v>
       </c>
       <c r="E13" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="F13" s="1">
-        <v>67172.233356</v>
+        <v>67172.233355999997</v>
       </c>
       <c r="G13" s="1">
-        <v>18.658954</v>
+        <v>18.658954000000001</v>
       </c>
       <c r="H13" s="1">
-        <v>1167.160000</v>
+        <v>1167.1600000000001</v>
       </c>
       <c r="I13" s="1">
-        <v>-206.284000</v>
+        <v>-206.28399999999999</v>
       </c>
       <c r="J13" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="K13" s="1">
-        <v>67182.692030</v>
+        <v>67182.692030000006</v>
       </c>
       <c r="L13" s="1">
         <v>18.661859</v>
       </c>
       <c r="M13" s="1">
-        <v>1193.790000</v>
+        <v>1193.79</v>
       </c>
       <c r="N13" s="1">
-        <v>-145.738000</v>
+        <v>-145.738</v>
       </c>
       <c r="O13" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="P13" s="1">
-        <v>67193.212146</v>
+        <v>67193.212146000005</v>
       </c>
       <c r="Q13" s="1">
-        <v>18.664781</v>
+        <v>18.664781000000001</v>
       </c>
       <c r="R13" s="1">
-        <v>1201.710000</v>
+        <v>1201.71</v>
       </c>
       <c r="S13" s="1">
-        <v>-125.322000</v>
+        <v>-125.322</v>
       </c>
       <c r="T13" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="U13" s="1">
-        <v>67203.753125</v>
+        <v>67203.753125000003</v>
       </c>
       <c r="V13" s="1">
-        <v>18.667709</v>
+        <v>18.667708999999999</v>
       </c>
       <c r="W13" s="1">
-        <v>1209.830000</v>
+        <v>1209.83</v>
       </c>
       <c r="X13" s="1">
-        <v>-106.034000</v>
+        <v>-106.03400000000001</v>
       </c>
       <c r="Y13" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="Z13" s="1">
-        <v>67214.613030</v>
+        <v>67214.613029999993</v>
       </c>
       <c r="AA13" s="1">
-        <v>18.670726</v>
+        <v>18.670725999999998</v>
       </c>
       <c r="AB13" s="1">
-        <v>1218.050000</v>
+        <v>1218.05</v>
       </c>
       <c r="AC13" s="1">
-        <v>-90.262300</v>
+        <v>-90.262299999999996</v>
       </c>
       <c r="AD13" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AE13" s="1">
-        <v>67225.080601</v>
+        <v>67225.080600999994</v>
       </c>
       <c r="AF13" s="1">
         <v>18.673634</v>
       </c>
       <c r="AG13" s="1">
-        <v>1223.250000</v>
+        <v>1223.25</v>
       </c>
       <c r="AH13" s="1">
-        <v>-86.263000</v>
+        <v>-86.263000000000005</v>
       </c>
       <c r="AI13" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AJ13" s="1">
-        <v>67235.589835</v>
+        <v>67235.589835000006</v>
       </c>
       <c r="AK13" s="1">
-        <v>18.676553</v>
+        <v>18.676552999999998</v>
       </c>
       <c r="AL13" s="1">
-        <v>1230.820000</v>
+        <v>1230.82</v>
       </c>
       <c r="AM13" s="1">
-        <v>-89.849700</v>
+        <v>-89.849699999999999</v>
       </c>
       <c r="AN13" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AO13" s="1">
-        <v>67246.318337</v>
+        <v>67246.318337000004</v>
       </c>
       <c r="AP13" s="1">
-        <v>18.679533</v>
+        <v>18.679532999999999</v>
       </c>
       <c r="AQ13" s="1">
-        <v>1239.090000</v>
+        <v>1239.0899999999999</v>
       </c>
       <c r="AR13" s="1">
-        <v>-101.873000</v>
+        <v>-101.873</v>
       </c>
       <c r="AS13" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AT13" s="1">
-        <v>67257.351308</v>
+        <v>67257.351307999998</v>
       </c>
       <c r="AU13" s="1">
-        <v>18.682598</v>
+        <v>18.682597999999999</v>
       </c>
       <c r="AV13" s="1">
-        <v>1249.220000</v>
+        <v>1249.22</v>
       </c>
       <c r="AW13" s="1">
-        <v>-121.279000</v>
+        <v>-121.279</v>
       </c>
       <c r="AX13" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AY13" s="1">
-        <v>67268.784093</v>
+        <v>67268.784092999995</v>
       </c>
       <c r="AZ13" s="1">
-        <v>18.685773</v>
+        <v>18.685773000000001</v>
       </c>
       <c r="BA13" s="1">
-        <v>1257.800000</v>
+        <v>1257.8</v>
       </c>
       <c r="BB13" s="1">
-        <v>-138.799000</v>
+        <v>-138.79900000000001</v>
       </c>
       <c r="BC13" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BD13" s="1">
-        <v>67279.781426</v>
+        <v>67279.781426000001</v>
       </c>
       <c r="BE13" s="1">
-        <v>18.688828</v>
+        <v>18.688828000000001</v>
       </c>
       <c r="BF13" s="1">
-        <v>1298.360000</v>
+        <v>1298.3599999999999</v>
       </c>
       <c r="BG13" s="1">
-        <v>-220.861000</v>
+        <v>-220.86099999999999</v>
       </c>
       <c r="BH13" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BI13" s="1">
-        <v>67290.689936</v>
+        <v>67290.689935999995</v>
       </c>
       <c r="BJ13" s="1">
         <v>18.691858</v>
       </c>
       <c r="BK13" s="1">
-        <v>1368.820000</v>
+        <v>1368.82</v>
       </c>
       <c r="BL13" s="1">
-        <v>-357.108000</v>
+        <v>-357.108</v>
       </c>
       <c r="BM13" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BN13" s="1">
-        <v>67301.783175</v>
+        <v>67301.783175000004</v>
       </c>
       <c r="BO13" s="1">
-        <v>18.694940</v>
+        <v>18.694939999999999</v>
       </c>
       <c r="BP13" s="1">
-        <v>1484.590000</v>
+        <v>1484.59</v>
       </c>
       <c r="BQ13" s="1">
-        <v>-578.067000</v>
+        <v>-578.06700000000001</v>
       </c>
       <c r="BR13" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BS13" s="1">
         <v>67313.086291</v>
       </c>
       <c r="BT13" s="1">
-        <v>18.698080</v>
+        <v>18.698080000000001</v>
       </c>
       <c r="BU13" s="1">
-        <v>1618.030000</v>
+        <v>1618.03</v>
       </c>
       <c r="BV13" s="1">
-        <v>-825.923000</v>
+        <v>-825.923</v>
       </c>
       <c r="BW13" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BX13" s="1">
-        <v>67324.414561</v>
+        <v>67324.414560999998</v>
       </c>
       <c r="BY13" s="1">
-        <v>18.701226</v>
+        <v>18.701225999999998</v>
       </c>
       <c r="BZ13" s="1">
-        <v>1771.470000</v>
+        <v>1771.47</v>
       </c>
       <c r="CA13" s="1">
-        <v>-1095.160000</v>
+        <v>-1095.1600000000001</v>
       </c>
       <c r="CB13" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="CC13" s="1">
-        <v>67336.362517</v>
+        <v>67336.362517000001</v>
       </c>
       <c r="CD13" s="1">
         <v>18.704545</v>
       </c>
       <c r="CE13" s="1">
-        <v>2189.490000</v>
+        <v>2189.4899999999998</v>
       </c>
       <c r="CF13" s="1">
-        <v>-1745.750000</v>
+        <v>-1745.75</v>
       </c>
       <c r="CG13" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
     </row>
-    <row r="14">
+    <row r="14" spans="1:85">
       <c r="A14" s="1">
-        <v>67162.149705</v>
+        <v>67162.149705000003</v>
       </c>
       <c r="B14" s="1">
         <v>18.656153</v>
       </c>
       <c r="C14" s="1">
-        <v>1147.770000</v>
+        <v>1147.77</v>
       </c>
       <c r="D14" s="1">
-        <v>-243.741000</v>
+        <v>-243.74100000000001</v>
       </c>
       <c r="E14" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="F14" s="1">
-        <v>67172.573645</v>
+        <v>67172.573644999997</v>
       </c>
       <c r="G14" s="1">
-        <v>18.659048</v>
+        <v>18.659047999999999</v>
       </c>
       <c r="H14" s="1">
-        <v>1167.080000</v>
+        <v>1167.08</v>
       </c>
       <c r="I14" s="1">
-        <v>-205.952000</v>
+        <v>-205.952</v>
       </c>
       <c r="J14" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="K14" s="1">
-        <v>67183.036224</v>
+        <v>67183.036223999996</v>
       </c>
       <c r="L14" s="1">
-        <v>18.661955</v>
+        <v>18.661954999999999</v>
       </c>
       <c r="M14" s="1">
-        <v>1193.910000</v>
+        <v>1193.9100000000001</v>
       </c>
       <c r="N14" s="1">
-        <v>-145.668000</v>
+        <v>-145.66800000000001</v>
       </c>
       <c r="O14" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="P14" s="1">
-        <v>67193.571250</v>
+        <v>67193.571249999994</v>
       </c>
       <c r="Q14" s="1">
-        <v>18.664881</v>
+        <v>18.664881000000001</v>
       </c>
       <c r="R14" s="1">
-        <v>1201.710000</v>
+        <v>1201.71</v>
       </c>
       <c r="S14" s="1">
-        <v>-125.343000</v>
+        <v>-125.343</v>
       </c>
       <c r="T14" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="U14" s="1">
-        <v>67204.441762</v>
+        <v>67204.441762000002</v>
       </c>
       <c r="V14" s="1">
-        <v>18.667900</v>
+        <v>18.667899999999999</v>
       </c>
       <c r="W14" s="1">
-        <v>1209.650000</v>
+        <v>1209.6500000000001</v>
       </c>
       <c r="X14" s="1">
-        <v>-106.129000</v>
+        <v>-106.129</v>
       </c>
       <c r="Y14" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="Z14" s="1">
-        <v>67214.961253</v>
+        <v>67214.961253000001</v>
       </c>
       <c r="AA14" s="1">
-        <v>18.670823</v>
+        <v>18.670822999999999</v>
       </c>
       <c r="AB14" s="1">
-        <v>1218.040000</v>
+        <v>1218.04</v>
       </c>
       <c r="AC14" s="1">
-        <v>-90.304900</v>
+        <v>-90.304900000000004</v>
       </c>
       <c r="AD14" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AE14" s="1">
-        <v>67225.426311</v>
+        <v>67225.426311000003</v>
       </c>
       <c r="AF14" s="1">
-        <v>18.673730</v>
+        <v>18.673729999999999</v>
       </c>
       <c r="AG14" s="1">
-        <v>1223.180000</v>
+        <v>1223.18</v>
       </c>
       <c r="AH14" s="1">
-        <v>-86.255400</v>
+        <v>-86.255399999999995</v>
       </c>
       <c r="AI14" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AJ14" s="1">
-        <v>67235.940011</v>
+        <v>67235.940010999999</v>
       </c>
       <c r="AK14" s="1">
-        <v>18.676650</v>
+        <v>18.676649999999999</v>
       </c>
       <c r="AL14" s="1">
-        <v>1230.820000</v>
+        <v>1230.82</v>
       </c>
       <c r="AM14" s="1">
-        <v>-89.848100</v>
+        <v>-89.848100000000002</v>
       </c>
       <c r="AN14" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AO14" s="1">
-        <v>67246.989916</v>
+        <v>67246.989916000006</v>
       </c>
       <c r="AP14" s="1">
-        <v>18.679719</v>
+        <v>18.679718999999999</v>
       </c>
       <c r="AQ14" s="1">
-        <v>1239.080000</v>
+        <v>1239.08</v>
       </c>
       <c r="AR14" s="1">
-        <v>-101.896000</v>
+        <v>-101.896</v>
       </c>
       <c r="AS14" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AT14" s="1">
-        <v>67258.036779</v>
+        <v>67258.036779000002</v>
       </c>
       <c r="AU14" s="1">
-        <v>18.682788</v>
+        <v>18.682787999999999</v>
       </c>
       <c r="AV14" s="1">
-        <v>1249.250000</v>
+        <v>1249.25</v>
       </c>
       <c r="AW14" s="1">
-        <v>-121.270000</v>
+        <v>-121.27</v>
       </c>
       <c r="AX14" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AY14" s="1">
-        <v>67269.226028</v>
+        <v>67269.226028000005</v>
       </c>
       <c r="AZ14" s="1">
         <v>18.685896</v>
       </c>
       <c r="BA14" s="1">
-        <v>1257.830000</v>
+        <v>1257.83</v>
       </c>
       <c r="BB14" s="1">
-        <v>-138.808000</v>
+        <v>-138.80799999999999</v>
       </c>
       <c r="BC14" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BD14" s="1">
-        <v>67280.209936</v>
+        <v>67280.209935999999</v>
       </c>
       <c r="BE14" s="1">
-        <v>18.688947</v>
+        <v>18.688946999999999</v>
       </c>
       <c r="BF14" s="1">
-        <v>1298.350000</v>
+        <v>1298.3499999999999</v>
       </c>
       <c r="BG14" s="1">
-        <v>-220.865000</v>
+        <v>-220.86500000000001</v>
       </c>
       <c r="BH14" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BI14" s="1">
-        <v>67291.064912</v>
+        <v>67291.064912000002</v>
       </c>
       <c r="BJ14" s="1">
         <v>18.691962</v>
       </c>
       <c r="BK14" s="1">
-        <v>1368.890000</v>
+        <v>1368.89</v>
       </c>
       <c r="BL14" s="1">
-        <v>-357.132000</v>
+        <v>-357.13200000000001</v>
       </c>
       <c r="BM14" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BN14" s="1">
-        <v>67302.205025</v>
+        <v>67302.205025000003</v>
       </c>
       <c r="BO14" s="1">
-        <v>18.695057</v>
+        <v>18.695056999999998</v>
       </c>
       <c r="BP14" s="1">
-        <v>1484.640000</v>
+        <v>1484.64</v>
       </c>
       <c r="BQ14" s="1">
-        <v>-578.000000</v>
+        <v>-578</v>
       </c>
       <c r="BR14" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BS14" s="1">
-        <v>67313.520258</v>
+        <v>67313.520258000004</v>
       </c>
       <c r="BT14" s="1">
-        <v>18.698200</v>
+        <v>18.6982</v>
       </c>
       <c r="BU14" s="1">
-        <v>1618.030000</v>
+        <v>1618.03</v>
       </c>
       <c r="BV14" s="1">
-        <v>-825.882000</v>
+        <v>-825.88199999999995</v>
       </c>
       <c r="BW14" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BX14" s="1">
-        <v>67324.841475</v>
+        <v>67324.841474999994</v>
       </c>
       <c r="BY14" s="1">
         <v>18.701345</v>
       </c>
       <c r="BZ14" s="1">
-        <v>1771.360000</v>
+        <v>1771.36</v>
       </c>
       <c r="CA14" s="1">
-        <v>-1095.390000</v>
+        <v>-1095.3900000000001</v>
       </c>
       <c r="CB14" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="CC14" s="1">
-        <v>67336.877860</v>
+        <v>67336.877859999993</v>
       </c>
       <c r="CD14" s="1">
-        <v>18.704688</v>
+        <v>18.704688000000001</v>
       </c>
       <c r="CE14" s="1">
-        <v>2190.900000</v>
+        <v>2190.9</v>
       </c>
       <c r="CF14" s="1">
-        <v>-1744.670000</v>
+        <v>-1744.67</v>
       </c>
       <c r="CG14" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
     </row>
-    <row r="15">
+    <row r="15" spans="1:85">
       <c r="A15" s="1">
-        <v>67162.496426</v>
+        <v>67162.496425999998</v>
       </c>
       <c r="B15" s="1">
-        <v>18.656249</v>
+        <v>18.656248999999999</v>
       </c>
       <c r="C15" s="1">
-        <v>1147.570000</v>
+        <v>1147.57</v>
       </c>
       <c r="D15" s="1">
-        <v>-243.806000</v>
+        <v>-243.80600000000001</v>
       </c>
       <c r="E15" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="F15" s="1">
         <v>67172.920348</v>
       </c>
       <c r="G15" s="1">
-        <v>18.659145</v>
+        <v>18.659144999999999</v>
       </c>
       <c r="H15" s="1">
-        <v>1167.100000</v>
+        <v>1167.0999999999999</v>
       </c>
       <c r="I15" s="1">
-        <v>-205.800000</v>
+        <v>-205.8</v>
       </c>
       <c r="J15" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="K15" s="1">
-        <v>67183.726171</v>
+        <v>67183.726171000002</v>
       </c>
       <c r="L15" s="1">
         <v>18.662146</v>
       </c>
       <c r="M15" s="1">
-        <v>1193.780000</v>
+        <v>1193.78</v>
       </c>
       <c r="N15" s="1">
-        <v>-145.510000</v>
+        <v>-145.51</v>
       </c>
       <c r="O15" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="P15" s="1">
-        <v>67194.268160</v>
+        <v>67194.268160000007</v>
       </c>
       <c r="Q15" s="1">
-        <v>18.665074</v>
+        <v>18.665074000000001</v>
       </c>
       <c r="R15" s="1">
-        <v>1201.740000</v>
+        <v>1201.74</v>
       </c>
       <c r="S15" s="1">
-        <v>-125.417000</v>
+        <v>-125.417</v>
       </c>
       <c r="T15" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="U15" s="1">
         <v>67204.784344</v>
       </c>
       <c r="V15" s="1">
-        <v>18.667996</v>
+        <v>18.667995999999999</v>
       </c>
       <c r="W15" s="1">
-        <v>1209.580000</v>
+        <v>1209.58</v>
       </c>
       <c r="X15" s="1">
-        <v>-106.091000</v>
+        <v>-106.09099999999999</v>
       </c>
       <c r="Y15" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="Z15" s="1">
-        <v>67215.311928</v>
+        <v>67215.311927999996</v>
       </c>
       <c r="AA15" s="1">
-        <v>18.670920</v>
+        <v>18.670919999999999</v>
       </c>
       <c r="AB15" s="1">
-        <v>1217.990000</v>
+        <v>1217.99</v>
       </c>
       <c r="AC15" s="1">
-        <v>-90.449600</v>
+        <v>-90.449600000000004</v>
       </c>
       <c r="AD15" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AE15" s="1">
         <v>67225.768054</v>
@@ -3912,195 +4328,195 @@
         <v>18.673824</v>
       </c>
       <c r="AG15" s="1">
-        <v>1223.250000</v>
+        <v>1223.25</v>
       </c>
       <c r="AH15" s="1">
-        <v>-86.292500</v>
+        <v>-86.292500000000004</v>
       </c>
       <c r="AI15" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AJ15" s="1">
-        <v>67236.608616</v>
+        <v>67236.608615999998</v>
       </c>
       <c r="AK15" s="1">
-        <v>18.676836</v>
+        <v>18.676836000000002</v>
       </c>
       <c r="AL15" s="1">
-        <v>1230.830000</v>
+        <v>1230.83</v>
       </c>
       <c r="AM15" s="1">
-        <v>-89.891300</v>
+        <v>-89.891300000000001</v>
       </c>
       <c r="AN15" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AO15" s="1">
-        <v>67247.425903</v>
+        <v>67247.425902999996</v>
       </c>
       <c r="AP15" s="1">
         <v>18.679841</v>
       </c>
       <c r="AQ15" s="1">
-        <v>1239.090000</v>
+        <v>1239.0899999999999</v>
       </c>
       <c r="AR15" s="1">
-        <v>-101.879000</v>
+        <v>-101.879</v>
       </c>
       <c r="AS15" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AT15" s="1">
-        <v>67258.482188</v>
+        <v>67258.482187999994</v>
       </c>
       <c r="AU15" s="1">
-        <v>18.682912</v>
+        <v>18.682912000000002</v>
       </c>
       <c r="AV15" s="1">
-        <v>1249.220000</v>
+        <v>1249.22</v>
       </c>
       <c r="AW15" s="1">
-        <v>-121.280000</v>
+        <v>-121.28</v>
       </c>
       <c r="AX15" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AY15" s="1">
-        <v>67269.588605</v>
+        <v>67269.588604999997</v>
       </c>
       <c r="AZ15" s="1">
         <v>18.685997</v>
       </c>
       <c r="BA15" s="1">
-        <v>1257.810000</v>
+        <v>1257.81</v>
       </c>
       <c r="BB15" s="1">
-        <v>-138.790000</v>
+        <v>-138.79</v>
       </c>
       <c r="BC15" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BD15" s="1">
-        <v>67280.569044</v>
+        <v>67280.569044000003</v>
       </c>
       <c r="BE15" s="1">
-        <v>18.689047</v>
+        <v>18.689046999999999</v>
       </c>
       <c r="BF15" s="1">
-        <v>1298.370000</v>
+        <v>1298.3699999999999</v>
       </c>
       <c r="BG15" s="1">
-        <v>-220.853000</v>
+        <v>-220.85300000000001</v>
       </c>
       <c r="BH15" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BI15" s="1">
-        <v>67291.439394</v>
+        <v>67291.439394000001</v>
       </c>
       <c r="BJ15" s="1">
-        <v>18.692066</v>
+        <v>18.692066000000001</v>
       </c>
       <c r="BK15" s="1">
-        <v>1368.830000</v>
+        <v>1368.83</v>
       </c>
       <c r="BL15" s="1">
-        <v>-357.214000</v>
+        <v>-357.214</v>
       </c>
       <c r="BM15" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BN15" s="1">
-        <v>67302.627121</v>
+        <v>67302.627120999998</v>
       </c>
       <c r="BO15" s="1">
-        <v>18.695174</v>
+        <v>18.695174000000002</v>
       </c>
       <c r="BP15" s="1">
-        <v>1484.640000</v>
+        <v>1484.64</v>
       </c>
       <c r="BQ15" s="1">
-        <v>-578.071000</v>
+        <v>-578.07100000000003</v>
       </c>
       <c r="BR15" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BS15" s="1">
-        <v>67313.951779</v>
+        <v>67313.951778999995</v>
       </c>
       <c r="BT15" s="1">
-        <v>18.698320</v>
+        <v>18.698319999999999</v>
       </c>
       <c r="BU15" s="1">
-        <v>1618.090000</v>
+        <v>1618.09</v>
       </c>
       <c r="BV15" s="1">
-        <v>-826.013000</v>
+        <v>-826.01300000000003</v>
       </c>
       <c r="BW15" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BX15" s="1">
-        <v>67325.280403</v>
+        <v>67325.280402999997</v>
       </c>
       <c r="BY15" s="1">
-        <v>18.701467</v>
+        <v>18.701467000000001</v>
       </c>
       <c r="BZ15" s="1">
-        <v>1771.360000</v>
+        <v>1771.36</v>
       </c>
       <c r="CA15" s="1">
-        <v>-1095.320000</v>
+        <v>-1095.32</v>
       </c>
       <c r="CB15" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="CC15" s="1">
-        <v>67337.396675</v>
+        <v>67337.396674999996</v>
       </c>
       <c r="CD15" s="1">
         <v>18.704832</v>
       </c>
       <c r="CE15" s="1">
-        <v>2189.300000</v>
+        <v>2189.3000000000002</v>
       </c>
       <c r="CF15" s="1">
-        <v>-1743.060000</v>
+        <v>-1743.06</v>
       </c>
       <c r="CG15" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
     </row>
-    <row r="16">
+    <row r="16" spans="1:85">
       <c r="A16" s="1">
-        <v>67163.174958</v>
+        <v>67163.174958000003</v>
       </c>
       <c r="B16" s="1">
         <v>18.656437</v>
       </c>
       <c r="C16" s="1">
-        <v>1147.710000</v>
+        <v>1147.71</v>
       </c>
       <c r="D16" s="1">
-        <v>-243.701000</v>
+        <v>-243.70099999999999</v>
       </c>
       <c r="E16" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="F16" s="1">
         <v>67173.611739</v>
       </c>
       <c r="G16" s="1">
-        <v>18.659337</v>
+        <v>18.659337000000001</v>
       </c>
       <c r="H16" s="1">
-        <v>1167.310000</v>
+        <v>1167.31</v>
       </c>
       <c r="I16" s="1">
-        <v>-206.109000</v>
+        <v>-206.10900000000001</v>
       </c>
       <c r="J16" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="K16" s="1">
         <v>67184.075375</v>
@@ -4109,1705 +4525,1705 @@
         <v>18.662243</v>
       </c>
       <c r="M16" s="1">
-        <v>1193.440000</v>
+        <v>1193.44</v>
       </c>
       <c r="N16" s="1">
-        <v>-145.469000</v>
+        <v>-145.46899999999999</v>
       </c>
       <c r="O16" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="P16" s="1">
-        <v>67194.614831</v>
+        <v>67194.614830999999</v>
       </c>
       <c r="Q16" s="1">
-        <v>18.665171</v>
+        <v>18.665171000000001</v>
       </c>
       <c r="R16" s="1">
-        <v>1201.700000</v>
+        <v>1201.7</v>
       </c>
       <c r="S16" s="1">
-        <v>-125.420000</v>
+        <v>-125.42</v>
       </c>
       <c r="T16" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="U16" s="1">
-        <v>67205.128065</v>
+        <v>67205.128064999997</v>
       </c>
       <c r="V16" s="1">
         <v>18.668091</v>
       </c>
       <c r="W16" s="1">
-        <v>1209.750000</v>
+        <v>1209.75</v>
       </c>
       <c r="X16" s="1">
-        <v>-105.966000</v>
+        <v>-105.96599999999999</v>
       </c>
       <c r="Y16" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="Z16" s="1">
-        <v>67215.975540</v>
+        <v>67215.975539999999</v>
       </c>
       <c r="AA16" s="1">
         <v>18.671104</v>
       </c>
       <c r="AB16" s="1">
-        <v>1218.070000</v>
+        <v>1218.07</v>
       </c>
       <c r="AC16" s="1">
-        <v>-90.378800</v>
+        <v>-90.378799999999998</v>
       </c>
       <c r="AD16" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AE16" s="1">
-        <v>67226.435670</v>
+        <v>67226.435670000006</v>
       </c>
       <c r="AF16" s="1">
-        <v>18.674010</v>
+        <v>18.674009999999999</v>
       </c>
       <c r="AG16" s="1">
-        <v>1223.220000</v>
+        <v>1223.22</v>
       </c>
       <c r="AH16" s="1">
-        <v>-86.324900</v>
+        <v>-86.3249</v>
       </c>
       <c r="AI16" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AJ16" s="1">
         <v>67236.986072</v>
       </c>
       <c r="AK16" s="1">
-        <v>18.676941</v>
+        <v>18.676940999999999</v>
       </c>
       <c r="AL16" s="1">
-        <v>1230.830000</v>
+        <v>1230.83</v>
       </c>
       <c r="AM16" s="1">
-        <v>-89.859400</v>
+        <v>-89.859399999999994</v>
       </c>
       <c r="AN16" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AO16" s="1">
-        <v>67247.785963</v>
+        <v>67247.785963000002</v>
       </c>
       <c r="AP16" s="1">
-        <v>18.679941</v>
+        <v>18.679940999999999</v>
       </c>
       <c r="AQ16" s="1">
-        <v>1239.080000</v>
+        <v>1239.08</v>
       </c>
       <c r="AR16" s="1">
-        <v>-101.871000</v>
+        <v>-101.871</v>
       </c>
       <c r="AS16" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AT16" s="1">
-        <v>67258.844763</v>
+        <v>67258.844763000001</v>
       </c>
       <c r="AU16" s="1">
-        <v>18.683012</v>
+        <v>18.683012000000002</v>
       </c>
       <c r="AV16" s="1">
-        <v>1249.230000</v>
+        <v>1249.23</v>
       </c>
       <c r="AW16" s="1">
-        <v>-121.244000</v>
+        <v>-121.244</v>
       </c>
       <c r="AX16" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AY16" s="1">
-        <v>67269.943772</v>
+        <v>67269.943771999999</v>
       </c>
       <c r="AZ16" s="1">
-        <v>18.686095</v>
+        <v>18.686095000000002</v>
       </c>
       <c r="BA16" s="1">
-        <v>1257.810000</v>
+        <v>1257.81</v>
       </c>
       <c r="BB16" s="1">
-        <v>-138.783000</v>
+        <v>-138.78299999999999</v>
       </c>
       <c r="BC16" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BD16" s="1">
-        <v>67280.958931</v>
+        <v>67280.958931000001</v>
       </c>
       <c r="BE16" s="1">
         <v>18.689155</v>
       </c>
       <c r="BF16" s="1">
-        <v>1298.380000</v>
+        <v>1298.3800000000001</v>
       </c>
       <c r="BG16" s="1">
-        <v>-220.826000</v>
+        <v>-220.82599999999999</v>
       </c>
       <c r="BH16" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BI16" s="1">
-        <v>67291.860959</v>
+        <v>67291.860958999998</v>
       </c>
       <c r="BJ16" s="1">
-        <v>18.692184</v>
+        <v>18.692184000000001</v>
       </c>
       <c r="BK16" s="1">
-        <v>1368.820000</v>
+        <v>1368.82</v>
       </c>
       <c r="BL16" s="1">
-        <v>-357.195000</v>
+        <v>-357.19499999999999</v>
       </c>
       <c r="BM16" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BN16" s="1">
-        <v>67303.024949</v>
+        <v>67303.024948999999</v>
       </c>
       <c r="BO16" s="1">
-        <v>18.695285</v>
+        <v>18.695284999999998</v>
       </c>
       <c r="BP16" s="1">
-        <v>1484.680000</v>
+        <v>1484.68</v>
       </c>
       <c r="BQ16" s="1">
-        <v>-578.096000</v>
+        <v>-578.096</v>
       </c>
       <c r="BR16" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BS16" s="1">
-        <v>67314.346593</v>
+        <v>67314.346592999995</v>
       </c>
       <c r="BT16" s="1">
-        <v>18.698430</v>
+        <v>18.698429999999998</v>
       </c>
       <c r="BU16" s="1">
-        <v>1618.160000</v>
+        <v>1618.16</v>
       </c>
       <c r="BV16" s="1">
-        <v>-825.876000</v>
+        <v>-825.87599999999998</v>
       </c>
       <c r="BW16" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BX16" s="1">
-        <v>67325.704517</v>
+        <v>67325.704517000006</v>
       </c>
       <c r="BY16" s="1">
-        <v>18.701585</v>
+        <v>18.701585000000001</v>
       </c>
       <c r="BZ16" s="1">
-        <v>1771.280000</v>
+        <v>1771.28</v>
       </c>
       <c r="CA16" s="1">
-        <v>-1095.380000</v>
+        <v>-1095.3800000000001</v>
       </c>
       <c r="CB16" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="CC16" s="1">
-        <v>67337.914004</v>
+        <v>67337.914004000006</v>
       </c>
       <c r="CD16" s="1">
-        <v>18.704976</v>
+        <v>18.704975999999998</v>
       </c>
       <c r="CE16" s="1">
-        <v>2190.090000</v>
+        <v>2190.09</v>
       </c>
       <c r="CF16" s="1">
-        <v>-1742.910000</v>
+        <v>-1742.91</v>
       </c>
       <c r="CG16" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
     </row>
-    <row r="17">
+    <row r="17" spans="1:85">
       <c r="A17" s="1">
-        <v>67163.519640</v>
+        <v>67163.519639999999</v>
       </c>
       <c r="B17" s="1">
         <v>18.656533</v>
       </c>
       <c r="C17" s="1">
-        <v>1147.750000</v>
+        <v>1147.75</v>
       </c>
       <c r="D17" s="1">
-        <v>-243.636000</v>
+        <v>-243.636</v>
       </c>
       <c r="E17" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="F17" s="1">
-        <v>67173.955467</v>
+        <v>67173.955467000007</v>
       </c>
       <c r="G17" s="1">
-        <v>18.659432</v>
+        <v>18.659431999999999</v>
       </c>
       <c r="H17" s="1">
-        <v>1167.750000</v>
+        <v>1167.75</v>
       </c>
       <c r="I17" s="1">
-        <v>-205.316000</v>
+        <v>-205.316</v>
       </c>
       <c r="J17" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="K17" s="1">
-        <v>67184.419069</v>
+        <v>67184.419068999996</v>
       </c>
       <c r="L17" s="1">
-        <v>18.662339</v>
+        <v>18.662338999999999</v>
       </c>
       <c r="M17" s="1">
-        <v>1193.650000</v>
+        <v>1193.6500000000001</v>
       </c>
       <c r="N17" s="1">
-        <v>-145.617000</v>
+        <v>-145.61699999999999</v>
       </c>
       <c r="O17" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="P17" s="1">
-        <v>67195.280958</v>
+        <v>67195.280958000003</v>
       </c>
       <c r="Q17" s="1">
-        <v>18.665356</v>
+        <v>18.665355999999999</v>
       </c>
       <c r="R17" s="1">
-        <v>1201.680000</v>
+        <v>1201.68</v>
       </c>
       <c r="S17" s="1">
-        <v>-125.411000</v>
+        <v>-125.411</v>
       </c>
       <c r="T17" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="U17" s="1">
-        <v>67205.775213</v>
+        <v>67205.775213000001</v>
       </c>
       <c r="V17" s="1">
-        <v>18.668271</v>
+        <v>18.668271000000001</v>
       </c>
       <c r="W17" s="1">
-        <v>1209.660000</v>
+        <v>1209.6600000000001</v>
       </c>
       <c r="X17" s="1">
-        <v>-106.167000</v>
+        <v>-106.167</v>
       </c>
       <c r="Y17" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="Z17" s="1">
-        <v>67216.359443</v>
+        <v>67216.359442999994</v>
       </c>
       <c r="AA17" s="1">
         <v>18.671211</v>
       </c>
       <c r="AB17" s="1">
-        <v>1217.950000</v>
+        <v>1217.95</v>
       </c>
       <c r="AC17" s="1">
-        <v>-90.311300</v>
+        <v>-90.311300000000003</v>
       </c>
       <c r="AD17" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AE17" s="1">
         <v>67226.797756</v>
       </c>
       <c r="AF17" s="1">
-        <v>18.674110</v>
+        <v>18.674109999999999</v>
       </c>
       <c r="AG17" s="1">
-        <v>1223.180000</v>
+        <v>1223.18</v>
       </c>
       <c r="AH17" s="1">
-        <v>-86.215600</v>
+        <v>-86.215599999999995</v>
       </c>
       <c r="AI17" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AJ17" s="1">
-        <v>67237.331819</v>
+        <v>67237.331818999999</v>
       </c>
       <c r="AK17" s="1">
-        <v>18.677037</v>
+        <v>18.677036999999999</v>
       </c>
       <c r="AL17" s="1">
-        <v>1230.850000</v>
+        <v>1230.8499999999999</v>
       </c>
       <c r="AM17" s="1">
-        <v>-89.876700</v>
+        <v>-89.8767</v>
       </c>
       <c r="AN17" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AO17" s="1">
         <v>67248.146578</v>
       </c>
       <c r="AP17" s="1">
-        <v>18.680041</v>
+        <v>18.680040999999999</v>
       </c>
       <c r="AQ17" s="1">
-        <v>1239.090000</v>
+        <v>1239.0899999999999</v>
       </c>
       <c r="AR17" s="1">
-        <v>-101.866000</v>
+        <v>-101.866</v>
       </c>
       <c r="AS17" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AT17" s="1">
-        <v>67259.211306</v>
+        <v>67259.211305999997</v>
       </c>
       <c r="AU17" s="1">
         <v>18.683114</v>
       </c>
       <c r="AV17" s="1">
-        <v>1249.240000</v>
+        <v>1249.24</v>
       </c>
       <c r="AW17" s="1">
-        <v>-121.240000</v>
+        <v>-121.24</v>
       </c>
       <c r="AX17" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AY17" s="1">
-        <v>67270.361868</v>
+        <v>67270.361868000007</v>
       </c>
       <c r="AZ17" s="1">
-        <v>18.686212</v>
+        <v>18.686212000000001</v>
       </c>
       <c r="BA17" s="1">
-        <v>1257.810000</v>
+        <v>1257.81</v>
       </c>
       <c r="BB17" s="1">
-        <v>-138.795000</v>
+        <v>-138.79499999999999</v>
       </c>
       <c r="BC17" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BD17" s="1">
-        <v>67281.444514</v>
+        <v>67281.444514000003</v>
       </c>
       <c r="BE17" s="1">
-        <v>18.689290</v>
+        <v>18.68929</v>
       </c>
       <c r="BF17" s="1">
-        <v>1298.360000</v>
+        <v>1298.3599999999999</v>
       </c>
       <c r="BG17" s="1">
-        <v>-220.845000</v>
+        <v>-220.845</v>
       </c>
       <c r="BH17" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BI17" s="1">
         <v>67292.210175</v>
       </c>
       <c r="BJ17" s="1">
-        <v>18.692281</v>
+        <v>18.692281000000001</v>
       </c>
       <c r="BK17" s="1">
-        <v>1368.810000</v>
+        <v>1368.81</v>
       </c>
       <c r="BL17" s="1">
-        <v>-357.121000</v>
+        <v>-357.12099999999998</v>
       </c>
       <c r="BM17" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BN17" s="1">
-        <v>67303.422239</v>
+        <v>67303.422239000007</v>
       </c>
       <c r="BO17" s="1">
-        <v>18.695395</v>
+        <v>18.695395000000001</v>
       </c>
       <c r="BP17" s="1">
-        <v>1484.650000</v>
+        <v>1484.65</v>
       </c>
       <c r="BQ17" s="1">
-        <v>-578.134000</v>
+        <v>-578.13400000000001</v>
       </c>
       <c r="BR17" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BS17" s="1">
-        <v>67314.761782</v>
+        <v>67314.761782000001</v>
       </c>
       <c r="BT17" s="1">
-        <v>18.698545</v>
+        <v>18.698544999999999</v>
       </c>
       <c r="BU17" s="1">
-        <v>1618.220000</v>
+        <v>1618.22</v>
       </c>
       <c r="BV17" s="1">
-        <v>-825.923000</v>
+        <v>-825.923</v>
       </c>
       <c r="BW17" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BX17" s="1">
-        <v>67326.126082</v>
+        <v>67326.126082000002</v>
       </c>
       <c r="BY17" s="1">
-        <v>18.701702</v>
+        <v>18.701702000000001</v>
       </c>
       <c r="BZ17" s="1">
-        <v>1771.230000</v>
+        <v>1771.23</v>
       </c>
       <c r="CA17" s="1">
-        <v>-1095.310000</v>
+        <v>-1095.31</v>
       </c>
       <c r="CB17" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="CC17" s="1">
-        <v>67338.468547</v>
+        <v>67338.468546999997</v>
       </c>
       <c r="CD17" s="1">
-        <v>18.705130</v>
+        <v>18.70513</v>
       </c>
       <c r="CE17" s="1">
-        <v>2190.740000</v>
+        <v>2190.7399999999998</v>
       </c>
       <c r="CF17" s="1">
-        <v>-1744.950000</v>
+        <v>-1744.95</v>
       </c>
       <c r="CG17" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
     </row>
-    <row r="18">
+    <row r="18" spans="1:85">
       <c r="A18" s="1">
-        <v>67163.861881</v>
+        <v>67163.861881000004</v>
       </c>
       <c r="B18" s="1">
-        <v>18.656628</v>
+        <v>18.656628000000001</v>
       </c>
       <c r="C18" s="1">
-        <v>1147.610000</v>
+        <v>1147.6099999999999</v>
       </c>
       <c r="D18" s="1">
-        <v>-243.525000</v>
+        <v>-243.52500000000001</v>
       </c>
       <c r="E18" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="F18" s="1">
-        <v>67174.300219</v>
+        <v>67174.300218999997</v>
       </c>
       <c r="G18" s="1">
-        <v>18.659528</v>
+        <v>18.659528000000002</v>
       </c>
       <c r="H18" s="1">
-        <v>1167.630000</v>
+        <v>1167.6300000000001</v>
       </c>
       <c r="I18" s="1">
-        <v>-205.504000</v>
+        <v>-205.50399999999999</v>
       </c>
       <c r="J18" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="K18" s="1">
-        <v>67185.063869</v>
+        <v>67185.063869000005</v>
       </c>
       <c r="L18" s="1">
-        <v>18.662518</v>
+        <v>18.662517999999999</v>
       </c>
       <c r="M18" s="1">
-        <v>1193.650000</v>
+        <v>1193.6500000000001</v>
       </c>
       <c r="N18" s="1">
-        <v>-145.607000</v>
+        <v>-145.607</v>
       </c>
       <c r="O18" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="P18" s="1">
-        <v>67195.672830</v>
+        <v>67195.672829999996</v>
       </c>
       <c r="Q18" s="1">
-        <v>18.665465</v>
+        <v>18.665465000000001</v>
       </c>
       <c r="R18" s="1">
-        <v>1201.760000</v>
+        <v>1201.76</v>
       </c>
       <c r="S18" s="1">
-        <v>-125.351000</v>
+        <v>-125.351</v>
       </c>
       <c r="T18" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="U18" s="1">
-        <v>67206.158524</v>
+        <v>67206.158523999999</v>
       </c>
       <c r="V18" s="1">
         <v>18.668377</v>
       </c>
       <c r="W18" s="1">
-        <v>1209.530000</v>
+        <v>1209.53</v>
       </c>
       <c r="X18" s="1">
-        <v>-106.050000</v>
+        <v>-106.05</v>
       </c>
       <c r="Y18" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="Z18" s="1">
-        <v>67216.705154</v>
+        <v>67216.705153999996</v>
       </c>
       <c r="AA18" s="1">
-        <v>18.671307</v>
+        <v>18.671306999999999</v>
       </c>
       <c r="AB18" s="1">
-        <v>1218.040000</v>
+        <v>1218.04</v>
       </c>
       <c r="AC18" s="1">
-        <v>-90.323000</v>
+        <v>-90.322999999999993</v>
       </c>
       <c r="AD18" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AE18" s="1">
-        <v>67227.143989</v>
+        <v>67227.143989000004</v>
       </c>
       <c r="AF18" s="1">
-        <v>18.674207</v>
+        <v>18.674206999999999</v>
       </c>
       <c r="AG18" s="1">
-        <v>1223.220000</v>
+        <v>1223.22</v>
       </c>
       <c r="AH18" s="1">
-        <v>-86.198300</v>
+        <v>-86.198300000000003</v>
       </c>
       <c r="AI18" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AJ18" s="1">
-        <v>67237.678983</v>
+        <v>67237.678983000005</v>
       </c>
       <c r="AK18" s="1">
-        <v>18.677133</v>
+        <v>18.677133000000001</v>
       </c>
       <c r="AL18" s="1">
-        <v>1230.850000</v>
+        <v>1230.8499999999999</v>
       </c>
       <c r="AM18" s="1">
-        <v>-89.854900</v>
+        <v>-89.854900000000001</v>
       </c>
       <c r="AN18" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AO18" s="1">
-        <v>67248.581545</v>
+        <v>67248.581544999994</v>
       </c>
       <c r="AP18" s="1">
-        <v>18.680162</v>
+        <v>18.680161999999999</v>
       </c>
       <c r="AQ18" s="1">
-        <v>1239.070000</v>
+        <v>1239.07</v>
       </c>
       <c r="AR18" s="1">
-        <v>-101.901000</v>
+        <v>-101.901</v>
       </c>
       <c r="AS18" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AT18" s="1">
-        <v>67259.621498</v>
+        <v>67259.621497999993</v>
       </c>
       <c r="AU18" s="1">
         <v>18.683228</v>
       </c>
       <c r="AV18" s="1">
-        <v>1249.240000</v>
+        <v>1249.24</v>
       </c>
       <c r="AW18" s="1">
-        <v>-121.271000</v>
+        <v>-121.271</v>
       </c>
       <c r="AX18" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AY18" s="1">
-        <v>67270.663436</v>
+        <v>67270.663436000003</v>
       </c>
       <c r="AZ18" s="1">
-        <v>18.686295</v>
+        <v>18.686295000000001</v>
       </c>
       <c r="BA18" s="1">
-        <v>1257.810000</v>
+        <v>1257.81</v>
       </c>
       <c r="BB18" s="1">
-        <v>-138.795000</v>
+        <v>-138.79499999999999</v>
       </c>
       <c r="BC18" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BD18" s="1">
-        <v>67281.654284</v>
+        <v>67281.654284000004</v>
       </c>
       <c r="BE18" s="1">
-        <v>18.689348</v>
+        <v>18.689347999999999</v>
       </c>
       <c r="BF18" s="1">
-        <v>1298.350000</v>
+        <v>1298.3499999999999</v>
       </c>
       <c r="BG18" s="1">
-        <v>-220.845000</v>
+        <v>-220.845</v>
       </c>
       <c r="BH18" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BI18" s="1">
-        <v>67292.589583</v>
+        <v>67292.589582999994</v>
       </c>
       <c r="BJ18" s="1">
-        <v>18.692386</v>
+        <v>18.692385999999999</v>
       </c>
       <c r="BK18" s="1">
-        <v>1368.890000</v>
+        <v>1368.89</v>
       </c>
       <c r="BL18" s="1">
-        <v>-357.112000</v>
+        <v>-357.11200000000002</v>
       </c>
       <c r="BM18" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BN18" s="1">
-        <v>67303.841825</v>
+        <v>67303.841824999996</v>
       </c>
       <c r="BO18" s="1">
-        <v>18.695512</v>
+        <v>18.695512000000001</v>
       </c>
       <c r="BP18" s="1">
-        <v>1484.630000</v>
+        <v>1484.63</v>
       </c>
       <c r="BQ18" s="1">
-        <v>-578.103000</v>
+        <v>-578.10299999999995</v>
       </c>
       <c r="BR18" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BS18" s="1">
-        <v>67315.209171</v>
+        <v>67315.209170999995</v>
       </c>
       <c r="BT18" s="1">
-        <v>18.698669</v>
+        <v>18.698668999999999</v>
       </c>
       <c r="BU18" s="1">
-        <v>1618.260000</v>
+        <v>1618.26</v>
       </c>
       <c r="BV18" s="1">
-        <v>-825.925000</v>
+        <v>-825.92499999999995</v>
       </c>
       <c r="BW18" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BX18" s="1">
-        <v>67326.570497</v>
+        <v>67326.570496999993</v>
       </c>
       <c r="BY18" s="1">
-        <v>18.701825</v>
+        <v>18.701824999999999</v>
       </c>
       <c r="BZ18" s="1">
-        <v>1771.270000</v>
+        <v>1771.27</v>
       </c>
       <c r="CA18" s="1">
-        <v>-1095.390000</v>
+        <v>-1095.3900000000001</v>
       </c>
       <c r="CB18" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="CC18" s="1">
-        <v>67338.996520</v>
+        <v>67338.996520000001</v>
       </c>
       <c r="CD18" s="1">
-        <v>18.705277</v>
+        <v>18.705276999999999</v>
       </c>
       <c r="CE18" s="1">
-        <v>2189.800000</v>
+        <v>2189.8000000000002</v>
       </c>
       <c r="CF18" s="1">
-        <v>-1742.990000</v>
+        <v>-1742.99</v>
       </c>
       <c r="CG18" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
     </row>
-    <row r="19">
+    <row r="19" spans="1:85">
       <c r="A19" s="1">
-        <v>67164.513165</v>
+        <v>67164.513164999997</v>
       </c>
       <c r="B19" s="1">
-        <v>18.656809</v>
+        <v>18.656808999999999</v>
       </c>
       <c r="C19" s="1">
-        <v>1147.610000</v>
+        <v>1147.6099999999999</v>
       </c>
       <c r="D19" s="1">
-        <v>-243.451000</v>
+        <v>-243.45099999999999</v>
       </c>
       <c r="E19" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="F19" s="1">
-        <v>67174.973754</v>
+        <v>67174.973754000006</v>
       </c>
       <c r="G19" s="1">
-        <v>18.659715</v>
+        <v>18.659714999999998</v>
       </c>
       <c r="H19" s="1">
-        <v>1166.920000</v>
+        <v>1166.92</v>
       </c>
       <c r="I19" s="1">
-        <v>-205.577000</v>
+        <v>-205.577</v>
       </c>
       <c r="J19" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="K19" s="1">
-        <v>67185.456203</v>
+        <v>67185.456202999994</v>
       </c>
       <c r="L19" s="1">
-        <v>18.662627</v>
+        <v>18.662627000000001</v>
       </c>
       <c r="M19" s="1">
-        <v>1193.600000</v>
+        <v>1193.5999999999999</v>
       </c>
       <c r="N19" s="1">
-        <v>-145.414000</v>
+        <v>-145.41399999999999</v>
       </c>
       <c r="O19" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="P19" s="1">
-        <v>67196.019005</v>
+        <v>67196.019004999995</v>
       </c>
       <c r="Q19" s="1">
         <v>18.665561</v>
       </c>
       <c r="R19" s="1">
-        <v>1201.770000</v>
+        <v>1201.77</v>
       </c>
       <c r="S19" s="1">
-        <v>-125.312000</v>
+        <v>-125.312</v>
       </c>
       <c r="T19" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="U19" s="1">
-        <v>67206.499471</v>
+        <v>67206.499471000003</v>
       </c>
       <c r="V19" s="1">
-        <v>18.668472</v>
+        <v>18.668472000000001</v>
       </c>
       <c r="W19" s="1">
-        <v>1209.740000</v>
+        <v>1209.74</v>
       </c>
       <c r="X19" s="1">
-        <v>-106.071000</v>
+        <v>-106.071</v>
       </c>
       <c r="Y19" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="Z19" s="1">
         <v>67217.052851</v>
       </c>
       <c r="AA19" s="1">
-        <v>18.671404</v>
+        <v>18.671403999999999</v>
       </c>
       <c r="AB19" s="1">
-        <v>1218.140000</v>
+        <v>1218.1400000000001</v>
       </c>
       <c r="AC19" s="1">
-        <v>-90.467200</v>
+        <v>-90.467200000000005</v>
       </c>
       <c r="AD19" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AE19" s="1">
-        <v>67227.486196</v>
+        <v>67227.486195999998</v>
       </c>
       <c r="AF19" s="1">
-        <v>18.674302</v>
+        <v>18.674302000000001</v>
       </c>
       <c r="AG19" s="1">
-        <v>1223.220000</v>
+        <v>1223.22</v>
       </c>
       <c r="AH19" s="1">
-        <v>-86.294300</v>
+        <v>-86.294300000000007</v>
       </c>
       <c r="AI19" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AJ19" s="1">
-        <v>67238.109511</v>
+        <v>67238.109511000002</v>
       </c>
       <c r="AK19" s="1">
         <v>18.677253</v>
       </c>
       <c r="AL19" s="1">
-        <v>1230.830000</v>
+        <v>1230.83</v>
       </c>
       <c r="AM19" s="1">
-        <v>-89.875800</v>
+        <v>-89.875799999999998</v>
       </c>
       <c r="AN19" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AO19" s="1">
-        <v>67248.869225</v>
+        <v>67248.869225000002</v>
       </c>
       <c r="AP19" s="1">
-        <v>18.680241</v>
+        <v>18.680240999999999</v>
       </c>
       <c r="AQ19" s="1">
-        <v>1239.110000</v>
+        <v>1239.1099999999999</v>
       </c>
       <c r="AR19" s="1">
-        <v>-101.872000</v>
+        <v>-101.872</v>
       </c>
       <c r="AS19" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AT19" s="1">
-        <v>67259.940427</v>
+        <v>67259.940426999994</v>
       </c>
       <c r="AU19" s="1">
-        <v>18.683317</v>
+        <v>18.683316999999999</v>
       </c>
       <c r="AV19" s="1">
-        <v>1249.230000</v>
+        <v>1249.23</v>
       </c>
       <c r="AW19" s="1">
-        <v>-121.257000</v>
+        <v>-121.25700000000001</v>
       </c>
       <c r="AX19" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AY19" s="1">
-        <v>67271.022079</v>
+        <v>67271.022079000002</v>
       </c>
       <c r="AZ19" s="1">
-        <v>18.686395</v>
+        <v>18.686395000000001</v>
       </c>
       <c r="BA19" s="1">
-        <v>1257.790000</v>
+        <v>1257.79</v>
       </c>
       <c r="BB19" s="1">
-        <v>-138.781000</v>
+        <v>-138.78100000000001</v>
       </c>
       <c r="BC19" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BD19" s="1">
-        <v>67282.014380</v>
+        <v>67282.014379999993</v>
       </c>
       <c r="BE19" s="1">
-        <v>18.689448</v>
+        <v>18.689447999999999</v>
       </c>
       <c r="BF19" s="1">
-        <v>1298.360000</v>
+        <v>1298.3599999999999</v>
       </c>
       <c r="BG19" s="1">
-        <v>-220.848000</v>
+        <v>-220.84800000000001</v>
       </c>
       <c r="BH19" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BI19" s="1">
-        <v>67292.961617</v>
+        <v>67292.961616999994</v>
       </c>
       <c r="BJ19" s="1">
-        <v>18.692489</v>
+        <v>18.692488999999998</v>
       </c>
       <c r="BK19" s="1">
-        <v>1368.750000</v>
+        <v>1368.75</v>
       </c>
       <c r="BL19" s="1">
-        <v>-357.148000</v>
+        <v>-357.14800000000002</v>
       </c>
       <c r="BM19" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BN19" s="1">
-        <v>67304.659230</v>
+        <v>67304.659230000005</v>
       </c>
       <c r="BO19" s="1">
         <v>18.695739</v>
       </c>
       <c r="BP19" s="1">
-        <v>1484.640000</v>
+        <v>1484.64</v>
       </c>
       <c r="BQ19" s="1">
-        <v>-578.089000</v>
+        <v>-578.08900000000006</v>
       </c>
       <c r="BR19" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BS19" s="1">
-        <v>67316.005215</v>
+        <v>67316.005214999997</v>
       </c>
       <c r="BT19" s="1">
-        <v>18.698890</v>
+        <v>18.698889999999999</v>
       </c>
       <c r="BU19" s="1">
-        <v>1618.360000</v>
+        <v>1618.36</v>
       </c>
       <c r="BV19" s="1">
-        <v>-825.900000</v>
+        <v>-825.9</v>
       </c>
       <c r="BW19" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BX19" s="1">
-        <v>67327.004496</v>
+        <v>67327.004495999994</v>
       </c>
       <c r="BY19" s="1">
         <v>18.701946</v>
       </c>
       <c r="BZ19" s="1">
-        <v>1771.650000</v>
+        <v>1771.65</v>
       </c>
       <c r="CA19" s="1">
-        <v>-1095.440000</v>
+        <v>-1095.44</v>
       </c>
       <c r="CB19" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="CC19" s="1">
-        <v>67339.516117</v>
+        <v>67339.516117000006</v>
       </c>
       <c r="CD19" s="1">
-        <v>18.705421</v>
+        <v>18.705421000000001</v>
       </c>
       <c r="CE19" s="1">
-        <v>2188.970000</v>
+        <v>2188.9699999999998</v>
       </c>
       <c r="CF19" s="1">
-        <v>-1744.980000</v>
+        <v>-1744.98</v>
       </c>
       <c r="CG19" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
     </row>
-    <row r="20">
+    <row r="20" spans="1:85">
       <c r="A20" s="1">
-        <v>67164.882647</v>
+        <v>67164.882647000006</v>
       </c>
       <c r="B20" s="1">
-        <v>18.656912</v>
+        <v>18.656911999999998</v>
       </c>
       <c r="C20" s="1">
-        <v>1147.560000</v>
+        <v>1147.56</v>
       </c>
       <c r="D20" s="1">
-        <v>-243.571000</v>
+        <v>-243.571</v>
       </c>
       <c r="E20" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="F20" s="1">
-        <v>67175.334346</v>
+        <v>67175.334346000003</v>
       </c>
       <c r="G20" s="1">
-        <v>18.659815</v>
+        <v>18.659814999999998</v>
       </c>
       <c r="H20" s="1">
-        <v>1167.740000</v>
+        <v>1167.74</v>
       </c>
       <c r="I20" s="1">
-        <v>-205.343000</v>
+        <v>-205.34299999999999</v>
       </c>
       <c r="J20" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="K20" s="1">
-        <v>67185.801419</v>
+        <v>67185.801418999996</v>
       </c>
       <c r="L20" s="1">
         <v>18.662723</v>
       </c>
       <c r="M20" s="1">
-        <v>1193.650000</v>
+        <v>1193.6500000000001</v>
       </c>
       <c r="N20" s="1">
-        <v>-145.827000</v>
+        <v>-145.827</v>
       </c>
       <c r="O20" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="P20" s="1">
-        <v>67196.367198</v>
+        <v>67196.367198000007</v>
       </c>
       <c r="Q20" s="1">
-        <v>18.665658</v>
+        <v>18.665658000000001</v>
       </c>
       <c r="R20" s="1">
-        <v>1201.800000</v>
+        <v>1201.8</v>
       </c>
       <c r="S20" s="1">
-        <v>-125.348000</v>
+        <v>-125.348</v>
       </c>
       <c r="T20" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="U20" s="1">
-        <v>67206.846207</v>
+        <v>67206.846206999995</v>
       </c>
       <c r="V20" s="1">
         <v>18.668568</v>
       </c>
       <c r="W20" s="1">
-        <v>1209.700000</v>
+        <v>1209.7</v>
       </c>
       <c r="X20" s="1">
-        <v>-106.150000</v>
+        <v>-106.15</v>
       </c>
       <c r="Y20" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="Z20" s="1">
-        <v>67217.470522</v>
+        <v>67217.470522000003</v>
       </c>
       <c r="AA20" s="1">
-        <v>18.671520</v>
+        <v>18.671520000000001</v>
       </c>
       <c r="AB20" s="1">
-        <v>1218.040000</v>
+        <v>1218.04</v>
       </c>
       <c r="AC20" s="1">
-        <v>-90.405100</v>
+        <v>-90.405100000000004</v>
       </c>
       <c r="AD20" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AE20" s="1">
-        <v>67227.918211</v>
+        <v>67227.918210999997</v>
       </c>
       <c r="AF20" s="1">
         <v>18.674422</v>
       </c>
       <c r="AG20" s="1">
-        <v>1223.260000</v>
+        <v>1223.26</v>
       </c>
       <c r="AH20" s="1">
-        <v>-86.366200</v>
+        <v>-86.366200000000006</v>
       </c>
       <c r="AI20" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AJ20" s="1">
-        <v>67238.388795</v>
+        <v>67238.388795000006</v>
       </c>
       <c r="AK20" s="1">
-        <v>18.677330</v>
+        <v>18.677330000000001</v>
       </c>
       <c r="AL20" s="1">
-        <v>1230.830000</v>
+        <v>1230.83</v>
       </c>
       <c r="AM20" s="1">
-        <v>-89.862800</v>
+        <v>-89.862799999999993</v>
       </c>
       <c r="AN20" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AO20" s="1">
-        <v>67249.227336</v>
+        <v>67249.227335999996</v>
       </c>
       <c r="AP20" s="1">
-        <v>18.680341</v>
+        <v>18.680340999999999</v>
       </c>
       <c r="AQ20" s="1">
-        <v>1239.080000</v>
+        <v>1239.08</v>
       </c>
       <c r="AR20" s="1">
-        <v>-101.867000</v>
+        <v>-101.867</v>
       </c>
       <c r="AS20" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AT20" s="1">
-        <v>67260.304489</v>
+        <v>67260.304489000002</v>
       </c>
       <c r="AU20" s="1">
         <v>18.683418</v>
       </c>
       <c r="AV20" s="1">
-        <v>1249.230000</v>
+        <v>1249.23</v>
       </c>
       <c r="AW20" s="1">
-        <v>-121.251000</v>
+        <v>-121.251</v>
       </c>
       <c r="AX20" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AY20" s="1">
-        <v>67271.379658</v>
+        <v>67271.379658000005</v>
       </c>
       <c r="AZ20" s="1">
         <v>18.686494</v>
       </c>
       <c r="BA20" s="1">
-        <v>1257.810000</v>
+        <v>1257.81</v>
       </c>
       <c r="BB20" s="1">
-        <v>-138.800000</v>
+        <v>-138.80000000000001</v>
       </c>
       <c r="BC20" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BD20" s="1">
-        <v>67282.738080</v>
+        <v>67282.738079999996</v>
       </c>
       <c r="BE20" s="1">
-        <v>18.689649</v>
+        <v>18.689648999999999</v>
       </c>
       <c r="BF20" s="1">
-        <v>1298.330000</v>
+        <v>1298.33</v>
       </c>
       <c r="BG20" s="1">
-        <v>-220.871000</v>
+        <v>-220.87100000000001</v>
       </c>
       <c r="BH20" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BI20" s="1">
-        <v>67293.711532</v>
+        <v>67293.711532000001</v>
       </c>
       <c r="BJ20" s="1">
         <v>18.692698</v>
       </c>
       <c r="BK20" s="1">
-        <v>1368.900000</v>
+        <v>1368.9</v>
       </c>
       <c r="BL20" s="1">
-        <v>-357.095000</v>
+        <v>-357.09500000000003</v>
       </c>
       <c r="BM20" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BN20" s="1">
-        <v>67305.076400</v>
+        <v>67305.076400000005</v>
       </c>
       <c r="BO20" s="1">
-        <v>18.695855</v>
+        <v>18.695855000000002</v>
       </c>
       <c r="BP20" s="1">
-        <v>1484.660000</v>
+        <v>1484.66</v>
       </c>
       <c r="BQ20" s="1">
-        <v>-578.115000</v>
+        <v>-578.11500000000001</v>
       </c>
       <c r="BR20" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BS20" s="1">
-        <v>67316.418878</v>
+        <v>67316.418877999997</v>
       </c>
       <c r="BT20" s="1">
         <v>18.699005</v>
       </c>
       <c r="BU20" s="1">
-        <v>1618.410000</v>
+        <v>1618.41</v>
       </c>
       <c r="BV20" s="1">
-        <v>-825.944000</v>
+        <v>-825.94399999999996</v>
       </c>
       <c r="BW20" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BX20" s="1">
-        <v>67327.425600</v>
+        <v>67327.425600000002</v>
       </c>
       <c r="BY20" s="1">
-        <v>18.702063</v>
+        <v>18.702062999999999</v>
       </c>
       <c r="BZ20" s="1">
-        <v>1771.440000</v>
+        <v>1771.44</v>
       </c>
       <c r="CA20" s="1">
-        <v>-1095.050000</v>
+        <v>-1095.05</v>
       </c>
       <c r="CB20" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="CC20" s="1">
         <v>67340.362255</v>
       </c>
       <c r="CD20" s="1">
-        <v>18.705656</v>
+        <v>18.705656000000001</v>
       </c>
       <c r="CE20" s="1">
-        <v>2189.410000</v>
+        <v>2189.41</v>
       </c>
       <c r="CF20" s="1">
-        <v>-1743.430000</v>
+        <v>-1743.43</v>
       </c>
       <c r="CG20" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
     </row>
-    <row r="21">
+    <row r="21" spans="1:85">
       <c r="A21" s="1">
-        <v>67165.227381</v>
+        <v>67165.227381000004</v>
       </c>
       <c r="B21" s="1">
-        <v>18.657008</v>
+        <v>18.657008000000001</v>
       </c>
       <c r="C21" s="1">
-        <v>1147.570000</v>
+        <v>1147.57</v>
       </c>
       <c r="D21" s="1">
-        <v>-243.885000</v>
+        <v>-243.88499999999999</v>
       </c>
       <c r="E21" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="F21" s="1">
-        <v>67175.679597</v>
+        <v>67175.679596999995</v>
       </c>
       <c r="G21" s="1">
-        <v>18.659911</v>
+        <v>18.659911000000001</v>
       </c>
       <c r="H21" s="1">
-        <v>1167.250000</v>
+        <v>1167.25</v>
       </c>
       <c r="I21" s="1">
-        <v>-206.061000</v>
+        <v>-206.06100000000001</v>
       </c>
       <c r="J21" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="K21" s="1">
-        <v>67186.146634</v>
+        <v>67186.146634000004</v>
       </c>
       <c r="L21" s="1">
-        <v>18.662819</v>
+        <v>18.662818999999999</v>
       </c>
       <c r="M21" s="1">
-        <v>1193.960000</v>
+        <v>1193.96</v>
       </c>
       <c r="N21" s="1">
-        <v>-145.682000</v>
+        <v>-145.68199999999999</v>
       </c>
       <c r="O21" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="P21" s="1">
-        <v>67196.797726</v>
+        <v>67196.797726000004</v>
       </c>
       <c r="Q21" s="1">
-        <v>18.665777</v>
+        <v>18.665776999999999</v>
       </c>
       <c r="R21" s="1">
-        <v>1201.770000</v>
+        <v>1201.77</v>
       </c>
       <c r="S21" s="1">
-        <v>-125.353000</v>
+        <v>-125.35299999999999</v>
       </c>
       <c r="T21" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="U21" s="1">
-        <v>67207.264835</v>
+        <v>67207.264834999994</v>
       </c>
       <c r="V21" s="1">
         <v>18.668685</v>
       </c>
       <c r="W21" s="1">
-        <v>1209.580000</v>
+        <v>1209.58</v>
       </c>
       <c r="X21" s="1">
-        <v>-105.966000</v>
+        <v>-105.96599999999999</v>
       </c>
       <c r="Y21" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="Z21" s="1">
-        <v>67217.758199</v>
+        <v>67217.758199000004</v>
       </c>
       <c r="AA21" s="1">
-        <v>18.671599</v>
+        <v>18.671599000000001</v>
       </c>
       <c r="AB21" s="1">
-        <v>1218.170000</v>
+        <v>1218.17</v>
       </c>
       <c r="AC21" s="1">
-        <v>-90.225300</v>
+        <v>-90.225300000000004</v>
       </c>
       <c r="AD21" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AE21" s="1">
-        <v>67228.196467</v>
+        <v>67228.196467000002</v>
       </c>
       <c r="AF21" s="1">
-        <v>18.674499</v>
+        <v>18.674499000000001</v>
       </c>
       <c r="AG21" s="1">
-        <v>1223.300000</v>
+        <v>1223.3</v>
       </c>
       <c r="AH21" s="1">
-        <v>-86.227700</v>
+        <v>-86.227699999999999</v>
       </c>
       <c r="AI21" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AJ21" s="1">
-        <v>67238.737478</v>
+        <v>67238.737477999995</v>
       </c>
       <c r="AK21" s="1">
-        <v>18.677427</v>
+        <v>18.677427000000002</v>
       </c>
       <c r="AL21" s="1">
-        <v>1230.830000</v>
+        <v>1230.83</v>
       </c>
       <c r="AM21" s="1">
-        <v>-89.871300</v>
+        <v>-89.871300000000005</v>
       </c>
       <c r="AN21" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AO21" s="1">
-        <v>67249.586454</v>
+        <v>67249.586454000004</v>
       </c>
       <c r="AP21" s="1">
-        <v>18.680441</v>
+        <v>18.680440999999998</v>
       </c>
       <c r="AQ21" s="1">
-        <v>1239.070000</v>
+        <v>1239.07</v>
       </c>
       <c r="AR21" s="1">
-        <v>-101.868000</v>
+        <v>-101.86799999999999</v>
       </c>
       <c r="AS21" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AT21" s="1">
-        <v>67260.671032</v>
+        <v>67260.671031999998</v>
       </c>
       <c r="AU21" s="1">
-        <v>18.683520</v>
+        <v>18.683520000000001</v>
       </c>
       <c r="AV21" s="1">
-        <v>1249.260000</v>
+        <v>1249.26</v>
       </c>
       <c r="AW21" s="1">
-        <v>-121.234000</v>
+        <v>-121.23399999999999</v>
       </c>
       <c r="AX21" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AY21" s="1">
-        <v>67272.099353</v>
+        <v>67272.099352999998</v>
       </c>
       <c r="AZ21" s="1">
-        <v>18.686694</v>
+        <v>18.686693999999999</v>
       </c>
       <c r="BA21" s="1">
-        <v>1257.810000</v>
+        <v>1257.81</v>
       </c>
       <c r="BB21" s="1">
-        <v>-138.800000</v>
+        <v>-138.80000000000001</v>
       </c>
       <c r="BC21" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BD21" s="1">
-        <v>67283.097642</v>
+        <v>67283.097641999993</v>
       </c>
       <c r="BE21" s="1">
-        <v>18.689749</v>
+        <v>18.689748999999999</v>
       </c>
       <c r="BF21" s="1">
-        <v>1298.370000</v>
+        <v>1298.3699999999999</v>
       </c>
       <c r="BG21" s="1">
-        <v>-220.857000</v>
+        <v>-220.857</v>
       </c>
       <c r="BH21" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BI21" s="1">
-        <v>67294.087996</v>
+        <v>67294.087996000002</v>
       </c>
       <c r="BJ21" s="1">
         <v>18.692802</v>
       </c>
       <c r="BK21" s="1">
-        <v>1368.840000</v>
+        <v>1368.84</v>
       </c>
       <c r="BL21" s="1">
-        <v>-357.215000</v>
+        <v>-357.21499999999997</v>
       </c>
       <c r="BM21" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BN21" s="1">
-        <v>67305.475149</v>
+        <v>67305.475149000005</v>
       </c>
       <c r="BO21" s="1">
-        <v>18.695965</v>
+        <v>18.695965000000001</v>
       </c>
       <c r="BP21" s="1">
-        <v>1484.670000</v>
+        <v>1484.67</v>
       </c>
       <c r="BQ21" s="1">
-        <v>-578.098000</v>
+        <v>-578.09799999999996</v>
       </c>
       <c r="BR21" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BS21" s="1">
-        <v>67317.157917</v>
+        <v>67317.157917000004</v>
       </c>
       <c r="BT21" s="1">
-        <v>18.699211</v>
+        <v>18.699210999999998</v>
       </c>
       <c r="BU21" s="1">
-        <v>1618.420000</v>
+        <v>1618.42</v>
       </c>
       <c r="BV21" s="1">
-        <v>-826.025000</v>
+        <v>-826.02499999999998</v>
       </c>
       <c r="BW21" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BX21" s="1">
-        <v>67328.169103</v>
+        <v>67328.169102999993</v>
       </c>
       <c r="BY21" s="1">
-        <v>18.702269</v>
+        <v>18.702269000000001</v>
       </c>
       <c r="BZ21" s="1">
-        <v>1771.320000</v>
+        <v>1771.32</v>
       </c>
       <c r="CA21" s="1">
-        <v>-1095.180000</v>
+        <v>-1095.18</v>
       </c>
       <c r="CB21" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="CC21" s="1">
-        <v>67340.595872</v>
+        <v>67340.595872000005</v>
       </c>
       <c r="CD21" s="1">
         <v>18.705721</v>
       </c>
       <c r="CE21" s="1">
-        <v>2189.630000</v>
+        <v>2189.63</v>
       </c>
       <c r="CF21" s="1">
-        <v>-1743.160000</v>
+        <v>-1743.16</v>
       </c>
       <c r="CG21" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
     </row>
-    <row r="22">
+    <row r="22" spans="1:85">
       <c r="A22" s="1">
-        <v>67165.570598</v>
+        <v>67165.570598000006</v>
       </c>
       <c r="B22" s="1">
-        <v>18.657103</v>
+        <v>18.657102999999999</v>
       </c>
       <c r="C22" s="1">
-        <v>1147.720000</v>
+        <v>1147.72</v>
       </c>
       <c r="D22" s="1">
-        <v>-243.621000</v>
+        <v>-243.62100000000001</v>
       </c>
       <c r="E22" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="F22" s="1">
-        <v>67176.023785</v>
+        <v>67176.023784999998</v>
       </c>
       <c r="G22" s="1">
         <v>18.660007</v>
       </c>
       <c r="H22" s="1">
-        <v>1166.690000</v>
+        <v>1166.69</v>
       </c>
       <c r="I22" s="1">
-        <v>-205.649000</v>
+        <v>-205.649</v>
       </c>
       <c r="J22" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="K22" s="1">
-        <v>67186.565755</v>
+        <v>67186.565755000003</v>
       </c>
       <c r="L22" s="1">
-        <v>18.662935</v>
+        <v>18.662935000000001</v>
       </c>
       <c r="M22" s="1">
-        <v>1193.600000</v>
+        <v>1193.5999999999999</v>
       </c>
       <c r="N22" s="1">
-        <v>-145.816000</v>
+        <v>-145.816</v>
       </c>
       <c r="O22" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="P22" s="1">
-        <v>67197.077505</v>
+        <v>67197.077504999994</v>
       </c>
       <c r="Q22" s="1">
-        <v>18.665855</v>
+        <v>18.665855000000001</v>
       </c>
       <c r="R22" s="1">
-        <v>1201.740000</v>
+        <v>1201.74</v>
       </c>
       <c r="S22" s="1">
-        <v>-125.350000</v>
+        <v>-125.35</v>
       </c>
       <c r="T22" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="U22" s="1">
-        <v>67207.554958</v>
+        <v>67207.554957999993</v>
       </c>
       <c r="V22" s="1">
         <v>18.668765</v>
       </c>
       <c r="W22" s="1">
-        <v>1209.640000</v>
+        <v>1209.6400000000001</v>
       </c>
       <c r="X22" s="1">
-        <v>-106.220000</v>
+        <v>-106.22</v>
       </c>
       <c r="Y22" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="Z22" s="1">
-        <v>67218.108870</v>
+        <v>67218.108869999996</v>
       </c>
       <c r="AA22" s="1">
-        <v>18.671697</v>
+        <v>18.671697000000002</v>
       </c>
       <c r="AB22" s="1">
-        <v>1218.030000</v>
+        <v>1218.03</v>
       </c>
       <c r="AC22" s="1">
-        <v>-90.252400</v>
+        <v>-90.252399999999994</v>
       </c>
       <c r="AD22" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AE22" s="1">
-        <v>67228.540194</v>
+        <v>67228.540194000001</v>
       </c>
       <c r="AF22" s="1">
-        <v>18.674594</v>
+        <v>18.674593999999999</v>
       </c>
       <c r="AG22" s="1">
-        <v>1223.210000</v>
+        <v>1223.21</v>
       </c>
       <c r="AH22" s="1">
-        <v>-86.186900</v>
+        <v>-86.186899999999994</v>
       </c>
       <c r="AI22" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AJ22" s="1">
-        <v>67239.084680</v>
+        <v>67239.08468</v>
       </c>
       <c r="AK22" s="1">
-        <v>18.677524</v>
+        <v>18.677523999999998</v>
       </c>
       <c r="AL22" s="1">
-        <v>1230.830000</v>
+        <v>1230.83</v>
       </c>
       <c r="AM22" s="1">
-        <v>-89.871200</v>
+        <v>-89.871200000000002</v>
       </c>
       <c r="AN22" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AO22" s="1">
-        <v>67250.305146</v>
+        <v>67250.305145999999</v>
       </c>
       <c r="AP22" s="1">
-        <v>18.680640</v>
+        <v>18.68064</v>
       </c>
       <c r="AQ22" s="1">
-        <v>1239.090000</v>
+        <v>1239.0899999999999</v>
       </c>
       <c r="AR22" s="1">
-        <v>-101.873000</v>
+        <v>-101.873</v>
       </c>
       <c r="AS22" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AT22" s="1">
-        <v>67261.399655</v>
+        <v>67261.399655000001</v>
       </c>
       <c r="AU22" s="1">
-        <v>18.683722</v>
+        <v>18.683721999999999</v>
       </c>
       <c r="AV22" s="1">
-        <v>1249.260000</v>
+        <v>1249.26</v>
       </c>
       <c r="AW22" s="1">
-        <v>-121.284000</v>
+        <v>-121.28400000000001</v>
       </c>
       <c r="AX22" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AY22" s="1">
-        <v>67272.457464</v>
+        <v>67272.457464000006</v>
       </c>
       <c r="AZ22" s="1">
-        <v>18.686794</v>
+        <v>18.686793999999999</v>
       </c>
       <c r="BA22" s="1">
-        <v>1257.810000</v>
+        <v>1257.81</v>
       </c>
       <c r="BB22" s="1">
-        <v>-138.797000</v>
+        <v>-138.797</v>
       </c>
       <c r="BC22" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BD22" s="1">
-        <v>67283.460218</v>
+        <v>67283.460217999993</v>
       </c>
       <c r="BE22" s="1">
-        <v>18.689850</v>
+        <v>18.68985</v>
       </c>
       <c r="BF22" s="1">
-        <v>1298.350000</v>
+        <v>1298.3499999999999</v>
       </c>
       <c r="BG22" s="1">
-        <v>-220.834000</v>
+        <v>-220.834</v>
       </c>
       <c r="BH22" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BI22" s="1">
-        <v>67294.466444</v>
+        <v>67294.466444000005</v>
       </c>
       <c r="BJ22" s="1">
-        <v>18.692907</v>
+        <v>18.692907000000002</v>
       </c>
       <c r="BK22" s="1">
-        <v>1368.770000</v>
+        <v>1368.77</v>
       </c>
       <c r="BL22" s="1">
-        <v>-357.173000</v>
+        <v>-357.173</v>
       </c>
       <c r="BM22" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BN22" s="1">
         <v>67306.216172</v>
@@ -5816,1088 +6232,1089 @@
         <v>18.696171</v>
       </c>
       <c r="BP22" s="1">
-        <v>1484.610000</v>
+        <v>1484.61</v>
       </c>
       <c r="BQ22" s="1">
-        <v>-578.077000</v>
+        <v>-578.077</v>
       </c>
       <c r="BR22" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BS22" s="1">
-        <v>67317.280466</v>
+        <v>67317.280465999997</v>
       </c>
       <c r="BT22" s="1">
-        <v>18.699245</v>
+        <v>18.699245000000001</v>
       </c>
       <c r="BU22" s="1">
-        <v>1618.510000</v>
+        <v>1618.51</v>
       </c>
       <c r="BV22" s="1">
-        <v>-826.082000</v>
+        <v>-826.08199999999999</v>
       </c>
       <c r="BW22" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BX22" s="1">
-        <v>67328.280861</v>
+        <v>67328.280861000007</v>
       </c>
       <c r="BY22" s="1">
-        <v>18.702300</v>
+        <v>18.702300000000001</v>
       </c>
       <c r="BZ22" s="1">
-        <v>1771.450000</v>
+        <v>1771.45</v>
       </c>
       <c r="CA22" s="1">
-        <v>-1095.180000</v>
+        <v>-1095.18</v>
       </c>
       <c r="CB22" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="CC22" s="1">
-        <v>67341.114222</v>
+        <v>67341.114222000004</v>
       </c>
       <c r="CD22" s="1">
-        <v>18.705865</v>
+        <v>18.705864999999999</v>
       </c>
       <c r="CE22" s="1">
-        <v>2188.410000</v>
+        <v>2188.41</v>
       </c>
       <c r="CF22" s="1">
-        <v>-1744.920000</v>
+        <v>-1744.92</v>
       </c>
       <c r="CG22" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
     </row>
-    <row r="23">
+    <row r="23" spans="1:85">
       <c r="A23" s="1">
-        <v>67166.008108</v>
+        <v>67166.008107999995</v>
       </c>
       <c r="B23" s="1">
-        <v>18.657224</v>
+        <v>18.657223999999999</v>
       </c>
       <c r="C23" s="1">
-        <v>1147.550000</v>
+        <v>1147.55</v>
       </c>
       <c r="D23" s="1">
-        <v>-243.588000</v>
+        <v>-243.58799999999999</v>
       </c>
       <c r="E23" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="F23" s="1">
-        <v>67176.455303</v>
+        <v>67176.455302999995</v>
       </c>
       <c r="G23" s="1">
-        <v>18.660126</v>
+        <v>18.660126000000002</v>
       </c>
       <c r="H23" s="1">
-        <v>1166.860000</v>
+        <v>1166.8599999999999</v>
       </c>
       <c r="I23" s="1">
-        <v>-205.682000</v>
+        <v>-205.68199999999999</v>
       </c>
       <c r="J23" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="K23" s="1">
-        <v>67186.860023</v>
+        <v>67186.860023000001</v>
       </c>
       <c r="L23" s="1">
         <v>18.663017</v>
       </c>
       <c r="M23" s="1">
-        <v>1193.790000</v>
+        <v>1193.79</v>
       </c>
       <c r="N23" s="1">
-        <v>-145.717000</v>
+        <v>-145.71700000000001</v>
       </c>
       <c r="O23" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="P23" s="1">
-        <v>67197.425963</v>
+        <v>67197.425963000002</v>
       </c>
       <c r="Q23" s="1">
-        <v>18.665952</v>
+        <v>18.665952000000001</v>
       </c>
       <c r="R23" s="1">
-        <v>1201.760000</v>
+        <v>1201.76</v>
       </c>
       <c r="S23" s="1">
-        <v>-125.320000</v>
+        <v>-125.32</v>
       </c>
       <c r="T23" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="U23" s="1">
-        <v>67207.898718</v>
+        <v>67207.898717999997</v>
       </c>
       <c r="V23" s="1">
         <v>18.668861</v>
       </c>
       <c r="W23" s="1">
-        <v>1209.640000</v>
+        <v>1209.6400000000001</v>
       </c>
       <c r="X23" s="1">
-        <v>-106.060000</v>
+        <v>-106.06</v>
       </c>
       <c r="Y23" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="Z23" s="1">
-        <v>67218.457192</v>
+        <v>67218.457192000002</v>
       </c>
       <c r="AA23" s="1">
-        <v>18.671794</v>
+        <v>18.671793999999998</v>
       </c>
       <c r="AB23" s="1">
-        <v>1218.040000</v>
+        <v>1218.04</v>
       </c>
       <c r="AC23" s="1">
-        <v>-90.417300</v>
+        <v>-90.417299999999997</v>
       </c>
       <c r="AD23" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AE23" s="1">
-        <v>67228.906242</v>
+        <v>67228.906241999997</v>
       </c>
       <c r="AF23" s="1">
-        <v>18.674696</v>
+        <v>18.674696000000001</v>
       </c>
       <c r="AG23" s="1">
-        <v>1223.080000</v>
+        <v>1223.08</v>
       </c>
       <c r="AH23" s="1">
-        <v>-86.335000</v>
+        <v>-86.334999999999994</v>
       </c>
       <c r="AI23" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AJ23" s="1">
-        <v>67239.784038</v>
+        <v>67239.784037999998</v>
       </c>
       <c r="AK23" s="1">
-        <v>18.677718</v>
+        <v>18.677717999999999</v>
       </c>
       <c r="AL23" s="1">
-        <v>1230.830000</v>
+        <v>1230.83</v>
       </c>
       <c r="AM23" s="1">
-        <v>-89.852900</v>
+        <v>-89.852900000000005</v>
       </c>
       <c r="AN23" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AO23" s="1">
         <v>67250.664246</v>
       </c>
       <c r="AP23" s="1">
-        <v>18.680740</v>
+        <v>18.68074</v>
       </c>
       <c r="AQ23" s="1">
-        <v>1239.070000</v>
+        <v>1239.07</v>
       </c>
       <c r="AR23" s="1">
-        <v>-101.883000</v>
+        <v>-101.883</v>
       </c>
       <c r="AS23" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AT23" s="1">
-        <v>67261.789021</v>
+        <v>67261.789021000004</v>
       </c>
       <c r="AU23" s="1">
-        <v>18.683830</v>
+        <v>18.68383</v>
       </c>
       <c r="AV23" s="1">
-        <v>1249.250000</v>
+        <v>1249.25</v>
       </c>
       <c r="AW23" s="1">
-        <v>-121.275000</v>
+        <v>-121.27500000000001</v>
       </c>
       <c r="AX23" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AY23" s="1">
-        <v>67272.816103</v>
+        <v>67272.816103000005</v>
       </c>
       <c r="AZ23" s="1">
-        <v>18.686893</v>
+        <v>18.686893000000001</v>
       </c>
       <c r="BA23" s="1">
-        <v>1257.790000</v>
+        <v>1257.79</v>
       </c>
       <c r="BB23" s="1">
-        <v>-138.783000</v>
+        <v>-138.78299999999999</v>
       </c>
       <c r="BC23" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BD23" s="1">
-        <v>67284.139737</v>
+        <v>67284.139737000005</v>
       </c>
       <c r="BE23" s="1">
-        <v>18.690039</v>
+        <v>18.690038999999999</v>
       </c>
       <c r="BF23" s="1">
-        <v>1298.370000</v>
+        <v>1298.3699999999999</v>
       </c>
       <c r="BG23" s="1">
-        <v>-220.865000</v>
+        <v>-220.86500000000001</v>
       </c>
       <c r="BH23" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BI23" s="1">
-        <v>67295.164346</v>
+        <v>67295.164346000005</v>
       </c>
       <c r="BJ23" s="1">
-        <v>18.693101</v>
+        <v>18.693100999999999</v>
       </c>
       <c r="BK23" s="1">
-        <v>1368.800000</v>
+        <v>1368.8</v>
       </c>
       <c r="BL23" s="1">
-        <v>-357.111000</v>
+        <v>-357.11099999999999</v>
       </c>
       <c r="BM23" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BN23" s="1">
-        <v>67306.724075</v>
+        <v>67306.724075000006</v>
       </c>
       <c r="BO23" s="1">
-        <v>18.696312</v>
+        <v>18.696311999999999</v>
       </c>
       <c r="BP23" s="1">
-        <v>1484.620000</v>
+        <v>1484.62</v>
       </c>
       <c r="BQ23" s="1">
-        <v>-578.069000</v>
+        <v>-578.06899999999996</v>
       </c>
       <c r="BR23" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BS23" s="1">
-        <v>67317.691116</v>
+        <v>67317.691116000002</v>
       </c>
       <c r="BT23" s="1">
-        <v>18.699359</v>
+        <v>18.699359000000001</v>
       </c>
       <c r="BU23" s="1">
-        <v>1618.490000</v>
+        <v>1618.49</v>
       </c>
       <c r="BV23" s="1">
-        <v>-826.125000</v>
+        <v>-826.125</v>
       </c>
       <c r="BW23" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BX23" s="1">
-        <v>67328.723167</v>
+        <v>67328.723167000004</v>
       </c>
       <c r="BY23" s="1">
         <v>18.702423</v>
       </c>
       <c r="BZ23" s="1">
-        <v>1771.300000</v>
+        <v>1771.3</v>
       </c>
       <c r="CA23" s="1">
-        <v>-1095.300000</v>
+        <v>-1095.3</v>
       </c>
       <c r="CB23" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="CC23" s="1">
-        <v>67341.632013</v>
+        <v>67341.632012999995</v>
       </c>
       <c r="CD23" s="1">
-        <v>18.706009</v>
+        <v>18.706009000000002</v>
       </c>
       <c r="CE23" s="1">
-        <v>2190.520000</v>
+        <v>2190.52</v>
       </c>
       <c r="CF23" s="1">
-        <v>-1745.470000</v>
+        <v>-1745.47</v>
       </c>
       <c r="CG23" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
     </row>
-    <row r="24">
+    <row r="24" spans="1:85">
       <c r="A24" s="1">
-        <v>67166.268468</v>
+        <v>67166.268467999995</v>
       </c>
       <c r="B24" s="1">
         <v>18.657297</v>
       </c>
       <c r="C24" s="1">
-        <v>1147.750000</v>
+        <v>1147.75</v>
       </c>
       <c r="D24" s="1">
-        <v>-243.810000</v>
+        <v>-243.81</v>
       </c>
       <c r="E24" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="F24" s="1">
         <v>67176.720663</v>
       </c>
       <c r="G24" s="1">
-        <v>18.660200</v>
+        <v>18.6602</v>
       </c>
       <c r="H24" s="1">
-        <v>1166.520000</v>
+        <v>1166.52</v>
       </c>
       <c r="I24" s="1">
-        <v>-205.391000</v>
+        <v>-205.39099999999999</v>
       </c>
       <c r="J24" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="K24" s="1">
-        <v>67187.205129</v>
+        <v>67187.205128999994</v>
       </c>
       <c r="L24" s="1">
-        <v>18.663113</v>
+        <v>18.663112999999999</v>
       </c>
       <c r="M24" s="1">
-        <v>1193.650000</v>
+        <v>1193.6500000000001</v>
       </c>
       <c r="N24" s="1">
-        <v>-145.550000</v>
+        <v>-145.55000000000001</v>
       </c>
       <c r="O24" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="P24" s="1">
-        <v>67197.771900</v>
+        <v>67197.771900000007</v>
       </c>
       <c r="Q24" s="1">
         <v>18.666048</v>
       </c>
       <c r="R24" s="1">
-        <v>1201.770000</v>
+        <v>1201.77</v>
       </c>
       <c r="S24" s="1">
-        <v>-125.384000</v>
+        <v>-125.384</v>
       </c>
       <c r="T24" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="U24" s="1">
-        <v>67208.240429</v>
+        <v>67208.240428999998</v>
       </c>
       <c r="V24" s="1">
-        <v>18.668956</v>
+        <v>18.668956000000001</v>
       </c>
       <c r="W24" s="1">
-        <v>1209.500000</v>
+        <v>1209.5</v>
       </c>
       <c r="X24" s="1">
-        <v>-106.042000</v>
+        <v>-106.042</v>
       </c>
       <c r="Y24" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="Z24" s="1">
-        <v>67219.154399</v>
+        <v>67219.154399000006</v>
       </c>
       <c r="AA24" s="1">
-        <v>18.671987</v>
+        <v>18.671987000000001</v>
       </c>
       <c r="AB24" s="1">
-        <v>1218.120000</v>
+        <v>1218.1199999999999</v>
       </c>
       <c r="AC24" s="1">
-        <v>-90.439200</v>
+        <v>-90.4392</v>
       </c>
       <c r="AD24" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AE24" s="1">
-        <v>67229.579811</v>
+        <v>67229.579811000003</v>
       </c>
       <c r="AF24" s="1">
-        <v>18.674883</v>
+        <v>18.674883000000001</v>
       </c>
       <c r="AG24" s="1">
-        <v>1223.200000</v>
+        <v>1223.2</v>
       </c>
       <c r="AH24" s="1">
-        <v>-86.303500</v>
+        <v>-86.3035</v>
       </c>
       <c r="AI24" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AJ24" s="1">
-        <v>67240.128723</v>
+        <v>67240.128723000002</v>
       </c>
       <c r="AK24" s="1">
-        <v>18.677814</v>
+        <v>18.677814000000001</v>
       </c>
       <c r="AL24" s="1">
-        <v>1230.850000</v>
+        <v>1230.8499999999999</v>
       </c>
       <c r="AM24" s="1">
-        <v>-89.863300</v>
+        <v>-89.863299999999995</v>
       </c>
       <c r="AN24" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AO24" s="1">
-        <v>67251.028805</v>
+        <v>67251.028804999994</v>
       </c>
       <c r="AP24" s="1">
-        <v>18.680841</v>
+        <v>18.680841000000001</v>
       </c>
       <c r="AQ24" s="1">
-        <v>1239.070000</v>
+        <v>1239.07</v>
       </c>
       <c r="AR24" s="1">
-        <v>-101.890000</v>
+        <v>-101.89</v>
       </c>
       <c r="AS24" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AT24" s="1">
-        <v>67262.156054</v>
+        <v>67262.156054000006</v>
       </c>
       <c r="AU24" s="1">
-        <v>18.683932</v>
+        <v>18.683931999999999</v>
       </c>
       <c r="AV24" s="1">
-        <v>1249.220000</v>
+        <v>1249.22</v>
       </c>
       <c r="AW24" s="1">
-        <v>-121.236000</v>
+        <v>-121.236</v>
       </c>
       <c r="AX24" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AY24" s="1">
-        <v>67273.477735</v>
+        <v>67273.477734999993</v>
       </c>
       <c r="AZ24" s="1">
-        <v>18.687077</v>
+        <v>18.687076999999999</v>
       </c>
       <c r="BA24" s="1">
-        <v>1257.820000</v>
+        <v>1257.82</v>
       </c>
       <c r="BB24" s="1">
-        <v>-138.778000</v>
+        <v>-138.77799999999999</v>
       </c>
       <c r="BC24" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BD24" s="1">
         <v>67284.570796</v>
       </c>
       <c r="BE24" s="1">
-        <v>18.690159</v>
+        <v>18.690159000000001</v>
       </c>
       <c r="BF24" s="1">
-        <v>1298.360000</v>
+        <v>1298.3599999999999</v>
       </c>
       <c r="BG24" s="1">
-        <v>-220.849000</v>
+        <v>-220.84899999999999</v>
       </c>
       <c r="BH24" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BI24" s="1">
-        <v>67295.591867</v>
+        <v>67295.591866999996</v>
       </c>
       <c r="BJ24" s="1">
-        <v>18.693220</v>
+        <v>18.69322</v>
       </c>
       <c r="BK24" s="1">
-        <v>1368.910000</v>
+        <v>1368.91</v>
       </c>
       <c r="BL24" s="1">
-        <v>-357.094000</v>
+        <v>-357.09399999999999</v>
       </c>
       <c r="BM24" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BN24" s="1">
-        <v>67307.131292</v>
+        <v>67307.131292000005</v>
       </c>
       <c r="BO24" s="1">
-        <v>18.696425</v>
+        <v>18.696425000000001</v>
       </c>
       <c r="BP24" s="1">
-        <v>1484.650000</v>
+        <v>1484.65</v>
       </c>
       <c r="BQ24" s="1">
-        <v>-578.055000</v>
+        <v>-578.05499999999995</v>
       </c>
       <c r="BR24" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BS24" s="1">
-        <v>67318.122672</v>
+        <v>67318.122671999998</v>
       </c>
       <c r="BT24" s="1">
         <v>18.699479</v>
       </c>
       <c r="BU24" s="1">
-        <v>1618.490000</v>
+        <v>1618.49</v>
       </c>
       <c r="BV24" s="1">
-        <v>-826.185000</v>
+        <v>-826.18499999999995</v>
       </c>
       <c r="BW24" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BX24" s="1">
-        <v>67329.155150</v>
+        <v>67329.155150000006</v>
       </c>
       <c r="BY24" s="1">
-        <v>18.702543</v>
+        <v>18.702542999999999</v>
       </c>
       <c r="BZ24" s="1">
-        <v>1771.360000</v>
+        <v>1771.36</v>
       </c>
       <c r="CA24" s="1">
-        <v>-1095.240000</v>
+        <v>-1095.24</v>
       </c>
       <c r="CB24" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="CC24" s="1">
-        <v>67342.149373</v>
+        <v>67342.149372999993</v>
       </c>
       <c r="CD24" s="1">
         <v>18.706153</v>
       </c>
       <c r="CE24" s="1">
-        <v>2190.600000</v>
+        <v>2190.6</v>
       </c>
       <c r="CF24" s="1">
-        <v>-1743.370000</v>
+        <v>-1743.37</v>
       </c>
       <c r="CG24" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
     </row>
-    <row r="25">
+    <row r="25" spans="1:85">
       <c r="A25" s="1">
-        <v>67166.613716</v>
+        <v>67166.613716000007</v>
       </c>
       <c r="B25" s="1">
-        <v>18.657393</v>
+        <v>18.657392999999999</v>
       </c>
       <c r="C25" s="1">
-        <v>1147.690000</v>
+        <v>1147.69</v>
       </c>
       <c r="D25" s="1">
-        <v>-243.552000</v>
+        <v>-243.55199999999999</v>
       </c>
       <c r="E25" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="F25" s="1">
-        <v>67177.065878</v>
+        <v>67177.065877999994</v>
       </c>
       <c r="G25" s="1">
-        <v>18.660296</v>
+        <v>18.660295999999999</v>
       </c>
       <c r="H25" s="1">
-        <v>1166.840000</v>
+        <v>1166.8399999999999</v>
       </c>
       <c r="I25" s="1">
-        <v>-206.344000</v>
+        <v>-206.34399999999999</v>
       </c>
       <c r="J25" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="K25" s="1">
-        <v>67187.549321</v>
+        <v>67187.549320999999</v>
       </c>
       <c r="L25" s="1">
-        <v>18.663208</v>
+        <v>18.663208000000001</v>
       </c>
       <c r="M25" s="1">
-        <v>1193.830000</v>
+        <v>1193.83</v>
       </c>
       <c r="N25" s="1">
-        <v>-145.514000</v>
+        <v>-145.51400000000001</v>
       </c>
       <c r="O25" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="P25" s="1">
-        <v>67198.470732</v>
+        <v>67198.470732000002</v>
       </c>
       <c r="Q25" s="1">
         <v>18.666242</v>
       </c>
       <c r="R25" s="1">
-        <v>1201.780000</v>
+        <v>1201.78</v>
       </c>
       <c r="S25" s="1">
-        <v>-125.371000</v>
+        <v>-125.371</v>
       </c>
       <c r="T25" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="U25" s="1">
-        <v>67208.925406</v>
+        <v>67208.925405999995</v>
       </c>
       <c r="V25" s="1">
-        <v>18.669146</v>
+        <v>18.669146000000001</v>
       </c>
       <c r="W25" s="1">
-        <v>1209.740000</v>
+        <v>1209.74</v>
       </c>
       <c r="X25" s="1">
-        <v>-106.143000</v>
+        <v>-106.143</v>
       </c>
       <c r="Y25" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="Z25" s="1">
-        <v>67219.504078</v>
+        <v>67219.504077999998</v>
       </c>
       <c r="AA25" s="1">
-        <v>18.672084</v>
+        <v>18.672084000000002</v>
       </c>
       <c r="AB25" s="1">
-        <v>1217.910000</v>
+        <v>1217.9100000000001</v>
       </c>
       <c r="AC25" s="1">
-        <v>-90.384600</v>
+        <v>-90.384600000000006</v>
       </c>
       <c r="AD25" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AE25" s="1">
-        <v>67229.927540</v>
+        <v>67229.927540000004</v>
       </c>
       <c r="AF25" s="1">
-        <v>18.674980</v>
+        <v>18.674980000000001</v>
       </c>
       <c r="AG25" s="1">
-        <v>1223.190000</v>
+        <v>1223.19</v>
       </c>
       <c r="AH25" s="1">
-        <v>-86.259400</v>
+        <v>-86.259399999999999</v>
       </c>
       <c r="AI25" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AJ25" s="1">
-        <v>67240.484355</v>
+        <v>67240.484354999993</v>
       </c>
       <c r="AK25" s="1">
-        <v>18.677912</v>
+        <v>18.677911999999999</v>
       </c>
       <c r="AL25" s="1">
-        <v>1230.810000</v>
+        <v>1230.81</v>
       </c>
       <c r="AM25" s="1">
-        <v>-89.854800</v>
+        <v>-89.854799999999997</v>
       </c>
       <c r="AN25" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AO25" s="1">
-        <v>67251.699892</v>
+        <v>67251.699892000004</v>
       </c>
       <c r="AP25" s="1">
-        <v>18.681028</v>
+        <v>18.681028000000001</v>
       </c>
       <c r="AQ25" s="1">
-        <v>1239.100000</v>
+        <v>1239.0999999999999</v>
       </c>
       <c r="AR25" s="1">
-        <v>-101.877000</v>
+        <v>-101.877</v>
       </c>
       <c r="AS25" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AT25" s="1">
-        <v>67262.832597</v>
+        <v>67262.832597000001</v>
       </c>
       <c r="AU25" s="1">
-        <v>18.684120</v>
+        <v>18.68412</v>
       </c>
       <c r="AV25" s="1">
-        <v>1249.220000</v>
+        <v>1249.22</v>
       </c>
       <c r="AW25" s="1">
-        <v>-121.283000</v>
+        <v>-121.283</v>
       </c>
       <c r="AX25" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AY25" s="1">
-        <v>67273.925126</v>
+        <v>67273.925126000002</v>
       </c>
       <c r="AZ25" s="1">
-        <v>18.687201</v>
+        <v>18.687201000000002</v>
       </c>
       <c r="BA25" s="1">
-        <v>1257.810000</v>
+        <v>1257.81</v>
       </c>
       <c r="BB25" s="1">
-        <v>-138.767000</v>
+        <v>-138.767</v>
       </c>
       <c r="BC25" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BD25" s="1">
-        <v>67284.930857</v>
+        <v>67284.930856999999</v>
       </c>
       <c r="BE25" s="1">
-        <v>18.690259</v>
+        <v>18.690259000000001</v>
       </c>
       <c r="BF25" s="1">
-        <v>1298.370000</v>
+        <v>1298.3699999999999</v>
       </c>
       <c r="BG25" s="1">
-        <v>-220.858000</v>
+        <v>-220.858</v>
       </c>
       <c r="BH25" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BI25" s="1">
-        <v>67295.967865</v>
+        <v>67295.967864999999</v>
       </c>
       <c r="BJ25" s="1">
         <v>18.693324</v>
       </c>
       <c r="BK25" s="1">
-        <v>1368.830000</v>
+        <v>1368.83</v>
       </c>
       <c r="BL25" s="1">
-        <v>-357.191000</v>
+        <v>-357.19099999999997</v>
       </c>
       <c r="BM25" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BN25" s="1">
-        <v>67307.533050</v>
+        <v>67307.533049999998</v>
       </c>
       <c r="BO25" s="1">
-        <v>18.696537</v>
+        <v>18.696536999999999</v>
       </c>
       <c r="BP25" s="1">
-        <v>1484.640000</v>
+        <v>1484.64</v>
       </c>
       <c r="BQ25" s="1">
-        <v>-578.083000</v>
+        <v>-578.08299999999997</v>
       </c>
       <c r="BR25" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BS25" s="1">
-        <v>67318.554653</v>
+        <v>67318.554652999999</v>
       </c>
       <c r="BT25" s="1">
-        <v>18.699599</v>
+        <v>18.699598999999999</v>
       </c>
       <c r="BU25" s="1">
-        <v>1618.570000</v>
+        <v>1618.57</v>
       </c>
       <c r="BV25" s="1">
-        <v>-826.206000</v>
+        <v>-826.20600000000002</v>
       </c>
       <c r="BW25" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BX25" s="1">
-        <v>67329.576263</v>
+        <v>67329.576262999995</v>
       </c>
       <c r="BY25" s="1">
-        <v>18.702660</v>
+        <v>18.702660000000002</v>
       </c>
       <c r="BZ25" s="1">
-        <v>1771.300000</v>
+        <v>1771.3</v>
       </c>
       <c r="CA25" s="1">
-        <v>-1095.350000</v>
+        <v>-1095.3499999999999</v>
       </c>
       <c r="CB25" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="CC25" s="1">
-        <v>67342.668653</v>
+        <v>67342.668653000001</v>
       </c>
       <c r="CD25" s="1">
-        <v>18.706297</v>
+        <v>18.706296999999999</v>
       </c>
       <c r="CE25" s="1">
-        <v>2191.240000</v>
+        <v>2191.2399999999998</v>
       </c>
       <c r="CF25" s="1">
-        <v>-1743.980000</v>
+        <v>-1743.98</v>
       </c>
       <c r="CG25" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
     </row>
-    <row r="26">
+    <row r="26" spans="1:85">
       <c r="A26" s="1">
-        <v>67166.952485</v>
+        <v>67166.952485000002</v>
       </c>
       <c r="B26" s="1">
         <v>18.657487</v>
       </c>
       <c r="C26" s="1">
-        <v>1147.820000</v>
+        <v>1147.82</v>
       </c>
       <c r="D26" s="1">
-        <v>-243.692000</v>
+        <v>-243.69200000000001</v>
       </c>
       <c r="E26" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="F26" s="1">
-        <v>67177.711677</v>
+        <v>67177.711676999999</v>
       </c>
       <c r="G26" s="1">
-        <v>18.660475</v>
+        <v>18.660475000000002</v>
       </c>
       <c r="H26" s="1">
-        <v>1167.170000</v>
+        <v>1167.17</v>
       </c>
       <c r="I26" s="1">
-        <v>-205.272000</v>
+        <v>-205.27199999999999</v>
       </c>
       <c r="J26" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="K26" s="1">
-        <v>67188.242232</v>
+        <v>67188.242232000004</v>
       </c>
       <c r="L26" s="1">
         <v>18.663401</v>
       </c>
       <c r="M26" s="1">
-        <v>1193.660000</v>
+        <v>1193.6600000000001</v>
       </c>
       <c r="N26" s="1">
-        <v>-145.449000</v>
+        <v>-145.44900000000001</v>
       </c>
       <c r="O26" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="P26" s="1">
-        <v>67198.818955</v>
+        <v>67198.818954999995</v>
       </c>
       <c r="Q26" s="1">
-        <v>18.666339</v>
+        <v>18.666339000000001</v>
       </c>
       <c r="R26" s="1">
-        <v>1201.790000</v>
+        <v>1201.79</v>
       </c>
       <c r="S26" s="1">
-        <v>-125.390000</v>
+        <v>-125.39</v>
       </c>
       <c r="T26" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="U26" s="1">
-        <v>67209.274589</v>
+        <v>67209.274588999993</v>
       </c>
       <c r="V26" s="1">
-        <v>18.669243</v>
+        <v>18.669243000000002</v>
       </c>
       <c r="W26" s="1">
-        <v>1209.750000</v>
+        <v>1209.75</v>
       </c>
       <c r="X26" s="1">
-        <v>-106.163000</v>
+        <v>-106.163</v>
       </c>
       <c r="Y26" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="Z26" s="1">
-        <v>67219.852271</v>
+        <v>67219.852270999996</v>
       </c>
       <c r="AA26" s="1">
-        <v>18.672181</v>
+        <v>18.672180999999998</v>
       </c>
       <c r="AB26" s="1">
-        <v>1218.120000</v>
+        <v>1218.1199999999999</v>
       </c>
       <c r="AC26" s="1">
-        <v>-90.303000</v>
+        <v>-90.302999999999997</v>
       </c>
       <c r="AD26" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AE26" s="1">
-        <v>67230.587679</v>
+        <v>67230.587679000004</v>
       </c>
       <c r="AF26" s="1">
-        <v>18.675163</v>
+        <v>18.675163000000001</v>
       </c>
       <c r="AG26" s="1">
-        <v>1223.240000</v>
+        <v>1223.24</v>
       </c>
       <c r="AH26" s="1">
-        <v>-86.296800</v>
+        <v>-86.296800000000005</v>
       </c>
       <c r="AI26" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AJ26" s="1">
-        <v>67241.133650</v>
+        <v>67241.133650000003</v>
       </c>
       <c r="AK26" s="1">
-        <v>18.678093</v>
+        <v>18.678093000000001</v>
       </c>
       <c r="AL26" s="1">
-        <v>1230.860000</v>
+        <v>1230.8599999999999</v>
       </c>
       <c r="AM26" s="1">
-        <v>-89.869000</v>
+        <v>-89.869</v>
       </c>
       <c r="AN26" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AO26" s="1">
-        <v>67252.108099</v>
+        <v>67252.108099000005</v>
       </c>
       <c r="AP26" s="1">
         <v>18.681141</v>
       </c>
       <c r="AQ26" s="1">
-        <v>1239.080000</v>
+        <v>1239.08</v>
       </c>
       <c r="AR26" s="1">
-        <v>-101.882000</v>
+        <v>-101.88200000000001</v>
       </c>
       <c r="AS26" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AT26" s="1">
-        <v>67263.281980</v>
+        <v>67263.28198</v>
       </c>
       <c r="AU26" s="1">
-        <v>18.684245</v>
+        <v>18.684245000000001</v>
       </c>
       <c r="AV26" s="1">
-        <v>1249.240000</v>
+        <v>1249.24</v>
       </c>
       <c r="AW26" s="1">
-        <v>-121.273000</v>
+        <v>-121.273</v>
       </c>
       <c r="AX26" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AY26" s="1">
-        <v>67274.283735</v>
+        <v>67274.283735000005</v>
       </c>
       <c r="AZ26" s="1">
-        <v>18.687301</v>
+        <v>18.687301000000001</v>
       </c>
       <c r="BA26" s="1">
-        <v>1257.820000</v>
+        <v>1257.82</v>
       </c>
       <c r="BB26" s="1">
-        <v>-138.761000</v>
+        <v>-138.761</v>
       </c>
       <c r="BC26" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BD26" s="1">
-        <v>67285.290455</v>
+        <v>67285.290454999995</v>
       </c>
       <c r="BE26" s="1">
         <v>18.690358</v>
       </c>
       <c r="BF26" s="1">
-        <v>1298.340000</v>
+        <v>1298.3399999999999</v>
       </c>
       <c r="BG26" s="1">
-        <v>-220.865000</v>
+        <v>-220.86500000000001</v>
       </c>
       <c r="BH26" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BI26" s="1">
-        <v>67296.341338</v>
+        <v>67296.341337999998</v>
       </c>
       <c r="BJ26" s="1">
-        <v>18.693428</v>
+        <v>18.693428000000001</v>
       </c>
       <c r="BK26" s="1">
-        <v>1368.800000</v>
+        <v>1368.8</v>
       </c>
       <c r="BL26" s="1">
-        <v>-357.190000</v>
+        <v>-357.19</v>
       </c>
       <c r="BM26" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BN26" s="1">
-        <v>67307.957129</v>
+        <v>67307.957129000002</v>
       </c>
       <c r="BO26" s="1">
         <v>18.696655</v>
       </c>
       <c r="BP26" s="1">
-        <v>1484.670000</v>
+        <v>1484.67</v>
       </c>
       <c r="BQ26" s="1">
-        <v>-578.088000</v>
+        <v>-578.08799999999997</v>
       </c>
       <c r="BR26" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BS26" s="1">
-        <v>67318.961867</v>
+        <v>67318.961867000005</v>
       </c>
       <c r="BT26" s="1">
-        <v>18.699712</v>
+        <v>18.699712000000002</v>
       </c>
       <c r="BU26" s="1">
-        <v>1618.590000</v>
+        <v>1618.59</v>
       </c>
       <c r="BV26" s="1">
-        <v>-826.229000</v>
+        <v>-826.22900000000004</v>
       </c>
       <c r="BW26" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BX26" s="1">
         <v>67329.999377</v>
       </c>
       <c r="BY26" s="1">
-        <v>18.702778</v>
+        <v>18.702777999999999</v>
       </c>
       <c r="BZ26" s="1">
-        <v>1771.180000</v>
+        <v>1771.18</v>
       </c>
       <c r="CA26" s="1">
-        <v>-1095.210000</v>
+        <v>-1095.21</v>
       </c>
       <c r="CB26" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="CC26" s="1">
-        <v>67343.220730</v>
+        <v>67343.220730000001</v>
       </c>
       <c r="CD26" s="1">
-        <v>18.706450</v>
+        <v>18.70645</v>
       </c>
       <c r="CE26" s="1">
-        <v>2190.510000</v>
+        <v>2190.5100000000002</v>
       </c>
       <c r="CF26" s="1">
-        <v>-1745.280000</v>
+        <v>-1745.28</v>
       </c>
       <c r="CG26" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
     </row>
   </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>